--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,9 @@
   <si>
     <t>按年預估完成時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷10</t>
   </si>
 </sst>
 </file>
@@ -214,10 +217,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -351,9 +354,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -381,15 +384,18 @@
                 <c:pt idx="8">
                   <c:v>卷9</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>卷10</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$10</c:f>
+              <c:f>Sheet1!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4583333333333333</c:v>
                 </c:pt>
@@ -417,6 +423,9 @@
                 <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -430,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183401224"/>
-        <c:axId val="183386008"/>
+        <c:axId val="203011816"/>
+        <c:axId val="203031248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183401224"/>
+        <c:axId val="203011816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,12 +555,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183386008"/>
+        <c:crossAx val="203031248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183386008"/>
+        <c:axId val="203031248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183401224"/>
+        <c:crossAx val="203011816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1611,19 +1620,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1653,13 +1662,13 @@
       <c r="O1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1709,19 +1718,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>1443.1111111111111</v>
+        <v>1339.6</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45462.111111111109</v>
+        <v>45358.6</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="2">M2/$L$11</f>
-        <v>571.51865808389266</v>
+        <v>498.49495755523191</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44590.518658083893</v>
+        <v>44517.494957555231</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1738,7 +1747,7 @@
         <v>44071</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="3">D3-C3+1</f>
+        <f t="shared" ref="E3:E11" si="3">D3-C3+1</f>
         <v>30</v>
       </c>
       <c r="F3">
@@ -1770,19 +1779,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>1655.3333333333333</v>
+        <v>1536.6</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45674.333333333336</v>
+        <v>45555.6</v>
       </c>
       <c r="Q3">
         <f t="shared" si="2"/>
-        <v>727.38738301586341</v>
+        <v>634.44812779756785</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44746.387383015863</v>
+        <v>44653.448127797565</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1832,19 +1841,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>2504.2222222222222</v>
+        <v>2324.6</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>46523.222222222219</v>
+        <v>46343.6</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>1091.0810745237952</v>
+        <v>951.67219169635177</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>45110.081074523798</v>
+        <v>44970.672191696351</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1894,19 +1903,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>3735.1111111111109</v>
+        <v>3467.2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>47754.111111111109</v>
+        <v>47486.2</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1530.1113164155129</v>
+        <v>1334.606954545598</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="6"/>
-        <v>45549.11131641551</v>
+        <v>45353.606954545598</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1956,19 +1965,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>5623.8888888888887</v>
+        <v>5220.5</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>49642.888888888891</v>
+        <v>49239.5</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2356.2155585549576</v>
+        <v>2055.1587568299788</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>46375.215558554955</v>
+        <v>46074.15875682998</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2018,19 +2027,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>6239.333333333333</v>
+        <v>5791.8</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>50258.333333333336</v>
+        <v>49810.8</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>2491.3017868293323</v>
+        <v>2172.9848377066701</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>46510.301786829332</v>
+        <v>46191.984837706666</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2068,10 +2077,10 @@
       <c r="K8" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>294</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>959</v>
       </c>
       <c r="N8">
@@ -2080,19 +2089,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>6239.333333333333</v>
+        <v>5791.8</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>50258.333333333336</v>
+        <v>49810.8</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>2491.3017868293323</v>
+        <v>2172.9848377066701</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="6"/>
-        <v>46510.301786829332</v>
+        <v>46191.984837706666</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2165,16 +2174,47 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>21.222222222222221</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44207</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44212</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11" si="8">D11-C11+1</f>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="9">G10+1</f>
+        <v>-204</v>
+      </c>
+      <c r="G11">
+        <v>-205</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11" si="10">G11-F11+1</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>H11/E11</f>
+        <v>0</v>
+      </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.38493931368327505</v>
+        <v>0.44132843605669692</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>卷10</t>
+  </si>
+  <si>
+    <t>卷11</t>
   </si>
 </sst>
 </file>
@@ -354,9 +357,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -387,15 +390,18 @@
                 <c:pt idx="9">
                   <c:v>卷10</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>卷11</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$11</c:f>
+              <c:f>Sheet1!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.4583333333333333</c:v>
                 </c:pt>
@@ -424,7 +430,10 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203011816"/>
-        <c:axId val="203031248"/>
+        <c:axId val="224934680"/>
+        <c:axId val="225366600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203011816"/>
+        <c:axId val="224934680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,12 +564,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203031248"/>
+        <c:crossAx val="225366600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203031248"/>
+        <c:axId val="225366600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +682,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203011816"/>
+        <c:crossAx val="224934680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1600,9 +1609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1638,7 +1649,7 @@
       <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1718,19 +1729,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>1339.6</v>
+        <v>1267.2727272727273</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45358.6</v>
+        <v>45286.272727272728</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="2">M2/$L$11</f>
-        <v>498.49495755523191</v>
+        <v>532.37583578385136</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44517.494957555231</v>
+        <v>44551.375835783852</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1747,7 +1758,7 @@
         <v>44071</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E11" si="3">D3-C3+1</f>
+        <f t="shared" ref="E3:E10" si="3">D3-C3+1</f>
         <v>30</v>
       </c>
       <c r="F3">
@@ -1779,19 +1790,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>1536.6</v>
+        <v>1453.6363636363637</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45555.6</v>
+        <v>45472.63636363636</v>
       </c>
       <c r="Q3">
         <f t="shared" si="2"/>
-        <v>634.44812779756785</v>
+        <v>677.56924554308353</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44653.448127797565</v>
+        <v>44696.569245543084</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1841,19 +1852,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>2324.6</v>
+        <v>2199.090909090909</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>46343.6</v>
+        <v>46218.090909090912</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>951.67219169635177</v>
+        <v>1016.3538683146253</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44970.672191696351</v>
+        <v>45035.353868314625</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1903,19 +1914,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>3467.2</v>
+        <v>3280</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>47486.2</v>
+        <v>47299</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1334.606954545598</v>
+        <v>1425.3153058031291</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="6"/>
-        <v>45353.606954545598</v>
+        <v>45444.315305803131</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1965,19 +1976,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>5220.5</v>
+        <v>4938.636363636364</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>49239.5</v>
+        <v>48957.636363636368</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2055.1587568299788</v>
+        <v>2194.8403775270599</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>46074.15875682998</v>
+        <v>46213.840377527056</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2027,19 +2038,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>5791.8</v>
+        <v>5479.090909090909</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>49810.8</v>
+        <v>49498.090909090912</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>2172.9848377066701</v>
+        <v>2320.674665985061</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>46191.984837706666</v>
+        <v>46339.674665985061</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2089,19 +2100,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>5791.8</v>
+        <v>5479.090909090909</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>49810.8</v>
+        <v>49498.090909090912</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>2172.9848377066701</v>
+        <v>2320.674665985061</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="6"/>
-        <v>46191.984837706666</v>
+        <v>46339.674665985061</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2174,7 +2185,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>19.7</v>
+        <v>18.636363636363637</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2191,7 +2202,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E12" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2199,22 +2210,55 @@
         <v>-204</v>
       </c>
       <c r="G11">
-        <v>-205</v>
+        <v>-203</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11" si="10">G11-F11+1</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f>H11/E11</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.44132843605669692</v>
+        <v>0.41324189644347736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44213</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44220</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="11">G11+1</f>
+        <v>-202</v>
+      </c>
+      <c r="G12">
+        <v>-200</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12" si="12">G12-F12+1</f>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>H12/E12</f>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>卷11</t>
+  </si>
+  <si>
+    <t>卷12</t>
   </si>
 </sst>
 </file>
@@ -357,9 +360,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -392,16 +395,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>卷11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>卷12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$12</c:f>
+              <c:f>Sheet1!$I$2:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4583333333333333</c:v>
                 </c:pt>
@@ -434,6 +440,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,11 +457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224934680"/>
-        <c:axId val="225366600"/>
+        <c:axId val="227206624"/>
+        <c:axId val="227303368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224934680"/>
+        <c:axId val="227206624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,12 +573,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225366600"/>
+        <c:crossAx val="227303368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225366600"/>
+        <c:axId val="227303368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +691,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224934680"/>
+        <c:crossAx val="227206624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1609,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1729,19 +1738,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>1267.2727272727273</v>
+        <v>1212.6666666666665</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45286.272727272728</v>
+        <v>45231.666666666664</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="2">M2/$L$11</f>
-        <v>532.37583578385136</v>
+        <v>523.98789172410159</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44551.375835783852</v>
+        <v>44542.9878917241</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1790,19 +1799,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>1453.6363636363637</v>
+        <v>1391</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45472.63636363636</v>
+        <v>45410</v>
       </c>
       <c r="Q3">
         <f t="shared" si="2"/>
-        <v>677.56924554308353</v>
+        <v>666.89368037612928</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44696.569245543084</v>
+        <v>44685.893680376132</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1852,19 +1861,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>2199.090909090909</v>
+        <v>2104.333333333333</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>46218.090909090912</v>
+        <v>46123.333333333336</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>1016.3538683146253</v>
+        <v>1000.340520564194</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>45035.353868314625</v>
+        <v>45019.340520564198</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1914,19 +1923,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>3280</v>
+        <v>3138.6666666666665</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>47299</v>
+        <v>47157.666666666664</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1425.3153058031291</v>
+        <v>1402.8584919340719</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="6"/>
-        <v>45444.315305803131</v>
+        <v>45421.858491934072</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1976,19 +1985,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>4938.636363636364</v>
+        <v>4725.833333333333</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>48957.636363636368</v>
+        <v>48744.833333333336</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>2194.8403775270599</v>
+        <v>2160.259171789819</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>46213.840377527056</v>
+        <v>46179.259171789818</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2038,19 +2047,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>5479.090909090909</v>
+        <v>5243</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>49498.090909090912</v>
+        <v>49262</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>2320.674665985061</v>
+        <v>2284.1108552882429</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>46339.674665985061</v>
+        <v>46303.110855288243</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2100,19 +2109,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>5479.090909090909</v>
+        <v>5243</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>49498.090909090912</v>
+        <v>49262</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>2320.674665985061</v>
+        <v>2284.1108552882429</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="6"/>
-        <v>46339.674665985061</v>
+        <v>46303.110855288243</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2185,7 +2194,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>18.636363636363637</v>
+        <v>17.833333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2202,7 +2211,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E12" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E13" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2225,7 +2234,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.41324189644347736</v>
+        <v>0.4198570300472475</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2259,6 +2268,39 @@
       <c r="I12">
         <f>H12/E12</f>
         <v>0.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44221</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44229</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="13">G12+1</f>
+        <v>-199</v>
+      </c>
+      <c r="G13">
+        <v>-188</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13" si="14">G13-F13+1</f>
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <f>H13/E13</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每年所需天數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>總年數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年/天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>截止卷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +147,17 @@
   </si>
   <si>
     <t>卷12</t>
+  </si>
+  <si>
+    <t>卷13</t>
+  </si>
+  <si>
+    <t>一天看幾年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天/年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>每年所需天數</c:v>
+                  <c:v>一天看幾年</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,9 +363,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -398,51 +401,57 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>卷12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>卷13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:f>Sheet1!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.4583333333333333</c:v>
+                  <c:v>0.68571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8214285714285714</c:v>
+                  <c:v>1.2173913043478262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0869565217391304</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70833333333333337</c:v>
+                  <c:v>1.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0769230769230769</c:v>
+                  <c:v>0.9285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1875</c:v>
+                  <c:v>0.84210526315789469</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.375</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,11 +466,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227206624"/>
-        <c:axId val="227303368"/>
+        <c:axId val="4149400"/>
+        <c:axId val="231574176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227206624"/>
+        <c:axId val="4149400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,12 +582,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227303368"/>
+        <c:crossAx val="231574176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227303368"/>
+        <c:axId val="231574176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227206624"/>
+        <c:crossAx val="4149400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1618,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1665,31 +1674,31 @@
         <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -1720,11 +1729,11 @@
         <v>35</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I9" si="0">H2/E2</f>
-        <v>1.4583333333333333</v>
+        <f>E2/H2</f>
+        <v>0.68571428571428572</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>68</v>
@@ -1737,20 +1746,20 @@
         <v>623</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>1212.6666666666665</v>
+        <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
+        <v>1171.6923076923076</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45231.666666666664</v>
+        <v>45190.692307692305</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q8" si="2">M2/$L$11</f>
-        <v>523.98789172410159</v>
+        <f>(M2-$F$2)*$L$11</f>
+        <v>793.14765570079203</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44542.9878917241</v>
+        <v>44812.147655700792</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1767,7 +1776,7 @@
         <v>44071</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="3">D3-C3+1</f>
+        <f t="shared" ref="E3:E10" si="1">D3-C3+1</f>
         <v>30</v>
       </c>
       <c r="F3">
@@ -1777,15 +1786,15 @@
         <v>-321</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="4">G3-F3+1</f>
+        <f t="shared" ref="H3:H10" si="2">G3-F3+1</f>
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="I3:I14" si="3">E3/H3</f>
+        <v>0.6</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>78</v>
@@ -1794,24 +1803,24 @@
         <v>280</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N8" si="5">M3-$F$2</f>
+        <f t="shared" ref="N3:N8" si="4">M3-$F$2</f>
         <v>683</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>1391</v>
+        <f t="shared" si="0"/>
+        <v>1344</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45410</v>
+        <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
+        <v>45363</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="2"/>
-        <v>666.89368037612928</v>
+        <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
+        <v>869.53426780680729</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="6"/>
-        <v>44685.893680376132</v>
+        <f t="shared" si="5"/>
+        <v>44888.534267806805</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1828,7 +1837,7 @@
         <v>44099</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="F4">
@@ -1839,15 +1848,15 @@
         <v>-298</v>
       </c>
       <c r="H4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.8214285714285714</v>
+        <f t="shared" si="3"/>
+        <v>1.2173913043478262</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>118</v>
@@ -1856,24 +1865,24 @@
         <v>420</v>
       </c>
       <c r="N4">
+        <f>M4-$F$2</f>
+        <v>823</v>
+      </c>
+      <c r="O4">
+        <f>L4*$L$10</f>
+        <v>2033.2307692307691</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>823</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>2104.333333333333</v>
-      </c>
-      <c r="P4" s="1">
+        <v>46052.230769230766</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="6"/>
-        <v>46123.333333333336</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>1000.340520564194</v>
+        <v>1047.7696960541762</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="6"/>
-        <v>45019.340520564198</v>
+        <f t="shared" si="5"/>
+        <v>45066.76969605418</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1890,7 +1899,7 @@
         <v>44121</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F5">
@@ -1901,15 +1910,15 @@
         <v>-273</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1.0869565217391304</v>
+        <f t="shared" si="3"/>
+        <v>0.92</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5">
         <v>176</v>
@@ -1918,24 +1927,24 @@
         <v>589</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>992</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>3138.6666666666665</v>
+        <f t="shared" si="0"/>
+        <v>3032.6153846153843</v>
       </c>
       <c r="P5" s="1">
+        <f>$C$2+O5</f>
+        <v>47051.615384615383</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="6"/>
-        <v>47157.666666666664</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>1402.8584919340719</v>
+        <v>1262.9253201527861</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="6"/>
-        <v>45421.858491934072</v>
+        <f>$C$2+Q5</f>
+        <v>45281.925320152783</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1952,7 +1961,7 @@
         <v>44145</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F6">
@@ -1963,15 +1972,15 @@
         <v>-256</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <f t="shared" si="3"/>
+        <v>1.411764705882353</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6">
         <v>265</v>
@@ -1980,24 +1989,24 @@
         <v>907</v>
       </c>
       <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1310</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>4566.1538461538457</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>1310</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>4725.833333333333</v>
-      </c>
-      <c r="P6" s="1">
+        <v>48585.153846153844</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="6"/>
-        <v>48744.833333333336</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>2160.259171789819</v>
+        <v>1667.7743643146671</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="6"/>
-        <v>46179.259171789818</v>
+        <f t="shared" si="5"/>
+        <v>45686.774364314668</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2014,7 +2023,7 @@
         <v>44171</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="F7">
@@ -2025,15 +2034,15 @@
         <v>-228</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1.0769230769230769</v>
+        <f t="shared" si="3"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>294</v>
@@ -2042,24 +2051,24 @@
         <v>959</v>
       </c>
       <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1362</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>5065.8461538461534</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>1362</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>5243</v>
-      </c>
-      <c r="P7" s="1">
+        <v>49084.846153846156</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="6"/>
-        <v>49262</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>2284.1108552882429</v>
+        <v>1733.9760948065468</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="6"/>
-        <v>46303.110855288243</v>
+        <f t="shared" si="5"/>
+        <v>45752.976094806545</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2076,7 +2085,7 @@
         <v>44187</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F8">
@@ -2087,15 +2096,15 @@
         <v>-209</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1.1875</v>
+        <f t="shared" si="3"/>
+        <v>0.84210526315789469</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L8" s="5">
         <v>294</v>
@@ -2104,24 +2113,24 @@
         <v>959</v>
       </c>
       <c r="N8">
+        <f t="shared" si="4"/>
+        <v>1362</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>5065.8461538461534</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>1362</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>5243</v>
-      </c>
-      <c r="P8" s="1">
+        <v>49084.846153846156</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="6"/>
-        <v>49262</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>2284.1108552882429</v>
+        <v>1733.9760948065468</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="6"/>
-        <v>46303.110855288243</v>
+        <f>$C$2+Q8</f>
+        <v>45752.976094806545</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2138,7 +2147,7 @@
         <v>44202</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F9">
@@ -2149,12 +2158,12 @@
         <v>-207</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -2171,7 +2180,7 @@
         <v>44207</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F10">
@@ -2182,19 +2191,19 @@
         <v>-205</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f>H10/E10</f>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>17.833333333333332</v>
+        <v>17.23076923076923</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2202,7 +2211,7 @@
         <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>44207</v>
@@ -2211,7 +2220,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E13" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E14" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2226,15 +2235,15 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <f>H11/E11</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.4198570300472475</v>
+        <v>1.2731102017669214</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2242,7 +2251,7 @@
         <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>44213</v>
@@ -2266,8 +2275,8 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <f>H12/E12</f>
-        <v>0.375</v>
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -2275,7 +2284,7 @@
         <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>44221</v>
@@ -2288,28 +2297,58 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="13">G12+1</f>
+        <f t="shared" ref="F13:F14" si="13">G12+1</f>
         <v>-199</v>
       </c>
       <c r="G13">
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13" si="14">G13-F13+1</f>
+        <f t="shared" ref="H13:H14" si="14">G13-F13+1</f>
         <v>12</v>
       </c>
       <c r="I13">
-        <f>H13/E13</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44229</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44238</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="13"/>
+        <v>-187</v>
+      </c>
+      <c r="G14">
+        <v>-178</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="Q2:Q8" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天/卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>截止卷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,7 +152,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天/年</t>
+    <t>卷14</t>
+  </si>
+  <si>
+    <t>一卷看幾天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,9 +362,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -404,16 +403,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>卷13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>卷14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$14</c:f>
+              <c:f>Sheet1!$I$2:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.68571428571428572</c:v>
                 </c:pt>
@@ -452,6 +454,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,11 +471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4149400"/>
-        <c:axId val="231574176"/>
+        <c:axId val="208396488"/>
+        <c:axId val="208829504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4149400"/>
+        <c:axId val="208396488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,12 +587,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231574176"/>
+        <c:crossAx val="208829504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231574176"/>
+        <c:axId val="208829504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +705,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4149400"/>
+        <c:crossAx val="208396488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1627,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1674,31 +1679,31 @@
         <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -1733,7 +1738,7 @@
         <v>0.68571428571428572</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>68</v>
@@ -1747,19 +1752,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>1171.6923076923076</v>
+        <v>1131.7142857142858</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45190.692307692305</v>
+        <v>45150.714285714283</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>793.14765570079203</v>
+        <v>754.87561469439061</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44812.147655700792</v>
+        <v>44773.875614694392</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1790,11 +1795,11 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I14" si="3">E3/H3</f>
+        <f t="shared" ref="I3:I15" si="3">E3/H3</f>
         <v>0.6</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3">
         <v>78</v>
@@ -1808,19 +1813,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1344</v>
+        <v>1298.1428571428571</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
-        <v>45363</v>
+        <v>45317.142857142855</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
-        <v>869.53426780680729</v>
+        <v>827.57631594906707</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="5"/>
-        <v>44888.534267806805</v>
+        <v>44846.576315949067</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1856,7 +1861,7 @@
         <v>1.2173913043478262</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>118</v>
@@ -1870,19 +1875,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>2033.2307692307691</v>
+        <v>1963.8571428571429</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>46052.230769230766</v>
+        <v>45982.857142857145</v>
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>1047.7696960541762</v>
+        <v>997.2112855433121</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>45066.76969605418</v>
+        <v>45016.211285543315</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1918,7 +1923,7 @@
         <v>0.92</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <v>176</v>
@@ -1932,19 +1937,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>3032.6153846153843</v>
+        <v>2929.1428571428569</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>47051.615384615383</v>
+        <v>46948.142857142855</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>1262.9253201527861</v>
+        <v>1201.9849274106509</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45281.925320152783</v>
+        <v>45220.984927410653</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1980,7 +1985,7 @@
         <v>1.411764705882353</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <v>265</v>
@@ -1994,19 +1999,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>4566.1538461538457</v>
+        <v>4410.3571428571431</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>48585.153846153844</v>
+        <v>48429.357142857145</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>1667.7743643146671</v>
+        <v>1587.2986440604361</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>45686.774364314668</v>
+        <v>45606.298644060436</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2042,7 +2047,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>294</v>
@@ -2056,19 +2061,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>5065.8461538461534</v>
+        <v>4893</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>49084.846153846156</v>
+        <v>48912</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>1733.9760948065468</v>
+        <v>1650.3059184811557</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>45752.976094806545</v>
+        <v>45669.305918481157</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2104,7 +2109,7 @@
         <v>0.84210526315789469</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="5">
         <v>294</v>
@@ -2118,19 +2123,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>5065.8461538461534</v>
+        <v>4893</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>49084.846153846156</v>
+        <v>48912</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>1733.9760948065468</v>
+        <v>1650.3059184811557</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45752.976094806545</v>
+        <v>45669.305918481157</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2199,11 +2204,11 @@
         <v>2.5</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>17.23076923076923</v>
+        <v>16.642857142857142</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2211,7 +2216,7 @@
         <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>44207</v>
@@ -2220,7 +2225,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E14" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E15" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2239,11 +2244,11 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2731102017669214</v>
+        <v>1.2116783542446077</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2251,7 +2256,7 @@
         <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>44213</v>
@@ -2284,7 +2289,7 @@
         <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>44221</v>
@@ -2297,14 +2302,14 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F14" si="13">G12+1</f>
+        <f t="shared" ref="F13:F15" si="13">G12+1</f>
         <v>-199</v>
       </c>
       <c r="G13">
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H14" si="14">G13-F13+1</f>
+        <f t="shared" ref="H13:H15" si="14">G13-F13+1</f>
         <v>12</v>
       </c>
       <c r="I13">
@@ -2317,7 +2322,7 @@
         <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>44229</v>
@@ -2343,6 +2348,39 @@
       <c r="I14">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44239</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44247</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="13"/>
+        <v>-177</v>
+      </c>
+      <c r="G15">
+        <v>-170</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.125</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,9 @@
   <si>
     <t>一卷看幾天</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷15</t>
   </si>
 </sst>
 </file>
@@ -362,9 +365,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -406,16 +409,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>卷14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>卷15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$15</c:f>
+              <c:f>Sheet1!$I$2:$I$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>0.68571428571428572</c:v>
                 </c:pt>
@@ -457,6 +463,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,11 +480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208396488"/>
-        <c:axId val="208829504"/>
+        <c:axId val="232190896"/>
+        <c:axId val="232609704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208396488"/>
+        <c:axId val="232190896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,12 +596,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208829504"/>
+        <c:crossAx val="232609704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208829504"/>
+        <c:axId val="232609704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +714,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208396488"/>
+        <c:crossAx val="232190896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1632,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1752,19 +1761,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>1131.7142857142858</v>
+        <v>1092.5333333333333</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45150.714285714283</v>
+        <v>45111.533333333333</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>754.87561469439061</v>
+        <v>732.52512805970616</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44773.875614694392</v>
+        <v>44751.525128059708</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1795,7 +1804,7 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I15" si="3">E3/H3</f>
+        <f t="shared" ref="I3:I16" si="3">E3/H3</f>
         <v>0.6</v>
       </c>
       <c r="K3" t="s">
@@ -1813,19 +1822,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1298.1428571428571</v>
+        <v>1253.2</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
-        <v>45317.142857142855</v>
+        <v>45272.2</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
-        <v>827.57631594906707</v>
+        <v>803.07329448600217</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="5"/>
-        <v>44846.576315949067</v>
+        <v>44822.073294485999</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1875,19 +1884,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1963.8571428571429</v>
+        <v>1895.8666666666666</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>45982.857142857145</v>
+        <v>45914.866666666669</v>
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>997.2112855433121</v>
+        <v>967.68568281402599</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>45016.211285543315</v>
+        <v>44986.685682814023</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1937,19 +1946,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2929.1428571428569</v>
+        <v>2827.7333333333331</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46948.142857142855</v>
+        <v>46846.73333333333</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>1201.9849274106509</v>
+        <v>1166.3963515814262</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45220.984927410653</v>
+        <v>45185.396351581425</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1999,19 +2008,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>4410.3571428571431</v>
+        <v>4257.666666666667</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>48429.357142857145</v>
+        <v>48276.666666666664</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>1587.2986440604361</v>
+        <v>1540.3016336407948</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>45606.298644060436</v>
+        <v>45559.301633640796</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2061,19 +2070,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4893</v>
+        <v>4723.6000000000004</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>48912</v>
+        <v>48742.6</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>1650.3059184811557</v>
+        <v>1601.4433778769178</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>45669.305918481157</v>
+        <v>45620.443377876916</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2123,19 +2132,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4893</v>
+        <v>4723.6000000000004</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>48912</v>
+        <v>48742.6</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>1650.3059184811557</v>
+        <v>1601.4433778769178</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45669.305918481157</v>
+        <v>45620.443377876916</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2208,7 +2217,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>16.642857142857142</v>
+        <v>16.066666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2225,7 +2234,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E15" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E16" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2248,7 +2257,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.2116783542446077</v>
+        <v>1.175802773771599</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2302,14 +2311,14 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F15" si="13">G12+1</f>
+        <f t="shared" ref="F13:F16" si="13">G12+1</f>
         <v>-199</v>
       </c>
       <c r="G13">
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H15" si="14">G13-F13+1</f>
+        <f t="shared" ref="H13:H16" si="14">G13-F13+1</f>
         <v>12</v>
       </c>
       <c r="I13">
@@ -2381,6 +2390,39 @@
       <c r="I15">
         <f t="shared" si="3"/>
         <v>1.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>307</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44248</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44255</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="13"/>
+        <v>-169</v>
+      </c>
+      <c r="G16">
+        <v>-155</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.53333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <t>卷13</t>
   </si>
   <si>
-    <t>一天看幾年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卷14</t>
   </si>
   <si>
@@ -160,6 +156,13 @@
   </si>
   <si>
     <t>卷15</t>
+  </si>
+  <si>
+    <t>卷16</t>
+  </si>
+  <si>
+    <t>一年看幾天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>一天看幾年</c:v>
+                  <c:v>一年看幾天</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -367,7 +370,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -412,6 +415,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>卷15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>卷16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -466,6 +472,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.53333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6428571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,11 +489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232190896"/>
-        <c:axId val="232609704"/>
+        <c:axId val="205462744"/>
+        <c:axId val="205049272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232190896"/>
+        <c:axId val="205462744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,12 +605,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232609704"/>
+        <c:crossAx val="205049272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232609704"/>
+        <c:axId val="205049272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +651,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>每年所需天數</a:t>
+                  <a:t>一年看幾天</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -714,7 +723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232190896"/>
+        <c:crossAx val="205462744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1641,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1688,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>26</v>
@@ -1761,19 +1770,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>1092.5333333333333</v>
+        <v>1062.5</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45111.533333333333</v>
+        <v>45081.5</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>732.52512805970616</v>
+        <v>707.55789250039265</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44751.525128059708</v>
+        <v>44726.557892500394</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1804,7 +1813,7 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I16" si="3">E3/H3</f>
+        <f t="shared" ref="I3:I17" si="3">E3/H3</f>
         <v>0.6</v>
       </c>
       <c r="K3" t="s">
@@ -1822,19 +1831,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1253.2</v>
+        <v>1218.75</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
-        <v>45272.2</v>
+        <v>45237.75</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
-        <v>803.07329448600217</v>
+        <v>775.70150975564718</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="5"/>
-        <v>44822.073294485999</v>
+        <v>44794.70150975565</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1884,19 +1893,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1895.8666666666666</v>
+        <v>1843.75</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>45914.866666666669</v>
+        <v>45862.75</v>
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>967.68568281402599</v>
+        <v>934.703283351241</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>44986.685682814023</v>
+        <v>44953.703283351242</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1946,19 +1955,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2827.7333333333331</v>
+        <v>2750</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46846.73333333333</v>
+        <v>46769</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>1166.3963515814262</v>
+        <v>1126.641138620208</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45185.396351581425</v>
+        <v>45145.641138620209</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -2008,19 +2017,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>4257.666666666667</v>
+        <v>4140.625</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>48276.666666666664</v>
+        <v>48159.625</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>1540.3016336407948</v>
+        <v>1487.8023100730568</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>45559.301633640796</v>
+        <v>45506.802310073057</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2070,19 +2079,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4723.6000000000004</v>
+        <v>4593.75</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>48742.6</v>
+        <v>48612.75</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>1601.4433778769178</v>
+        <v>1546.8601116942775</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>45620.443377876916</v>
+        <v>45565.860111694281</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2132,19 +2141,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4723.6000000000004</v>
+        <v>4593.75</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>48742.6</v>
+        <v>48612.75</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>1601.4433778769178</v>
+        <v>1546.8601116942775</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45620.443377876916</v>
+        <v>45565.860111694281</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2213,11 +2222,11 @@
         <v>2.5</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>16.066666666666666</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2234,7 +2243,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E16" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E17" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2253,11 +2262,11 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.175802773771599</v>
+        <v>1.1357269542542419</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2311,14 +2320,14 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F16" si="13">G12+1</f>
+        <f t="shared" ref="F13:F17" si="13">G12+1</f>
         <v>-199</v>
       </c>
       <c r="G13">
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H16" si="14">G13-F13+1</f>
+        <f t="shared" ref="H13:H17" si="14">G13-F13+1</f>
         <v>12</v>
       </c>
       <c r="I13">
@@ -2364,7 +2373,7 @@
         <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>44239</v>
@@ -2397,7 +2406,7 @@
         <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>44248</v>
@@ -2423,6 +2432,39 @@
       <c r="I16">
         <f t="shared" si="3"/>
         <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44256</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44264</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="13"/>
+        <v>-154</v>
+      </c>
+      <c r="G17">
+        <v>-141</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,9 @@
   <si>
     <t>一年看幾天</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷17</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -418,6 +421,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>卷16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>卷17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,6 +481,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,11 +498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205462744"/>
-        <c:axId val="205049272"/>
+        <c:axId val="207482376"/>
+        <c:axId val="207745016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205462744"/>
+        <c:axId val="207482376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,12 +614,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205049272"/>
+        <c:crossAx val="207745016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205049272"/>
+        <c:axId val="207745016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +732,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205462744"/>
+        <c:crossAx val="207482376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1650,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1770,19 +1779,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>1062.5</v>
+        <v>1028</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45081.5</v>
+        <v>45047</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>707.55789250039265</v>
+        <v>677.06396936597639</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44726.557892500394</v>
+        <v>44696.063969365976</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1813,7 +1822,7 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I17" si="3">E3/H3</f>
+        <f t="shared" ref="I3:I18" si="3">E3/H3</f>
         <v>0.6</v>
       </c>
       <c r="K3" t="s">
@@ -1831,19 +1840,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1218.75</v>
+        <v>1179.1764705882354</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
-        <v>45237.75</v>
+        <v>45198.176470588238</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
-        <v>775.70150975564718</v>
+        <v>742.27077219416026</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="5"/>
-        <v>44794.70150975565</v>
+        <v>44761.270772194162</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1893,19 +1902,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1843.75</v>
+        <v>1783.8823529411764</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>45862.75</v>
+        <v>45802.882352941175</v>
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>934.703283351241</v>
+        <v>894.41997879325606</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>44953.703283351242</v>
+        <v>44913.419978793259</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1955,19 +1964,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2750</v>
+        <v>2660.705882352941</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46769</v>
+        <v>46679.705882352944</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>1126.641138620208</v>
+        <v>1078.0858067593074</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45145.641138620209</v>
+        <v>45097.085806759307</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -2017,19 +2026,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>4140.625</v>
+        <v>4006.1764705882351</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>48159.625</v>
+        <v>48025.176470588238</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>1487.8023100730568</v>
+        <v>1423.6818617486822</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>45506.802310073057</v>
+        <v>45442.681861748679</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2079,19 +2088,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4593.75</v>
+        <v>4444.5882352941171</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>48612.75</v>
+        <v>48463.588235294119</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>1546.8601116942775</v>
+        <v>1480.1944241997749</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>45565.860111694281</v>
+        <v>45499.194424199777</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2141,19 +2150,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4593.75</v>
+        <v>4444.5882352941171</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>48612.75</v>
+        <v>48463.588235294119</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>1546.8601116942775</v>
+        <v>1480.1944241997749</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45565.860111694281</v>
+        <v>45499.194424199777</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2226,7 +2235,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>15.625</v>
+        <v>15.117647058823529</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2243,7 +2252,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E17" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E18" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2266,7 +2275,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.1357269542542419</v>
+        <v>1.0867800471363986</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2320,14 +2329,14 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F17" si="13">G12+1</f>
+        <f t="shared" ref="F13:F18" si="13">G12+1</f>
         <v>-199</v>
       </c>
       <c r="G13">
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H17" si="14">G13-F13+1</f>
+        <f t="shared" ref="H13:H18" si="14">G13-F13+1</f>
         <v>12</v>
       </c>
       <c r="I13">
@@ -2465,6 +2474,39 @@
       <c r="I17">
         <f t="shared" si="3"/>
         <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>309</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44265</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44271</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>-140</v>
+      </c>
+      <c r="G18">
+        <v>-134</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>卷17</t>
+  </si>
+  <si>
+    <t>卷18</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -424,6 +427,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>卷17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>卷18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -484,6 +490,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,11 +507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207482376"/>
-        <c:axId val="207745016"/>
+        <c:axId val="230122168"/>
+        <c:axId val="230449392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207482376"/>
+        <c:axId val="230122168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,12 +623,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207745016"/>
+        <c:crossAx val="230449392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207745016"/>
+        <c:axId val="230449392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207482376"/>
+        <c:crossAx val="230122168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1659,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1779,19 +1788,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>1028</v>
+        <v>997.33333333333326</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45047</v>
+        <v>45016.333333333336</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>677.06396936597639</v>
+        <v>652.20897953391807</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44696.063969365976</v>
+        <v>44671.20897953392</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1822,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="3">E3/H3</f>
+        <f t="shared" ref="I3:I19" si="3">E3/H3</f>
         <v>0.6</v>
       </c>
       <c r="K3" t="s">
@@ -1840,19 +1849,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1179.1764705882354</v>
+        <v>1144</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
-        <v>45198.176470588238</v>
+        <v>45163</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
-        <v>742.27077219416026</v>
+        <v>715.02204337346075</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="5"/>
-        <v>44761.270772194162</v>
+        <v>44734.022043373458</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1902,19 +1911,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1783.8823529411764</v>
+        <v>1730.6666666666665</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>45802.882352941175</v>
+        <v>45749.666666666664</v>
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>894.41997879325606</v>
+        <v>861.58585899906029</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>44913.419978793259</v>
+        <v>44880.58585899906</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1964,19 +1973,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2660.705882352941</v>
+        <v>2581.333333333333</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46679.705882352944</v>
+        <v>46600.333333333336</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>1078.0858067593074</v>
+        <v>1038.5093221471054</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45097.085806759307</v>
+        <v>45057.509322147103</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -2026,19 +2035,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>4006.1764705882351</v>
+        <v>3886.6666666666665</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>48025.176470588238</v>
+        <v>47905.666666666664</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>1423.6818617486822</v>
+        <v>1371.4185604966815</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>45442.681861748679</v>
+        <v>45390.418560496684</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2088,19 +2097,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4444.5882352941171</v>
+        <v>4312</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>48463.588235294119</v>
+        <v>48331</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>1480.1944241997749</v>
+        <v>1425.8565491576185</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>45499.194424199777</v>
+        <v>45444.856549157616</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2150,19 +2159,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4444.5882352941171</v>
+        <v>4312</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>48463.588235294119</v>
+        <v>48331</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>1480.1944241997749</v>
+        <v>1425.8565491576185</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45499.194424199777</v>
+        <v>45444.856549157616</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2235,7 +2244,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>15.117647058823529</v>
+        <v>14.666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2252,7 +2261,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E18" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E19" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2275,7 +2284,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.0867800471363986</v>
+        <v>1.0468843973257111</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2336,7 +2345,7 @@
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H18" si="14">G13-F13+1</f>
+        <f t="shared" ref="H13:H19" si="14">G13-F13+1</f>
         <v>12</v>
       </c>
       <c r="I13">
@@ -2507,6 +2516,38 @@
       <c r="I18">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44272</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44278</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-133</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-125</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.77777777777777779</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,28 @@
   </si>
   <si>
     <t>卷18</t>
+  </si>
+  <si>
+    <t>卷19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷20</t>
+  </si>
+  <si>
+    <t>卷21</t>
+  </si>
+  <si>
+    <t>卷22</t>
+  </si>
+  <si>
+    <t>卷23</t>
+  </si>
+  <si>
+    <t>卷24</t>
+  </si>
+  <si>
+    <t>卷25</t>
   </si>
 </sst>
 </file>
@@ -376,7 +398,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -430,6 +452,27 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>卷18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>卷19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>卷20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>卷21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>卷22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>卷23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>卷24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>卷25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -493,6 +536,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,11 +553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230122168"/>
-        <c:axId val="230449392"/>
+        <c:axId val="210622816"/>
+        <c:axId val="210662024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230122168"/>
+        <c:axId val="210622816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,12 +669,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230449392"/>
+        <c:crossAx val="210662024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230449392"/>
+        <c:axId val="210662024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230122168"/>
+        <c:crossAx val="210622816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1668,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1788,19 +1834,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>997.33333333333326</v>
+        <v>977.0526315789474</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>45016.333333333336</v>
+        <v>44996.052631578947</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>652.20897953391807</v>
+        <v>618.72680342287003</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44671.20897953392</v>
+        <v>44637.726803422869</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1849,19 +1895,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1144</v>
+        <v>1120.7368421052631</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
-        <v>45163</v>
+        <v>45139.73684210526</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
-        <v>715.02204337346075</v>
+        <v>678.31525961126852</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="5"/>
-        <v>44734.022043373458</v>
+        <v>44697.31525961127</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1911,19 +1957,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1730.6666666666665</v>
+        <v>1695.4736842105262</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>45749.666666666664</v>
+        <v>45714.473684210527</v>
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>861.58585899906029</v>
+        <v>817.35499071753145</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>44880.58585899906</v>
+        <v>44836.354990717533</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1973,19 +2019,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2581.333333333333</v>
+        <v>2528.8421052631579</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46600.333333333336</v>
+        <v>46547.84210526316</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>1038.5093221471054</v>
+        <v>985.19580898152026</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45057.509322147103</v>
+        <v>45004.195808981523</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -2035,19 +2081,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3886.6666666666665</v>
+        <v>3807.6315789473683</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>47905.666666666664</v>
+        <v>47826.631578947367</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>1371.4185604966815</v>
+        <v>1301.0146267800317</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>45390.418560496684</v>
+        <v>45320.01462678003</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2097,19 +2143,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4312</v>
+        <v>4224.3157894736842</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>48331</v>
+        <v>48243.315789473687</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>1425.8565491576185</v>
+        <v>1352.6579554766438</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>45444.856549157616</v>
+        <v>45371.657955476643</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2159,19 +2205,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4312</v>
+        <v>4224.3157894736842</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>48331</v>
+        <v>48243.315789473687</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>1425.8565491576185</v>
+        <v>1352.6579554766438</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45444.856549157616</v>
+        <v>45371.657955476643</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -2244,7 +2290,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>14.666666666666666</v>
+        <v>14.368421052631579</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2261,7 +2307,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E19" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E20" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -2284,7 +2330,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.0468843973257111</v>
+        <v>0.9931409364733067</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2338,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F18" si="13">G12+1</f>
+        <f t="shared" ref="F13:F20" si="13">G12+1</f>
         <v>-199</v>
       </c>
       <c r="G13">
@@ -2535,7 +2581,8 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
+        <f t="shared" si="13"/>
         <v>-133</v>
       </c>
       <c r="G19" s="2">
@@ -2548,6 +2595,90 @@
       <c r="I19">
         <f t="shared" si="3"/>
         <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44279</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44287</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="13"/>
+        <v>-124</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-119</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="15">G20-F20+1</f>
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="16">E20/H20</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>315</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>316</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>317</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,13 +192,109 @@
   </si>
   <si>
     <t>卷25</t>
+  </si>
+  <si>
+    <t>西漢</t>
+  </si>
+  <si>
+    <t>東漢</t>
+  </si>
+  <si>
+    <t>三國</t>
+  </si>
+  <si>
+    <t>晉</t>
+  </si>
+  <si>
+    <t>現卷19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天幾頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還需天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還需年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還差頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每頁幾人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預測人數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補遺人數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補遺率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含補遺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當前最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +316,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,10 +355,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,8 +370,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,11 +662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210622816"/>
-        <c:axId val="210662024"/>
+        <c:axId val="228423352"/>
+        <c:axId val="228646192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210622816"/>
+        <c:axId val="228423352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,12 +778,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210662024"/>
+        <c:crossAx val="228646192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210662024"/>
+        <c:axId val="228646192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +896,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210622816"/>
+        <c:crossAx val="228423352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1714,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2681,10 +2790,283 @@
         <v>49</v>
       </c>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>268</v>
+      </c>
+      <c r="C2">
+        <v>648</v>
+      </c>
+      <c r="D2">
+        <v>1173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <f>C2/B2</f>
+        <v>2.4179104477611939</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <f>D2/C2</f>
+        <v>1.8101851851851851</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2">
+        <f>O2/D2</f>
+        <v>6.8201193520886619E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>1239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>2175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>2491</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>3732</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <f>C6-C2</f>
+        <v>3084</v>
+      </c>
+      <c r="H6">
+        <f>G6/G2</f>
+        <v>1275.4814814814815</v>
+      </c>
+      <c r="I6">
+        <f>H6/365</f>
+        <v>3.4944698122780316</v>
+      </c>
+      <c r="K6">
+        <f>G6*K2</f>
+        <v>5582.6111111111113</v>
+      </c>
+      <c r="L6">
+        <f>K6*(1+Q2)</f>
+        <v>5963.3518518518522</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>9612</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G8" s="8">
+        <f>C2/C7</f>
+        <v>6.741573033707865E-2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P11" si="0">$O$13*(O9-1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q10" si="1">O9*$O$13-1</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11">
+        <v>294</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>58601</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q10:Q11" si="2">O11*$O$13-1</f>
+        <v>58799</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,46 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="統計" sheetId="1" r:id="rId1"/>
+    <sheet name="目錄生成" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
-  <si>
-    <t>卷1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷2</t>
-  </si>
-  <si>
-    <t>卷3</t>
-  </si>
-  <si>
-    <t>卷4</t>
-  </si>
-  <si>
-    <t>卷5</t>
-  </si>
-  <si>
-    <t>卷6</t>
-  </si>
-  <si>
-    <t>卷7</t>
-  </si>
-  <si>
-    <t>卷8</t>
-  </si>
-  <si>
-    <t>卷9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="370">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,63 +110,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卷10</t>
-  </si>
-  <si>
-    <t>卷11</t>
-  </si>
-  <si>
-    <t>卷12</t>
-  </si>
-  <si>
-    <t>卷13</t>
-  </si>
-  <si>
-    <t>卷14</t>
-  </si>
-  <si>
     <t>一卷看幾天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卷15</t>
-  </si>
-  <si>
-    <t>卷16</t>
-  </si>
-  <si>
     <t>一年看幾天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卷17</t>
-  </si>
-  <si>
-    <t>卷18</t>
-  </si>
-  <si>
-    <t>卷19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷20</t>
-  </si>
-  <si>
-    <t>卷21</t>
-  </si>
-  <si>
-    <t>卷22</t>
-  </si>
-  <si>
-    <t>卷23</t>
-  </si>
-  <si>
-    <t>卷24</t>
-  </si>
-  <si>
-    <t>卷25</t>
-  </si>
-  <si>
     <t>西漢</t>
   </si>
   <si>
@@ -287,6 +211,990 @@
   </si>
   <si>
     <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢紀十三</t>
+  </si>
+  <si>
+    <t>漢紀十四</t>
+  </si>
+  <si>
+    <t>漢紀十五</t>
+  </si>
+  <si>
+    <t>漢紀十六</t>
+  </si>
+  <si>
+    <t>漢紀十七</t>
+  </si>
+  <si>
+    <t>漢紀十八</t>
+  </si>
+  <si>
+    <t>漢紀十九</t>
+  </si>
+  <si>
+    <t>漢紀二十</t>
+  </si>
+  <si>
+    <t>漢紀二十一</t>
+  </si>
+  <si>
+    <t>漢紀二十二</t>
+  </si>
+  <si>
+    <t>漢紀二十三</t>
+  </si>
+  <si>
+    <t>漢紀二十四</t>
+  </si>
+  <si>
+    <t>漢紀二十五</t>
+  </si>
+  <si>
+    <t>漢紀二十六</t>
+  </si>
+  <si>
+    <t>漢紀二十七</t>
+  </si>
+  <si>
+    <t>漢紀二十八</t>
+  </si>
+  <si>
+    <t>漢紀二十九</t>
+  </si>
+  <si>
+    <t>漢紀三十</t>
+  </si>
+  <si>
+    <t>漢紀三十一</t>
+  </si>
+  <si>
+    <t>漢紀三十二</t>
+  </si>
+  <si>
+    <t>漢紀三十三</t>
+  </si>
+  <si>
+    <t>漢紀三十四</t>
+  </si>
+  <si>
+    <t>漢紀三十五</t>
+  </si>
+  <si>
+    <t>漢紀三十六</t>
+  </si>
+  <si>
+    <t>漢紀三十七</t>
+  </si>
+  <si>
+    <t>漢紀三十八</t>
+  </si>
+  <si>
+    <t>漢紀三十九</t>
+  </si>
+  <si>
+    <t>漢紀四十</t>
+  </si>
+  <si>
+    <t>漢紀四十一</t>
+  </si>
+  <si>
+    <t>漢紀四十二</t>
+  </si>
+  <si>
+    <t>漢紀四十三</t>
+  </si>
+  <si>
+    <t>漢紀四十四</t>
+  </si>
+  <si>
+    <t>漢紀四十五</t>
+  </si>
+  <si>
+    <t>漢紀四十六</t>
+  </si>
+  <si>
+    <t>漢紀四十七</t>
+  </si>
+  <si>
+    <t>漢紀四十八</t>
+  </si>
+  <si>
+    <t>漢紀四十九</t>
+  </si>
+  <si>
+    <t>漢紀五十</t>
+  </si>
+  <si>
+    <t>漢紀五十一</t>
+  </si>
+  <si>
+    <t>漢紀五十二</t>
+  </si>
+  <si>
+    <t>漢紀五十三</t>
+  </si>
+  <si>
+    <t>漢紀五十四</t>
+  </si>
+  <si>
+    <t>漢紀五十五</t>
+  </si>
+  <si>
+    <t>漢紀五十六</t>
+  </si>
+  <si>
+    <t>漢紀五十七</t>
+  </si>
+  <si>
+    <t>漢紀五十八</t>
+  </si>
+  <si>
+    <t>漢紀五十九</t>
+  </si>
+  <si>
+    <t>漢紀六十</t>
+  </si>
+  <si>
+    <t>魏紀一</t>
+  </si>
+  <si>
+    <t>魏紀二</t>
+  </si>
+  <si>
+    <t>魏紀三</t>
+  </si>
+  <si>
+    <t>魏紀四</t>
+  </si>
+  <si>
+    <t>魏紀五</t>
+  </si>
+  <si>
+    <t>魏紀六</t>
+  </si>
+  <si>
+    <t>魏紀七</t>
+  </si>
+  <si>
+    <t>魏紀八</t>
+  </si>
+  <si>
+    <t>魏紀九</t>
+  </si>
+  <si>
+    <t>魏紀十</t>
+  </si>
+  <si>
+    <t>晉紀一</t>
+  </si>
+  <si>
+    <t>晉紀二</t>
+  </si>
+  <si>
+    <t>晉紀三</t>
+  </si>
+  <si>
+    <t>晉紀四</t>
+  </si>
+  <si>
+    <t>晉紀五</t>
+  </si>
+  <si>
+    <t>晉紀六</t>
+  </si>
+  <si>
+    <t>晉紀七</t>
+  </si>
+  <si>
+    <t>晉紀八</t>
+  </si>
+  <si>
+    <t>晉紀九</t>
+  </si>
+  <si>
+    <t>晉紀十</t>
+  </si>
+  <si>
+    <t>晉紀十一</t>
+  </si>
+  <si>
+    <t>晉紀十二</t>
+  </si>
+  <si>
+    <t>晉紀十三</t>
+  </si>
+  <si>
+    <t>晉紀十四</t>
+  </si>
+  <si>
+    <t>晉紀十五</t>
+  </si>
+  <si>
+    <t>晉紀十六</t>
+  </si>
+  <si>
+    <t>晉紀十七</t>
+  </si>
+  <si>
+    <t>晉紀十八</t>
+  </si>
+  <si>
+    <t>晉紀十九</t>
+  </si>
+  <si>
+    <t>晉紀二十</t>
+  </si>
+  <si>
+    <t>晉紀二十一</t>
+  </si>
+  <si>
+    <t>晉紀二十二</t>
+  </si>
+  <si>
+    <t>晉紀二十三</t>
+  </si>
+  <si>
+    <t>晉紀二十四</t>
+  </si>
+  <si>
+    <t>晉紀二十五</t>
+  </si>
+  <si>
+    <t>晉紀二十六</t>
+  </si>
+  <si>
+    <t>晉紀二十七</t>
+  </si>
+  <si>
+    <t>晉紀二十八</t>
+  </si>
+  <si>
+    <t>晉紀二十九</t>
+  </si>
+  <si>
+    <t>晉紀三十</t>
+  </si>
+  <si>
+    <t>晉紀三十一</t>
+  </si>
+  <si>
+    <t>晉紀三十二</t>
+  </si>
+  <si>
+    <t>晉紀三十三</t>
+  </si>
+  <si>
+    <t>晉紀三十四</t>
+  </si>
+  <si>
+    <t>晉紀三十五</t>
+  </si>
+  <si>
+    <t>晉紀三十六</t>
+  </si>
+  <si>
+    <t>晉紀三十七</t>
+  </si>
+  <si>
+    <t>晉紀三十八</t>
+  </si>
+  <si>
+    <t>晉紀三十九</t>
+  </si>
+  <si>
+    <t>晉紀四十</t>
+  </si>
+  <si>
+    <t>宋紀一</t>
+  </si>
+  <si>
+    <t>宋紀二</t>
+  </si>
+  <si>
+    <t>宋紀三</t>
+  </si>
+  <si>
+    <t>宋紀四</t>
+  </si>
+  <si>
+    <t>宋紀五</t>
+  </si>
+  <si>
+    <t>宋紀六</t>
+  </si>
+  <si>
+    <t>宋紀七</t>
+  </si>
+  <si>
+    <t>宋紀八</t>
+  </si>
+  <si>
+    <t>宋紀九</t>
+  </si>
+  <si>
+    <t>宋紀十</t>
+  </si>
+  <si>
+    <t>宋紀十一</t>
+  </si>
+  <si>
+    <t>宋紀十二</t>
+  </si>
+  <si>
+    <t>宋紀十三</t>
+  </si>
+  <si>
+    <t>宋紀十四</t>
+  </si>
+  <si>
+    <t>宋紀十五</t>
+  </si>
+  <si>
+    <t>宋紀十六</t>
+  </si>
+  <si>
+    <t>齊紀一</t>
+  </si>
+  <si>
+    <t>齊紀二</t>
+  </si>
+  <si>
+    <t>齊紀三</t>
+  </si>
+  <si>
+    <t>齊紀四</t>
+  </si>
+  <si>
+    <t>齊紀五</t>
+  </si>
+  <si>
+    <t>齊紀六</t>
+  </si>
+  <si>
+    <t>齊紀七</t>
+  </si>
+  <si>
+    <t>齊紀八</t>
+  </si>
+  <si>
+    <t>齊紀九</t>
+  </si>
+  <si>
+    <t>齊紀十</t>
+  </si>
+  <si>
+    <t>梁紀一</t>
+  </si>
+  <si>
+    <t>梁紀二</t>
+  </si>
+  <si>
+    <t>梁紀三</t>
+  </si>
+  <si>
+    <t>梁紀四</t>
+  </si>
+  <si>
+    <t>梁紀五</t>
+  </si>
+  <si>
+    <t>梁紀六</t>
+  </si>
+  <si>
+    <t>梁紀七</t>
+  </si>
+  <si>
+    <t>梁紀八</t>
+  </si>
+  <si>
+    <t>梁紀九</t>
+  </si>
+  <si>
+    <t>梁紀十</t>
+  </si>
+  <si>
+    <t>梁紀十一</t>
+  </si>
+  <si>
+    <t>梁紀十二</t>
+  </si>
+  <si>
+    <t>梁紀十三</t>
+  </si>
+  <si>
+    <t>梁紀十四</t>
+  </si>
+  <si>
+    <t>梁紀十五</t>
+  </si>
+  <si>
+    <t>梁紀十六</t>
+  </si>
+  <si>
+    <t>梁紀十七</t>
+  </si>
+  <si>
+    <t>梁紀十八</t>
+  </si>
+  <si>
+    <t>梁紀十九</t>
+  </si>
+  <si>
+    <t>梁紀二十</t>
+  </si>
+  <si>
+    <t>梁紀二十一</t>
+  </si>
+  <si>
+    <t>梁紀二十二</t>
+  </si>
+  <si>
+    <t>陳紀一</t>
+  </si>
+  <si>
+    <t>陳紀二</t>
+  </si>
+  <si>
+    <t>陳紀三</t>
+  </si>
+  <si>
+    <t>陳紀四</t>
+  </si>
+  <si>
+    <t>陳紀五</t>
+  </si>
+  <si>
+    <t>陳紀六</t>
+  </si>
+  <si>
+    <t>陳紀七</t>
+  </si>
+  <si>
+    <t>陳紀八</t>
+  </si>
+  <si>
+    <t>陳紀九</t>
+  </si>
+  <si>
+    <t>陳紀十</t>
+  </si>
+  <si>
+    <t>隋紀一</t>
+  </si>
+  <si>
+    <t>隋紀二</t>
+  </si>
+  <si>
+    <t>隋紀三</t>
+  </si>
+  <si>
+    <t>隋紀四</t>
+  </si>
+  <si>
+    <t>隋紀五</t>
+  </si>
+  <si>
+    <t>隋紀六</t>
+  </si>
+  <si>
+    <t>隋紀七</t>
+  </si>
+  <si>
+    <t>隋紀八</t>
+  </si>
+  <si>
+    <t>唐紀一</t>
+  </si>
+  <si>
+    <t>唐紀二</t>
+  </si>
+  <si>
+    <t>唐紀三</t>
+  </si>
+  <si>
+    <t>唐紀四</t>
+  </si>
+  <si>
+    <t>唐紀五</t>
+  </si>
+  <si>
+    <t>唐紀六</t>
+  </si>
+  <si>
+    <t>唐紀七</t>
+  </si>
+  <si>
+    <t>唐紀八</t>
+  </si>
+  <si>
+    <t>唐紀九</t>
+  </si>
+  <si>
+    <t>唐紀十</t>
+  </si>
+  <si>
+    <t>唐紀十一</t>
+  </si>
+  <si>
+    <t>唐紀十二</t>
+  </si>
+  <si>
+    <t>唐紀十三</t>
+  </si>
+  <si>
+    <t>唐紀十四</t>
+  </si>
+  <si>
+    <t>唐紀十五</t>
+  </si>
+  <si>
+    <t>唐紀十六</t>
+  </si>
+  <si>
+    <t>唐紀十七</t>
+  </si>
+  <si>
+    <t>唐紀十八</t>
+  </si>
+  <si>
+    <t>唐紀十九</t>
+  </si>
+  <si>
+    <t>唐紀二十</t>
+  </si>
+  <si>
+    <t>唐紀二十一</t>
+  </si>
+  <si>
+    <t>唐紀二十二</t>
+  </si>
+  <si>
+    <t>唐紀二十三</t>
+  </si>
+  <si>
+    <t>唐紀二十四</t>
+  </si>
+  <si>
+    <t>唐紀二十五</t>
+  </si>
+  <si>
+    <t>唐紀二十六</t>
+  </si>
+  <si>
+    <t>唐紀二十七</t>
+  </si>
+  <si>
+    <t>唐紀二十八</t>
+  </si>
+  <si>
+    <t>唐紀二十九</t>
+  </si>
+  <si>
+    <t>唐紀三十</t>
+  </si>
+  <si>
+    <t>唐紀三十一</t>
+  </si>
+  <si>
+    <t>唐紀三十二</t>
+  </si>
+  <si>
+    <t>唐紀三十三</t>
+  </si>
+  <si>
+    <t>唐紀三十四</t>
+  </si>
+  <si>
+    <t>唐紀三十五</t>
+  </si>
+  <si>
+    <t>唐紀三十六</t>
+  </si>
+  <si>
+    <t>唐紀三十七</t>
+  </si>
+  <si>
+    <t>唐紀三十八</t>
+  </si>
+  <si>
+    <t>唐紀三十九</t>
+  </si>
+  <si>
+    <t>唐紀四十</t>
+  </si>
+  <si>
+    <t>唐紀四十一</t>
+  </si>
+  <si>
+    <t>唐紀四十二</t>
+  </si>
+  <si>
+    <t>唐紀四十三</t>
+  </si>
+  <si>
+    <t>唐紀四十四</t>
+  </si>
+  <si>
+    <t>唐紀四十五</t>
+  </si>
+  <si>
+    <t>唐紀四十六</t>
+  </si>
+  <si>
+    <t>唐紀四十七</t>
+  </si>
+  <si>
+    <t>唐紀四十八</t>
+  </si>
+  <si>
+    <t>唐紀四十九</t>
+  </si>
+  <si>
+    <t>唐紀五十</t>
+  </si>
+  <si>
+    <t>唐紀五十一</t>
+  </si>
+  <si>
+    <t>唐紀五十二</t>
+  </si>
+  <si>
+    <t>唐紀五十三</t>
+  </si>
+  <si>
+    <t>唐紀五十四</t>
+  </si>
+  <si>
+    <t>唐紀五十五</t>
+  </si>
+  <si>
+    <t>唐紀五十六</t>
+  </si>
+  <si>
+    <t>唐紀五十七</t>
+  </si>
+  <si>
+    <t>唐紀五十八</t>
+  </si>
+  <si>
+    <t>唐紀五十九</t>
+  </si>
+  <si>
+    <t>唐紀六十</t>
+  </si>
+  <si>
+    <t>唐紀六十一</t>
+  </si>
+  <si>
+    <t>唐紀六十二</t>
+  </si>
+  <si>
+    <t>唐紀六十三</t>
+  </si>
+  <si>
+    <t>唐紀六十四</t>
+  </si>
+  <si>
+    <t>唐紀六十五</t>
+  </si>
+  <si>
+    <t>唐紀六十六</t>
+  </si>
+  <si>
+    <t>唐紀六十七</t>
+  </si>
+  <si>
+    <t>唐紀六十八</t>
+  </si>
+  <si>
+    <t>唐紀六十九</t>
+  </si>
+  <si>
+    <t>唐紀七十</t>
+  </si>
+  <si>
+    <t>唐紀七十一</t>
+  </si>
+  <si>
+    <t>唐紀七十二</t>
+  </si>
+  <si>
+    <t>唐紀七十三</t>
+  </si>
+  <si>
+    <t>唐紀七十四</t>
+  </si>
+  <si>
+    <t>唐紀七十五</t>
+  </si>
+  <si>
+    <t>唐紀七十六</t>
+  </si>
+  <si>
+    <t>唐紀七十七</t>
+  </si>
+  <si>
+    <t>唐紀七十八</t>
+  </si>
+  <si>
+    <t>唐紀七十九</t>
+  </si>
+  <si>
+    <t>唐紀八十</t>
+  </si>
+  <si>
+    <t>唐紀八十一</t>
+  </si>
+  <si>
+    <t>後梁紀一</t>
+  </si>
+  <si>
+    <t>後梁紀二</t>
+  </si>
+  <si>
+    <t>後梁紀三</t>
+  </si>
+  <si>
+    <t>後梁紀四</t>
+  </si>
+  <si>
+    <t>後梁紀五</t>
+  </si>
+  <si>
+    <t>後梁紀六</t>
+  </si>
+  <si>
+    <t>後唐紀一</t>
+  </si>
+  <si>
+    <t>後唐紀二</t>
+  </si>
+  <si>
+    <t>後唐紀三</t>
+  </si>
+  <si>
+    <t>後唐紀四</t>
+  </si>
+  <si>
+    <t>後唐紀五</t>
+  </si>
+  <si>
+    <t>後唐紀六</t>
+  </si>
+  <si>
+    <t>後唐紀七</t>
+  </si>
+  <si>
+    <t>後唐紀八</t>
+  </si>
+  <si>
+    <t>後晉紀一</t>
+  </si>
+  <si>
+    <t>後晉紀二</t>
+  </si>
+  <si>
+    <t>後晉紀三</t>
+  </si>
+  <si>
+    <t>後晉紀四</t>
+  </si>
+  <si>
+    <t>後晉紀五</t>
+  </si>
+  <si>
+    <t>後晉紀六</t>
+  </si>
+  <si>
+    <t>後漢紀一</t>
+  </si>
+  <si>
+    <t>後漢紀二</t>
+  </si>
+  <si>
+    <t>後漢紀三</t>
+  </si>
+  <si>
+    <t>後漢紀四</t>
+  </si>
+  <si>
+    <t>後周紀一</t>
+  </si>
+  <si>
+    <t>後周紀二</t>
+  </si>
+  <si>
+    <t>後周紀三</t>
+  </si>
+  <si>
+    <t>後周紀四</t>
+  </si>
+  <si>
+    <t>後周紀五</t>
+  </si>
+  <si>
+    <t>周紀一</t>
+  </si>
+  <si>
+    <t>周紀二</t>
+  </si>
+  <si>
+    <t>周紀三</t>
+  </si>
+  <si>
+    <t>周紀四</t>
+  </si>
+  <si>
+    <t>周紀五</t>
+  </si>
+  <si>
+    <t>秦紀一</t>
+  </si>
+  <si>
+    <t>秦紀二</t>
+  </si>
+  <si>
+    <t>秦紀三</t>
+  </si>
+  <si>
+    <t>漢紀一</t>
+  </si>
+  <si>
+    <t>漢紀二</t>
+  </si>
+  <si>
+    <t>漢紀三</t>
+  </si>
+  <si>
+    <t>漢紀四</t>
+  </si>
+  <si>
+    <t>漢紀五</t>
+  </si>
+  <si>
+    <t>漢紀六</t>
+  </si>
+  <si>
+    <t>漢紀七</t>
+  </si>
+  <si>
+    <t>漢紀八</t>
+  </si>
+  <si>
+    <t>漢紀九</t>
+  </si>
+  <si>
+    <t>漢紀十</t>
+  </si>
+  <si>
+    <t>漢紀十一</t>
+  </si>
+  <si>
+    <t>漢紀十二</t>
+  </si>
+  <si>
+    <t>索引號</t>
+  </si>
+  <si>
+    <t>卷名二</t>
+  </si>
+  <si>
+    <t>數字卷名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周顯王共48年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周威烈王23年至24年、周安王共26年、周烈王至7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周慎靚王共6年、周赧王至17年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周赧王18年至42年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周赧王43年至59年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦始皇20年至37年、秦二世元年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦二世2年至3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚漢3年至4年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢高祖5年至7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢高祖8年至12年、漢惠帝共7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢高后共8年、漢文帝至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢文帝3年至10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢文帝11年至23年、漢景帝至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢景帝3年至16年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚漢至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢武帝至7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢武帝8年至16年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢武帝17年至22年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +1234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +1250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -371,6 +1285,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -470,7 +1386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>統計!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -505,7 +1421,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$115</c:f>
+              <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -588,7 +1504,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$115</c:f>
+              <c:f>統計!$I$2:$I$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
@@ -596,7 +1512,7 @@
                   <c:v>0.68571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.2173913043478262</c:v>
@@ -662,11 +1578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228423352"/>
-        <c:axId val="228646192"/>
+        <c:axId val="206438240"/>
+        <c:axId val="206438632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228423352"/>
+        <c:axId val="206438240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,12 +1694,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228646192"/>
+        <c:crossAx val="206438632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228646192"/>
+        <c:axId val="206438632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +1812,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228423352"/>
+        <c:crossAx val="206438240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1825,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1846,63 +2762,64 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" t="str">
+        <f>"卷"&amp;ROW(B1)</f>
+        <v>卷1</v>
       </c>
       <c r="C2" s="1">
         <v>44019</v>
@@ -1929,7 +2846,7 @@
         <v>0.68571428571428572</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L2">
         <v>68</v>
@@ -1951,19 +2868,20 @@
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>618.72680342287003</v>
+        <v>618.38165106829933</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44637.726803422869</v>
+        <v>44637.381651068303</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B26" si="1">"卷"&amp;ROW(B2)</f>
+        <v>卷2</v>
       </c>
       <c r="C3" s="1">
         <v>44042</v>
@@ -1972,25 +2890,25 @@
         <v>44071</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="1">D3-C3+1</f>
+        <f t="shared" ref="E3:E10" si="2">D3-C3+1</f>
         <v>30</v>
       </c>
       <c r="F3">
-        <v>-370</v>
+        <v>-368</v>
       </c>
       <c r="G3">
         <v>-321</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="2">G3-F3+1</f>
-        <v>50</v>
+        <f t="shared" ref="H3:H10" si="3">G3-F3+1</f>
+        <v>48</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I19" si="3">E3/H3</f>
-        <v>0.6</v>
+        <f t="shared" ref="I3:I19" si="4">E3/H3</f>
+        <v>0.625</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L3">
         <v>78</v>
@@ -1999,7 +2917,7 @@
         <v>280</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N8" si="4">M3-$F$2</f>
+        <f t="shared" ref="N3:N8" si="5">M3-$F$2</f>
         <v>683</v>
       </c>
       <c r="O3">
@@ -2007,24 +2925,25 @@
         <v>1120.7368421052631</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:R8" si="5">$C$2+O3</f>
+        <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
         <v>45139.73684210526</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="6">(M3-$F$2)*$L$11</f>
-        <v>678.31525961126852</v>
+        <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
+        <v>677.93686625946782</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="5"/>
-        <v>44697.31525961127</v>
+        <f t="shared" si="6"/>
+        <v>44696.936866259464</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>卷3</v>
       </c>
       <c r="C4" s="1">
         <v>44072</v>
@@ -2033,26 +2952,25 @@
         <v>44099</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="F4">
-        <f>G3+1</f>
         <v>-320</v>
       </c>
       <c r="G4">
         <v>-298</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2173913043478262</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>118</v>
@@ -2069,24 +2987,25 @@
         <v>1695.4736842105262</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45714.473684210527</v>
       </c>
       <c r="Q4">
+        <f t="shared" si="7"/>
+        <v>816.89903503886103</v>
+      </c>
+      <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>817.35499071753145</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="5"/>
-        <v>44836.354990717533</v>
+        <v>44835.899035038863</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>卷4</v>
       </c>
       <c r="C5" s="1">
         <v>44099</v>
@@ -2095,26 +3014,25 @@
         <v>44121</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F10" si="7">G4+1</f>
         <v>-297</v>
       </c>
       <c r="G5">
         <v>-273</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>176</v>
@@ -2123,7 +3041,7 @@
         <v>589</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>992</v>
       </c>
       <c r="O5">
@@ -2135,20 +3053,21 @@
         <v>46547.84210526316</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="6"/>
-        <v>985.19580898152026</v>
+        <f t="shared" si="7"/>
+        <v>984.64622449398553</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45004.195808981523</v>
+        <v>45003.646224493983</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>卷5</v>
       </c>
       <c r="C6" s="1">
         <v>44122</v>
@@ -2157,26 +3076,25 @@
         <v>44145</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="F6">
-        <f t="shared" si="7"/>
         <v>-272</v>
       </c>
       <c r="G6">
         <v>-256</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.411764705882353</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <v>265</v>
@@ -2185,7 +3103,7 @@
         <v>907</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1310</v>
       </c>
       <c r="O6">
@@ -2193,24 +3111,25 @@
         <v>3807.6315789473683</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47826.631578947367</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>1300.2888650071784</v>
+      </c>
+      <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>1301.0146267800317</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="5"/>
-        <v>45320.01462678003</v>
+        <v>45319.288865007176</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>201</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>卷6</v>
       </c>
       <c r="C7" s="1">
         <v>44146</v>
@@ -2219,26 +3138,25 @@
         <v>44171</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="F7">
-        <f t="shared" si="7"/>
         <v>-255</v>
       </c>
       <c r="G7">
         <v>-228</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <v>294</v>
@@ -2247,7 +3165,7 @@
         <v>959</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1362</v>
       </c>
       <c r="O7">
@@ -2255,24 +3173,25 @@
         <v>4224.3157894736842</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48243.315789473687</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>1351.9033848395245</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>1352.6579554766438</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="5"/>
-        <v>45371.657955476643</v>
+        <v>45370.903384839527</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>202</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>卷7</v>
       </c>
       <c r="C8" s="1">
         <v>44172</v>
@@ -2281,26 +3200,25 @@
         <v>44187</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F8">
-        <f t="shared" si="7"/>
         <v>-227</v>
       </c>
       <c r="G8">
         <v>-209</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84210526315789469</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L8" s="5">
         <v>294</v>
@@ -2309,7 +3227,7 @@
         <v>959</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1362</v>
       </c>
       <c r="O8">
@@ -2317,24 +3235,25 @@
         <v>4224.3157894736842</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48243.315789473687</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>1352.6579554766438</v>
+        <f t="shared" si="7"/>
+        <v>1351.9033848395245</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45371.657955476643</v>
+        <v>45370.903384839527</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>203</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>卷8</v>
       </c>
       <c r="C9" s="1">
         <v>44188</v>
@@ -2343,22 +3262,21 @@
         <v>44202</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="F9">
-        <f t="shared" si="7"/>
         <v>-208</v>
       </c>
       <c r="G9">
         <v>-207</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -2366,8 +3284,9 @@
       <c r="A10">
         <v>301</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>卷9</v>
       </c>
       <c r="C10" s="1">
         <v>44203</v>
@@ -2376,26 +3295,25 @@
         <v>44207</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F10">
-        <f t="shared" si="7"/>
         <v>-206</v>
       </c>
       <c r="G10">
         <v>-205</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
@@ -2406,8 +3324,9 @@
       <c r="A11">
         <v>302</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>卷10</v>
       </c>
       <c r="C11" s="1">
         <v>44207</v>
@@ -2420,34 +3339,34 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="9">G10+1</f>
         <v>-204</v>
       </c>
       <c r="G11">
         <v>-203</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="10">G11-F11+1</f>
+        <f t="shared" ref="H11" si="9">G11-F11+1</f>
         <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.9931409364733067</v>
+        <v>0.992586919852808</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>303</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>卷11</v>
       </c>
       <c r="C12" s="1">
         <v>44213</v>
@@ -2460,18 +3379,17 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12" si="11">G11+1</f>
         <v>-202</v>
       </c>
       <c r="G12">
         <v>-200</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12" si="12">G12-F12+1</f>
+        <f t="shared" ref="H12" si="10">G12-F12+1</f>
         <v>3</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -2479,8 +3397,9 @@
       <c r="A13">
         <v>304</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>卷12</v>
       </c>
       <c r="C13" s="1">
         <v>44221</v>
@@ -2493,18 +3412,17 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F20" si="13">G12+1</f>
         <v>-199</v>
       </c>
       <c r="G13">
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H19" si="14">G13-F13+1</f>
+        <f t="shared" ref="H13:H19" si="11">G13-F13+1</f>
         <v>12</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2512,8 +3430,9 @@
       <c r="A14">
         <v>305</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>卷13</v>
       </c>
       <c r="C14" s="1">
         <v>44229</v>
@@ -2526,18 +3445,17 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <f t="shared" si="13"/>
         <v>-187</v>
       </c>
       <c r="G14">
         <v>-178</v>
       </c>
       <c r="H14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2545,8 +3463,9 @@
       <c r="A15">
         <v>306</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>卷14</v>
       </c>
       <c r="C15" s="1">
         <v>44239</v>
@@ -2559,18 +3478,17 @@
         <v>9</v>
       </c>
       <c r="F15">
-        <f t="shared" si="13"/>
         <v>-177</v>
       </c>
       <c r="G15">
         <v>-170</v>
       </c>
       <c r="H15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.125</v>
       </c>
     </row>
@@ -2578,8 +3496,9 @@
       <c r="A16">
         <v>307</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>卷15</v>
       </c>
       <c r="C16" s="1">
         <v>44248</v>
@@ -2592,18 +3511,17 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="13"/>
         <v>-169</v>
       </c>
       <c r="G16">
         <v>-155</v>
       </c>
       <c r="H16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
@@ -2611,8 +3529,9 @@
       <c r="A17">
         <v>308</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>卷16</v>
       </c>
       <c r="C17" s="1">
         <v>44256</v>
@@ -2625,18 +3544,17 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <f t="shared" si="13"/>
         <v>-154</v>
       </c>
       <c r="G17">
         <v>-141</v>
       </c>
       <c r="H17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -2644,8 +3562,9 @@
       <c r="A18">
         <v>309</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>卷17</v>
       </c>
       <c r="C18" s="1">
         <v>44265</v>
@@ -2658,18 +3577,17 @@
         <v>7</v>
       </c>
       <c r="F18">
-        <f t="shared" si="13"/>
         <v>-140</v>
       </c>
       <c r="G18">
         <v>-134</v>
       </c>
       <c r="H18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2677,8 +3595,9 @@
       <c r="A19">
         <v>310</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>卷18</v>
       </c>
       <c r="C19" s="1">
         <v>44272</v>
@@ -2691,18 +3610,17 @@
         <v>7</v>
       </c>
       <c r="F19">
-        <f t="shared" si="13"/>
         <v>-133</v>
       </c>
       <c r="G19" s="2">
         <v>-125</v>
       </c>
       <c r="H19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -2710,8 +3628,9 @@
       <c r="A20">
         <v>311</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>卷19</v>
       </c>
       <c r="C20" s="1">
         <v>44279</v>
@@ -2724,18 +3643,17 @@
         <v>9</v>
       </c>
       <c r="F20">
-        <f t="shared" si="13"/>
         <v>-124</v>
       </c>
       <c r="G20" s="2">
         <v>-119</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="15">G20-F20+1</f>
+        <f t="shared" ref="H20" si="12">G20-F20+1</f>
         <v>6</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="16">E20/H20</f>
+        <f t="shared" ref="I20" si="13">E20/H20</f>
         <v>1.5</v>
       </c>
     </row>
@@ -2743,51 +3661,60 @@
       <c r="A21">
         <v>312</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>卷20</v>
       </c>
       <c r="C21" s="1">
         <v>44287</v>
+      </c>
+      <c r="F21">
+        <v>-118</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>313</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>卷21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>314</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>卷22</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>315</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>卷23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>316</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>卷24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>317</v>
       </c>
-      <c r="B26" t="s">
-        <v>49</v>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>卷25</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2848,23 +3775,7175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G295"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP($A2,統計!$A:$G,2,)</f>
+        <v>卷1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($A2,統計!$A:$G,6,)</f>
+        <v>-403</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($A2,統計!$A:$G,7,)</f>
+        <v>-369</v>
+      </c>
+      <c r="F2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"["&amp;B2&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B2,"卷","")&amp;".html)|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
+        <v>[卷1](筆記/资治通鉴1.html)|周紀一|-403|-369|周威烈王23年至24年、周安王共26年、周烈王至7年</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP($A3,統計!$A:$G,2,)</f>
+        <v>卷2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($A3,統計!$A:$G,6,)</f>
+        <v>-368</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($A3,統計!$A:$G,7,)</f>
+        <v>-321</v>
+      </c>
+      <c r="F3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">"["&amp;B3&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B3,"卷","")&amp;".html)|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3</f>
+        <v>[卷2](筆記/资治通鉴2.html)|周紀二|-368|-321|周顯王共48年</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP($A4,統計!$A:$G,2,)</f>
+        <v>卷3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($A4,統計!$A:$G,6,)</f>
+        <v>-320</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($A4,統計!$A:$G,7,)</f>
+        <v>-298</v>
+      </c>
+      <c r="F4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷3](筆記/资治通鉴3.html)|周紀三|-320|-298|周慎靚王共6年、周赧王至17年</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP($A5,統計!$A:$G,2,)</f>
+        <v>卷4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($A5,統計!$A:$G,6,)</f>
+        <v>-297</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($A5,統計!$A:$G,7,)</f>
+        <v>-273</v>
+      </c>
+      <c r="F5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷4](筆記/资治通鉴4.html)|周紀四|-297|-273|周赧王18年至42年</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP($A6,統計!$A:$G,2,)</f>
+        <v>卷5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP($A6,統計!$A:$G,6,)</f>
+        <v>-272</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($A6,統計!$A:$G,7,)</f>
+        <v>-256</v>
+      </c>
+      <c r="F6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷5](筆記/资治通鉴5.html)|周紀五|-272|-256|周赧王43年至59年</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>201</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP($A7,統計!$A:$G,2,)</f>
+        <v>卷6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP($A7,統計!$A:$G,6,)</f>
+        <v>-255</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($A7,統計!$A:$G,7,)</f>
+        <v>-228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷6](筆記/资治通鉴6.html)|秦紀一|-255|-228|秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>202</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP($A8,統計!$A:$G,2,)</f>
+        <v>卷7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP($A8,統計!$A:$G,6,)</f>
+        <v>-227</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($A8,統計!$A:$G,7,)</f>
+        <v>-209</v>
+      </c>
+      <c r="F8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷7](筆記/资治通鉴7.html)|秦紀二|-227|-209|秦始皇20年至37年、秦二世元年</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>203</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP($A9,統計!$A:$G,2,)</f>
+        <v>卷8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP($A9,統計!$A:$G,6,)</f>
+        <v>-208</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP($A9,統計!$A:$G,7,)</f>
+        <v>-207</v>
+      </c>
+      <c r="F9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷8](筆記/资治通鉴8.html)|秦紀三|-208|-207|秦二世2年至3年</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>301</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP($A10,統計!$A:$G,2,)</f>
+        <v>卷9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP($A10,統計!$A:$G,6,)</f>
+        <v>-206</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($A10,統計!$A:$G,7,)</f>
+        <v>-205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷9](筆記/资治通鉴9.html)|漢紀一|-206|-205|楚漢至2年</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>302</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP($A11,統計!$A:$G,2,)</f>
+        <v>卷10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP($A11,統計!$A:$G,6,)</f>
+        <v>-204</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($A11,統計!$A:$G,7,)</f>
+        <v>-203</v>
+      </c>
+      <c r="F11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷10](筆記/资治通鉴10.html)|漢紀二|-204|-203|楚漢3年至4年</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>303</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP($A12,統計!$A:$G,2,)</f>
+        <v>卷11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP($A12,統計!$A:$G,6,)</f>
+        <v>-202</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($A12,統計!$A:$G,7,)</f>
+        <v>-200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷11](筆記/资治通鉴11.html)|漢紀三|-202|-200|漢高祖5年至7年</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>304</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP($A13,統計!$A:$G,2,)</f>
+        <v>卷12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP($A13,統計!$A:$G,6,)</f>
+        <v>-199</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($A13,統計!$A:$G,7,)</f>
+        <v>-188</v>
+      </c>
+      <c r="F13" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷12](筆記/资治通鉴12.html)|漢紀四|-199|-188|漢高祖8年至12年、漢惠帝共7年</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>305</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP($A14,統計!$A:$G,2,)</f>
+        <v>卷13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP($A14,統計!$A:$G,6,)</f>
+        <v>-187</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($A14,統計!$A:$G,7,)</f>
+        <v>-178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷13](筆記/资治通鉴13.html)|漢紀五|-187|-178|漢高后共8年、漢文帝至2年</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>306</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP($A15,統計!$A:$G,2,)</f>
+        <v>卷14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP($A15,統計!$A:$G,6,)</f>
+        <v>-177</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($A15,統計!$A:$G,7,)</f>
+        <v>-170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷14](筆記/资治通鉴14.html)|漢紀六|-177|-170|漢文帝3年至10年</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>307</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP($A16,統計!$A:$G,2,)</f>
+        <v>卷15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP($A16,統計!$A:$G,6,)</f>
+        <v>-169</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($A16,統計!$A:$G,7,)</f>
+        <v>-155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷15](筆記/资治通鉴15.html)|漢紀七|-169|-155|漢文帝11年至23年、漢景帝至2年</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>308</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP($A17,統計!$A:$G,2,)</f>
+        <v>卷16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP($A17,統計!$A:$G,6,)</f>
+        <v>-154</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP($A17,統計!$A:$G,7,)</f>
+        <v>-141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷16](筆記/资治通鉴16.html)|漢紀八|-154|-141|漢景帝3年至16年</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>309</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP($A18,統計!$A:$G,2,)</f>
+        <v>卷17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP($A18,統計!$A:$G,6,)</f>
+        <v>-140</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP($A18,統計!$A:$G,7,)</f>
+        <v>-134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷17](筆記/资治通鉴17.html)|漢紀九|-140|-134|漢武帝至7年</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>310</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP($A19,統計!$A:$G,2,)</f>
+        <v>卷18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP($A19,統計!$A:$G,6,)</f>
+        <v>-133</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP($A19,統計!$A:$G,7,)</f>
+        <v>-125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷18](筆記/资治通鉴18.html)|漢紀十|-133|-125|漢武帝8年至16年</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>311</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP($A20,統計!$A:$G,2,)</f>
+        <v>卷19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP($A20,統計!$A:$G,6,)</f>
+        <v>-124</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP($A20,統計!$A:$G,7,)</f>
+        <v>-119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷19](筆記/资治通鉴19.html)|漢紀十一|-124|-119|漢武帝17年至22年</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>312</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP($A21,統計!$A:$G,2,)</f>
+        <v>卷20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP($A21,統計!$A:$G,6,)</f>
+        <v>-118</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP($A21,統計!$A:$G,7,)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷20](筆記/资治通鉴20.html)|漢紀十二|-118|0|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>313</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP($A22,統計!$A:$G,2,)</f>
+        <v>卷21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP($A22,統計!$A:$G,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP($A22,統計!$A:$G,7,)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷21](筆記/资治通鉴21.html)|漢紀十三|0|0|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>314</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP($A23,統計!$A:$G,2,)</f>
+        <v>卷22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP($A23,統計!$A:$G,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP($A23,統計!$A:$G,7,)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷22](筆記/资治通鉴22.html)|漢紀十四|0|0|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>315</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP($A24,統計!$A:$G,2,)</f>
+        <v>卷23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP($A24,統計!$A:$G,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP($A24,統計!$A:$G,7,)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷23](筆記/资治通鉴23.html)|漢紀十五|0|0|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>316</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP($A25,統計!$A:$G,2,)</f>
+        <v>卷24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP($A25,統計!$A:$G,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP($A25,統計!$A:$G,7,)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷24](筆記/资治通鉴24.html)|漢紀十六|0|0|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>317</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP($A26,統計!$A:$G,2,)</f>
+        <v>卷25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP($A26,統計!$A:$G,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP($A26,統計!$A:$G,7,)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>[卷25](筆記/资治通鉴25.html)|漢紀十七|0|0|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>318</v>
+      </c>
+      <c r="B27" t="e">
+        <f>VLOOKUP($A27,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="e">
+        <f>VLOOKUP($A27,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" t="e">
+        <f>VLOOKUP($A27,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>319</v>
+      </c>
+      <c r="B28" t="e">
+        <f>VLOOKUP($A28,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="e">
+        <f>VLOOKUP($A28,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" t="e">
+        <f>VLOOKUP($A28,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>320</v>
+      </c>
+      <c r="B29" t="e">
+        <f>VLOOKUP($A29,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="e">
+        <f>VLOOKUP($A29,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
+        <f>VLOOKUP($A29,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>321</v>
+      </c>
+      <c r="B30" t="e">
+        <f>VLOOKUP($A30,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="e">
+        <f>VLOOKUP($A30,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" t="e">
+        <f>VLOOKUP($A30,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>322</v>
+      </c>
+      <c r="B31" t="e">
+        <f>VLOOKUP($A31,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="e">
+        <f>VLOOKUP($A31,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" t="e">
+        <f>VLOOKUP($A31,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>323</v>
+      </c>
+      <c r="B32" t="e">
+        <f>VLOOKUP($A32,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="e">
+        <f>VLOOKUP($A32,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <f>VLOOKUP($A32,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>324</v>
+      </c>
+      <c r="B33" t="e">
+        <f>VLOOKUP($A33,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="e">
+        <f>VLOOKUP($A33,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <f>VLOOKUP($A33,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>325</v>
+      </c>
+      <c r="B34" t="e">
+        <f>VLOOKUP($A34,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="e">
+        <f>VLOOKUP($A34,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <f>VLOOKUP($A34,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>326</v>
+      </c>
+      <c r="B35" t="e">
+        <f>VLOOKUP($A35,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="e">
+        <f>VLOOKUP($A35,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <f>VLOOKUP($A35,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>327</v>
+      </c>
+      <c r="B36" t="e">
+        <f>VLOOKUP($A36,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="e">
+        <f>VLOOKUP($A36,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E36" t="e">
+        <f>VLOOKUP($A36,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>328</v>
+      </c>
+      <c r="B37" t="e">
+        <f>VLOOKUP($A37,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="e">
+        <f>VLOOKUP($A37,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" t="e">
+        <f>VLOOKUP($A37,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>329</v>
+      </c>
+      <c r="B38" t="e">
+        <f>VLOOKUP($A38,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="e">
+        <f>VLOOKUP($A38,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" t="e">
+        <f>VLOOKUP($A38,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>330</v>
+      </c>
+      <c r="B39" t="e">
+        <f>VLOOKUP($A39,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="e">
+        <f>VLOOKUP($A39,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" t="e">
+        <f>VLOOKUP($A39,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>331</v>
+      </c>
+      <c r="B40" t="e">
+        <f>VLOOKUP($A40,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="e">
+        <f>VLOOKUP($A40,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E40" t="e">
+        <f>VLOOKUP($A40,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>332</v>
+      </c>
+      <c r="B41" t="e">
+        <f>VLOOKUP($A41,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="e">
+        <f>VLOOKUP($A41,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" t="e">
+        <f>VLOOKUP($A41,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>333</v>
+      </c>
+      <c r="B42" t="e">
+        <f>VLOOKUP($A42,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="e">
+        <f>VLOOKUP($A42,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" t="e">
+        <f>VLOOKUP($A42,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G42" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>334</v>
+      </c>
+      <c r="B43" t="e">
+        <f>VLOOKUP($A43,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="e">
+        <f>VLOOKUP($A43,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E43" t="e">
+        <f>VLOOKUP($A43,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G43" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>335</v>
+      </c>
+      <c r="B44" t="e">
+        <f>VLOOKUP($A44,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" t="e">
+        <f>VLOOKUP($A44,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" t="e">
+        <f>VLOOKUP($A44,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>336</v>
+      </c>
+      <c r="B45" t="e">
+        <f>VLOOKUP($A45,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="e">
+        <f>VLOOKUP($A45,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" t="e">
+        <f>VLOOKUP($A45,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>337</v>
+      </c>
+      <c r="B46" t="e">
+        <f>VLOOKUP($A46,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="e">
+        <f>VLOOKUP($A46,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" t="e">
+        <f>VLOOKUP($A46,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>338</v>
+      </c>
+      <c r="B47" t="e">
+        <f>VLOOKUP($A47,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="e">
+        <f>VLOOKUP($A47,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E47" t="e">
+        <f>VLOOKUP($A47,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>339</v>
+      </c>
+      <c r="B48" t="e">
+        <f>VLOOKUP($A48,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="e">
+        <f>VLOOKUP($A48,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E48" t="e">
+        <f>VLOOKUP($A48,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>340</v>
+      </c>
+      <c r="B49" t="e">
+        <f>VLOOKUP($A49,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="e">
+        <f>VLOOKUP($A49,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E49" t="e">
+        <f>VLOOKUP($A49,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>341</v>
+      </c>
+      <c r="B50" t="e">
+        <f>VLOOKUP($A50,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="e">
+        <f>VLOOKUP($A50,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" t="e">
+        <f>VLOOKUP($A50,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>342</v>
+      </c>
+      <c r="B51" t="e">
+        <f>VLOOKUP($A51,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="e">
+        <f>VLOOKUP($A51,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E51" t="e">
+        <f>VLOOKUP($A51,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>343</v>
+      </c>
+      <c r="B52" t="e">
+        <f>VLOOKUP($A52,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="e">
+        <f>VLOOKUP($A52,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <f>VLOOKUP($A52,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>344</v>
+      </c>
+      <c r="B53" t="e">
+        <f>VLOOKUP($A53,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="e">
+        <f>VLOOKUP($A53,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <f>VLOOKUP($A53,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>345</v>
+      </c>
+      <c r="B54" t="e">
+        <f>VLOOKUP($A54,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="e">
+        <f>VLOOKUP($A54,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E54" t="e">
+        <f>VLOOKUP($A54,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G54" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>346</v>
+      </c>
+      <c r="B55" t="e">
+        <f>VLOOKUP($A55,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="e">
+        <f>VLOOKUP($A55,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E55" t="e">
+        <f>VLOOKUP($A55,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>347</v>
+      </c>
+      <c r="B56" t="e">
+        <f>VLOOKUP($A56,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="e">
+        <f>VLOOKUP($A56,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E56" t="e">
+        <f>VLOOKUP($A56,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>348</v>
+      </c>
+      <c r="B57" t="e">
+        <f>VLOOKUP($A57,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="e">
+        <f>VLOOKUP($A57,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E57" t="e">
+        <f>VLOOKUP($A57,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>349</v>
+      </c>
+      <c r="B58" t="e">
+        <f>VLOOKUP($A58,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="e">
+        <f>VLOOKUP($A58,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E58" t="e">
+        <f>VLOOKUP($A58,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G58" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>350</v>
+      </c>
+      <c r="B59" t="e">
+        <f>VLOOKUP($A59,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" t="e">
+        <f>VLOOKUP($A59,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E59" t="e">
+        <f>VLOOKUP($A59,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G59" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>351</v>
+      </c>
+      <c r="B60" t="e">
+        <f>VLOOKUP($A60,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="e">
+        <f>VLOOKUP($A60,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" t="e">
+        <f>VLOOKUP($A60,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>352</v>
+      </c>
+      <c r="B61" t="e">
+        <f>VLOOKUP($A61,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="e">
+        <f>VLOOKUP($A61,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61" t="e">
+        <f>VLOOKUP($A61,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>353</v>
+      </c>
+      <c r="B62" t="e">
+        <f>VLOOKUP($A62,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="e">
+        <f>VLOOKUP($A62,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E62" t="e">
+        <f>VLOOKUP($A62,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>354</v>
+      </c>
+      <c r="B63" t="e">
+        <f>VLOOKUP($A63,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="e">
+        <f>VLOOKUP($A63,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E63" t="e">
+        <f>VLOOKUP($A63,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>355</v>
+      </c>
+      <c r="B64" t="e">
+        <f>VLOOKUP($A64,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" t="e">
+        <f>VLOOKUP($A64,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64" t="e">
+        <f>VLOOKUP($A64,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G64" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>356</v>
+      </c>
+      <c r="B65" t="e">
+        <f>VLOOKUP($A65,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="e">
+        <f>VLOOKUP($A65,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" t="e">
+        <f>VLOOKUP($A65,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>357</v>
+      </c>
+      <c r="B66" t="e">
+        <f>VLOOKUP($A66,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="e">
+        <f>VLOOKUP($A66,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" t="e">
+        <f>VLOOKUP($A66,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G66" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>358</v>
+      </c>
+      <c r="B67" t="e">
+        <f>VLOOKUP($A67,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="e">
+        <f>VLOOKUP($A67,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E67" t="e">
+        <f>VLOOKUP($A67,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G67" t="e">
+        <f t="shared" ref="G67:G130" si="1">"["&amp;B67&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B67,"卷","")&amp;".html)|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67&amp;"|"&amp;F67</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>359</v>
+      </c>
+      <c r="B68" t="e">
+        <f>VLOOKUP($A68,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" t="e">
+        <f>VLOOKUP($A68,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E68" t="e">
+        <f>VLOOKUP($A68,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>360</v>
+      </c>
+      <c r="B69" t="e">
+        <f>VLOOKUP($A69,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" t="e">
+        <f>VLOOKUP($A69,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69" t="e">
+        <f>VLOOKUP($A69,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>401</v>
+      </c>
+      <c r="B70" t="e">
+        <f>VLOOKUP($A70,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="e">
+        <f>VLOOKUP($A70,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" t="e">
+        <f>VLOOKUP($A70,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>402</v>
+      </c>
+      <c r="B71" t="e">
+        <f>VLOOKUP($A71,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" t="e">
+        <f>VLOOKUP($A71,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E71" t="e">
+        <f>VLOOKUP($A71,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G71" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>403</v>
+      </c>
+      <c r="B72" t="e">
+        <f>VLOOKUP($A72,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="e">
+        <f>VLOOKUP($A72,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E72" t="e">
+        <f>VLOOKUP($A72,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>404</v>
+      </c>
+      <c r="B73" t="e">
+        <f>VLOOKUP($A73,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="e">
+        <f>VLOOKUP($A73,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" t="e">
+        <f>VLOOKUP($A73,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G73" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>405</v>
+      </c>
+      <c r="B74" t="e">
+        <f>VLOOKUP($A74,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="e">
+        <f>VLOOKUP($A74,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74" t="e">
+        <f>VLOOKUP($A74,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G74" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>406</v>
+      </c>
+      <c r="B75" t="e">
+        <f>VLOOKUP($A75,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="e">
+        <f>VLOOKUP($A75,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" t="e">
+        <f>VLOOKUP($A75,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>407</v>
+      </c>
+      <c r="B76" t="e">
+        <f>VLOOKUP($A76,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="e">
+        <f>VLOOKUP($A76,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E76" t="e">
+        <f>VLOOKUP($A76,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G76" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>408</v>
+      </c>
+      <c r="B77" t="e">
+        <f>VLOOKUP($A77,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" t="e">
+        <f>VLOOKUP($A77,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" t="e">
+        <f>VLOOKUP($A77,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G77" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>409</v>
+      </c>
+      <c r="B78" t="e">
+        <f>VLOOKUP($A78,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="e">
+        <f>VLOOKUP($A78,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" t="e">
+        <f>VLOOKUP($A78,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>410</v>
+      </c>
+      <c r="B79" t="e">
+        <f>VLOOKUP($A79,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" t="e">
+        <f>VLOOKUP($A79,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E79" t="e">
+        <f>VLOOKUP($A79,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G79" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>501</v>
+      </c>
+      <c r="B80" t="e">
+        <f>VLOOKUP($A80,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="e">
+        <f>VLOOKUP($A80,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E80" t="e">
+        <f>VLOOKUP($A80,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G80" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>502</v>
+      </c>
+      <c r="B81" t="e">
+        <f>VLOOKUP($A81,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="e">
+        <f>VLOOKUP($A81,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" t="e">
+        <f>VLOOKUP($A81,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G81" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>503</v>
+      </c>
+      <c r="B82" t="e">
+        <f>VLOOKUP($A82,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="e">
+        <f>VLOOKUP($A82,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E82" t="e">
+        <f>VLOOKUP($A82,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G82" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>504</v>
+      </c>
+      <c r="B83" t="e">
+        <f>VLOOKUP($A83,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" t="e">
+        <f>VLOOKUP($A83,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" t="e">
+        <f>VLOOKUP($A83,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G83" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>505</v>
+      </c>
+      <c r="B84" t="e">
+        <f>VLOOKUP($A84,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" t="e">
+        <f>VLOOKUP($A84,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E84" t="e">
+        <f>VLOOKUP($A84,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G84" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>506</v>
+      </c>
+      <c r="B85" t="e">
+        <f>VLOOKUP($A85,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" t="e">
+        <f>VLOOKUP($A85,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E85" t="e">
+        <f>VLOOKUP($A85,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G85" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>507</v>
+      </c>
+      <c r="B86" t="e">
+        <f>VLOOKUP($A86,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" t="e">
+        <f>VLOOKUP($A86,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E86" t="e">
+        <f>VLOOKUP($A86,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>508</v>
+      </c>
+      <c r="B87" t="e">
+        <f>VLOOKUP($A87,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" t="e">
+        <f>VLOOKUP($A87,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E87" t="e">
+        <f>VLOOKUP($A87,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>509</v>
+      </c>
+      <c r="B88" t="e">
+        <f>VLOOKUP($A88,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="e">
+        <f>VLOOKUP($A88,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E88" t="e">
+        <f>VLOOKUP($A88,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>510</v>
+      </c>
+      <c r="B89" t="e">
+        <f>VLOOKUP($A89,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" t="e">
+        <f>VLOOKUP($A89,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E89" t="e">
+        <f>VLOOKUP($A89,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>511</v>
+      </c>
+      <c r="B90" t="e">
+        <f>VLOOKUP($A90,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="e">
+        <f>VLOOKUP($A90,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E90" t="e">
+        <f>VLOOKUP($A90,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>512</v>
+      </c>
+      <c r="B91" t="e">
+        <f>VLOOKUP($A91,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" t="e">
+        <f>VLOOKUP($A91,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E91" t="e">
+        <f>VLOOKUP($A91,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>513</v>
+      </c>
+      <c r="B92" t="e">
+        <f>VLOOKUP($A92,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" t="e">
+        <f>VLOOKUP($A92,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E92" t="e">
+        <f>VLOOKUP($A92,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>514</v>
+      </c>
+      <c r="B93" t="e">
+        <f>VLOOKUP($A93,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="e">
+        <f>VLOOKUP($A93,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E93" t="e">
+        <f>VLOOKUP($A93,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>515</v>
+      </c>
+      <c r="B94" t="e">
+        <f>VLOOKUP($A94,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="e">
+        <f>VLOOKUP($A94,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E94" t="e">
+        <f>VLOOKUP($A94,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>516</v>
+      </c>
+      <c r="B95" t="e">
+        <f>VLOOKUP($A95,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="e">
+        <f>VLOOKUP($A95,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E95" t="e">
+        <f>VLOOKUP($A95,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>517</v>
+      </c>
+      <c r="B96" t="e">
+        <f>VLOOKUP($A96,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="e">
+        <f>VLOOKUP($A96,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E96" t="e">
+        <f>VLOOKUP($A96,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>518</v>
+      </c>
+      <c r="B97" t="e">
+        <f>VLOOKUP($A97,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" t="e">
+        <f>VLOOKUP($A97,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" t="e">
+        <f>VLOOKUP($A97,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>519</v>
+      </c>
+      <c r="B98" t="e">
+        <f>VLOOKUP($A98,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" t="e">
+        <f>VLOOKUP($A98,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="e">
+        <f>VLOOKUP($A98,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>520</v>
+      </c>
+      <c r="B99" t="e">
+        <f>VLOOKUP($A99,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C99" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="e">
+        <f>VLOOKUP($A99,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="e">
+        <f>VLOOKUP($A99,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>521</v>
+      </c>
+      <c r="B100" t="e">
+        <f>VLOOKUP($A100,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C100" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" t="e">
+        <f>VLOOKUP($A100,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E100" t="e">
+        <f>VLOOKUP($A100,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>522</v>
+      </c>
+      <c r="B101" t="e">
+        <f>VLOOKUP($A101,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" t="e">
+        <f>VLOOKUP($A101,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E101" t="e">
+        <f>VLOOKUP($A101,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>523</v>
+      </c>
+      <c r="B102" t="e">
+        <f>VLOOKUP($A102,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" t="e">
+        <f>VLOOKUP($A102,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E102" t="e">
+        <f>VLOOKUP($A102,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>524</v>
+      </c>
+      <c r="B103" t="e">
+        <f>VLOOKUP($A103,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" t="e">
+        <f>VLOOKUP($A103,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E103" t="e">
+        <f>VLOOKUP($A103,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G103" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>525</v>
+      </c>
+      <c r="B104" t="e">
+        <f>VLOOKUP($A104,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" t="e">
+        <f>VLOOKUP($A104,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E104" t="e">
+        <f>VLOOKUP($A104,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G104" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>526</v>
+      </c>
+      <c r="B105" t="e">
+        <f>VLOOKUP($A105,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C105" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" t="e">
+        <f>VLOOKUP($A105,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E105" t="e">
+        <f>VLOOKUP($A105,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G105" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>527</v>
+      </c>
+      <c r="B106" t="e">
+        <f>VLOOKUP($A106,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C106" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" t="e">
+        <f>VLOOKUP($A106,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E106" t="e">
+        <f>VLOOKUP($A106,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G106" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>528</v>
+      </c>
+      <c r="B107" t="e">
+        <f>VLOOKUP($A107,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C107" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" t="e">
+        <f>VLOOKUP($A107,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E107" t="e">
+        <f>VLOOKUP($A107,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G107" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>529</v>
+      </c>
+      <c r="B108" t="e">
+        <f>VLOOKUP($A108,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" t="e">
+        <f>VLOOKUP($A108,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E108" t="e">
+        <f>VLOOKUP($A108,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>530</v>
+      </c>
+      <c r="B109" t="e">
+        <f>VLOOKUP($A109,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C109" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" t="e">
+        <f>VLOOKUP($A109,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E109" t="e">
+        <f>VLOOKUP($A109,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G109" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>531</v>
+      </c>
+      <c r="B110" t="e">
+        <f>VLOOKUP($A110,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C110" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" t="e">
+        <f>VLOOKUP($A110,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E110" t="e">
+        <f>VLOOKUP($A110,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G110" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>532</v>
+      </c>
+      <c r="B111" t="e">
+        <f>VLOOKUP($A111,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C111" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" t="e">
+        <f>VLOOKUP($A111,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E111" t="e">
+        <f>VLOOKUP($A111,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>533</v>
+      </c>
+      <c r="B112" t="e">
+        <f>VLOOKUP($A112,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" t="e">
+        <f>VLOOKUP($A112,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E112" t="e">
+        <f>VLOOKUP($A112,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G112" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>534</v>
+      </c>
+      <c r="B113" t="e">
+        <f>VLOOKUP($A113,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" t="e">
+        <f>VLOOKUP($A113,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" t="e">
+        <f>VLOOKUP($A113,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>535</v>
+      </c>
+      <c r="B114" t="e">
+        <f>VLOOKUP($A114,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C114" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" t="e">
+        <f>VLOOKUP($A114,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" t="e">
+        <f>VLOOKUP($A114,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>536</v>
+      </c>
+      <c r="B115" t="e">
+        <f>VLOOKUP($A115,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" t="e">
+        <f>VLOOKUP($A115,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" t="e">
+        <f>VLOOKUP($A115,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>537</v>
+      </c>
+      <c r="B116" t="e">
+        <f>VLOOKUP($A116,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" t="e">
+        <f>VLOOKUP($A116,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E116" t="e">
+        <f>VLOOKUP($A116,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G116" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>538</v>
+      </c>
+      <c r="B117" t="e">
+        <f>VLOOKUP($A117,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C117" t="s">
+        <v>145</v>
+      </c>
+      <c r="D117" t="e">
+        <f>VLOOKUP($A117,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E117" t="e">
+        <f>VLOOKUP($A117,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G117" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>539</v>
+      </c>
+      <c r="B118" t="e">
+        <f>VLOOKUP($A118,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118" t="e">
+        <f>VLOOKUP($A118,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E118" t="e">
+        <f>VLOOKUP($A118,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G118" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>540</v>
+      </c>
+      <c r="B119" t="e">
+        <f>VLOOKUP($A119,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" t="e">
+        <f>VLOOKUP($A119,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E119" t="e">
+        <f>VLOOKUP($A119,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G119" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>601</v>
+      </c>
+      <c r="B120" t="e">
+        <f>VLOOKUP($A120,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" t="e">
+        <f>VLOOKUP($A120,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E120" t="e">
+        <f>VLOOKUP($A120,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G120" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>602</v>
+      </c>
+      <c r="B121" t="e">
+        <f>VLOOKUP($A121,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" t="e">
+        <f>VLOOKUP($A121,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E121" t="e">
+        <f>VLOOKUP($A121,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G121" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>603</v>
+      </c>
+      <c r="B122" t="e">
+        <f>VLOOKUP($A122,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C122" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" t="e">
+        <f>VLOOKUP($A122,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E122" t="e">
+        <f>VLOOKUP($A122,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G122" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>604</v>
+      </c>
+      <c r="B123" t="e">
+        <f>VLOOKUP($A123,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C123" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" t="e">
+        <f>VLOOKUP($A123,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E123" t="e">
+        <f>VLOOKUP($A123,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G123" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>605</v>
+      </c>
+      <c r="B124" t="e">
+        <f>VLOOKUP($A124,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C124" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" t="e">
+        <f>VLOOKUP($A124,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E124" t="e">
+        <f>VLOOKUP($A124,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G124" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>606</v>
+      </c>
+      <c r="B125" t="e">
+        <f>VLOOKUP($A125,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C125" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" t="e">
+        <f>VLOOKUP($A125,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E125" t="e">
+        <f>VLOOKUP($A125,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G125" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>607</v>
+      </c>
+      <c r="B126" t="e">
+        <f>VLOOKUP($A126,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C126" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" t="e">
+        <f>VLOOKUP($A126,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E126" t="e">
+        <f>VLOOKUP($A126,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G126" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>608</v>
+      </c>
+      <c r="B127" t="e">
+        <f>VLOOKUP($A127,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D127" t="e">
+        <f>VLOOKUP($A127,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E127" t="e">
+        <f>VLOOKUP($A127,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G127" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>609</v>
+      </c>
+      <c r="B128" t="e">
+        <f>VLOOKUP($A128,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C128" t="s">
+        <v>156</v>
+      </c>
+      <c r="D128" t="e">
+        <f>VLOOKUP($A128,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E128" t="e">
+        <f>VLOOKUP($A128,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>610</v>
+      </c>
+      <c r="B129" t="e">
+        <f>VLOOKUP($A129,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C129" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129" t="e">
+        <f>VLOOKUP($A129,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E129" t="e">
+        <f>VLOOKUP($A129,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G129" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>611</v>
+      </c>
+      <c r="B130" t="e">
+        <f>VLOOKUP($A130,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C130" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" t="e">
+        <f>VLOOKUP($A130,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E130" t="e">
+        <f>VLOOKUP($A130,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G130" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>612</v>
+      </c>
+      <c r="B131" t="e">
+        <f>VLOOKUP($A131,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C131" t="s">
+        <v>159</v>
+      </c>
+      <c r="D131" t="e">
+        <f>VLOOKUP($A131,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E131" t="e">
+        <f>VLOOKUP($A131,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G131" t="e">
+        <f t="shared" ref="G131:G194" si="2">"["&amp;B131&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B131,"卷","")&amp;".html)|"&amp;C131&amp;"|"&amp;D131&amp;"|"&amp;E131&amp;"|"&amp;F131</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>613</v>
+      </c>
+      <c r="B132" t="e">
+        <f>VLOOKUP($A132,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C132" t="s">
+        <v>160</v>
+      </c>
+      <c r="D132" t="e">
+        <f>VLOOKUP($A132,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E132" t="e">
+        <f>VLOOKUP($A132,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G132" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>614</v>
+      </c>
+      <c r="B133" t="e">
+        <f>VLOOKUP($A133,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C133" t="s">
+        <v>161</v>
+      </c>
+      <c r="D133" t="e">
+        <f>VLOOKUP($A133,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E133" t="e">
+        <f>VLOOKUP($A133,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G133" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>615</v>
+      </c>
+      <c r="B134" t="e">
+        <f>VLOOKUP($A134,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C134" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" t="e">
+        <f>VLOOKUP($A134,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E134" t="e">
+        <f>VLOOKUP($A134,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G134" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>616</v>
+      </c>
+      <c r="B135" t="e">
+        <f>VLOOKUP($A135,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C135" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" t="e">
+        <f>VLOOKUP($A135,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E135" t="e">
+        <f>VLOOKUP($A135,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G135" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>701</v>
+      </c>
+      <c r="B136" t="e">
+        <f>VLOOKUP($A136,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C136" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" t="e">
+        <f>VLOOKUP($A136,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E136" t="e">
+        <f>VLOOKUP($A136,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G136" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>702</v>
+      </c>
+      <c r="B137" t="e">
+        <f>VLOOKUP($A137,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C137" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137" t="e">
+        <f>VLOOKUP($A137,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E137" t="e">
+        <f>VLOOKUP($A137,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G137" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>703</v>
+      </c>
+      <c r="B138" t="e">
+        <f>VLOOKUP($A138,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C138" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" t="e">
+        <f>VLOOKUP($A138,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E138" t="e">
+        <f>VLOOKUP($A138,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G138" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>704</v>
+      </c>
+      <c r="B139" t="e">
+        <f>VLOOKUP($A139,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C139" t="s">
+        <v>167</v>
+      </c>
+      <c r="D139" t="e">
+        <f>VLOOKUP($A139,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E139" t="e">
+        <f>VLOOKUP($A139,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G139" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>705</v>
+      </c>
+      <c r="B140" t="e">
+        <f>VLOOKUP($A140,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C140" t="s">
+        <v>168</v>
+      </c>
+      <c r="D140" t="e">
+        <f>VLOOKUP($A140,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E140" t="e">
+        <f>VLOOKUP($A140,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G140" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>706</v>
+      </c>
+      <c r="B141" t="e">
+        <f>VLOOKUP($A141,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C141" t="s">
+        <v>169</v>
+      </c>
+      <c r="D141" t="e">
+        <f>VLOOKUP($A141,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E141" t="e">
+        <f>VLOOKUP($A141,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G141" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>707</v>
+      </c>
+      <c r="B142" t="e">
+        <f>VLOOKUP($A142,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C142" t="s">
+        <v>170</v>
+      </c>
+      <c r="D142" t="e">
+        <f>VLOOKUP($A142,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E142" t="e">
+        <f>VLOOKUP($A142,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G142" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>708</v>
+      </c>
+      <c r="B143" t="e">
+        <f>VLOOKUP($A143,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C143" t="s">
+        <v>171</v>
+      </c>
+      <c r="D143" t="e">
+        <f>VLOOKUP($A143,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E143" t="e">
+        <f>VLOOKUP($A143,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G143" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>709</v>
+      </c>
+      <c r="B144" t="e">
+        <f>VLOOKUP($A144,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C144" t="s">
+        <v>172</v>
+      </c>
+      <c r="D144" t="e">
+        <f>VLOOKUP($A144,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E144" t="e">
+        <f>VLOOKUP($A144,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G144" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>710</v>
+      </c>
+      <c r="B145" t="e">
+        <f>VLOOKUP($A145,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C145" t="s">
+        <v>173</v>
+      </c>
+      <c r="D145" t="e">
+        <f>VLOOKUP($A145,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E145" t="e">
+        <f>VLOOKUP($A145,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G145" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>801</v>
+      </c>
+      <c r="B146" t="e">
+        <f>VLOOKUP($A146,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C146" t="s">
+        <v>174</v>
+      </c>
+      <c r="D146" t="e">
+        <f>VLOOKUP($A146,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E146" t="e">
+        <f>VLOOKUP($A146,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G146" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>802</v>
+      </c>
+      <c r="B147" t="e">
+        <f>VLOOKUP($A147,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C147" t="s">
+        <v>175</v>
+      </c>
+      <c r="D147" t="e">
+        <f>VLOOKUP($A147,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E147" t="e">
+        <f>VLOOKUP($A147,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G147" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>803</v>
+      </c>
+      <c r="B148" t="e">
+        <f>VLOOKUP($A148,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C148" t="s">
+        <v>176</v>
+      </c>
+      <c r="D148" t="e">
+        <f>VLOOKUP($A148,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E148" t="e">
+        <f>VLOOKUP($A148,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G148" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>804</v>
+      </c>
+      <c r="B149" t="e">
+        <f>VLOOKUP($A149,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C149" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149" t="e">
+        <f>VLOOKUP($A149,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E149" t="e">
+        <f>VLOOKUP($A149,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G149" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>805</v>
+      </c>
+      <c r="B150" t="e">
+        <f>VLOOKUP($A150,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C150" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" t="e">
+        <f>VLOOKUP($A150,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E150" t="e">
+        <f>VLOOKUP($A150,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G150" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>806</v>
+      </c>
+      <c r="B151" t="e">
+        <f>VLOOKUP($A151,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C151" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" t="e">
+        <f>VLOOKUP($A151,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E151" t="e">
+        <f>VLOOKUP($A151,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G151" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>807</v>
+      </c>
+      <c r="B152" t="e">
+        <f>VLOOKUP($A152,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C152" t="s">
+        <v>180</v>
+      </c>
+      <c r="D152" t="e">
+        <f>VLOOKUP($A152,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E152" t="e">
+        <f>VLOOKUP($A152,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G152" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>808</v>
+      </c>
+      <c r="B153" t="e">
+        <f>VLOOKUP($A153,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C153" t="s">
+        <v>181</v>
+      </c>
+      <c r="D153" t="e">
+        <f>VLOOKUP($A153,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E153" t="e">
+        <f>VLOOKUP($A153,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G153" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>809</v>
+      </c>
+      <c r="B154" t="e">
+        <f>VLOOKUP($A154,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C154" t="s">
+        <v>182</v>
+      </c>
+      <c r="D154" t="e">
+        <f>VLOOKUP($A154,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E154" t="e">
+        <f>VLOOKUP($A154,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G154" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>810</v>
+      </c>
+      <c r="B155" t="e">
+        <f>VLOOKUP($A155,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D155" t="e">
+        <f>VLOOKUP($A155,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E155" t="e">
+        <f>VLOOKUP($A155,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G155" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>811</v>
+      </c>
+      <c r="B156" t="e">
+        <f>VLOOKUP($A156,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C156" t="s">
+        <v>184</v>
+      </c>
+      <c r="D156" t="e">
+        <f>VLOOKUP($A156,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E156" t="e">
+        <f>VLOOKUP($A156,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G156" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>812</v>
+      </c>
+      <c r="B157" t="e">
+        <f>VLOOKUP($A157,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C157" t="s">
+        <v>185</v>
+      </c>
+      <c r="D157" t="e">
+        <f>VLOOKUP($A157,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E157" t="e">
+        <f>VLOOKUP($A157,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G157" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>813</v>
+      </c>
+      <c r="B158" t="e">
+        <f>VLOOKUP($A158,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C158" t="s">
+        <v>186</v>
+      </c>
+      <c r="D158" t="e">
+        <f>VLOOKUP($A158,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E158" t="e">
+        <f>VLOOKUP($A158,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G158" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>814</v>
+      </c>
+      <c r="B159" t="e">
+        <f>VLOOKUP($A159,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C159" t="s">
+        <v>187</v>
+      </c>
+      <c r="D159" t="e">
+        <f>VLOOKUP($A159,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E159" t="e">
+        <f>VLOOKUP($A159,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G159" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>815</v>
+      </c>
+      <c r="B160" t="e">
+        <f>VLOOKUP($A160,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C160" t="s">
+        <v>188</v>
+      </c>
+      <c r="D160" t="e">
+        <f>VLOOKUP($A160,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E160" t="e">
+        <f>VLOOKUP($A160,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G160" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>816</v>
+      </c>
+      <c r="B161" t="e">
+        <f>VLOOKUP($A161,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C161" t="s">
+        <v>189</v>
+      </c>
+      <c r="D161" t="e">
+        <f>VLOOKUP($A161,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E161" t="e">
+        <f>VLOOKUP($A161,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G161" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>817</v>
+      </c>
+      <c r="B162" t="e">
+        <f>VLOOKUP($A162,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C162" t="s">
+        <v>190</v>
+      </c>
+      <c r="D162" t="e">
+        <f>VLOOKUP($A162,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E162" t="e">
+        <f>VLOOKUP($A162,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G162" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>818</v>
+      </c>
+      <c r="B163" t="e">
+        <f>VLOOKUP($A163,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C163" t="s">
+        <v>191</v>
+      </c>
+      <c r="D163" t="e">
+        <f>VLOOKUP($A163,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E163" t="e">
+        <f>VLOOKUP($A163,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G163" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>819</v>
+      </c>
+      <c r="B164" t="e">
+        <f>VLOOKUP($A164,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C164" t="s">
+        <v>192</v>
+      </c>
+      <c r="D164" t="e">
+        <f>VLOOKUP($A164,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E164" t="e">
+        <f>VLOOKUP($A164,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G164" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>820</v>
+      </c>
+      <c r="B165" t="e">
+        <f>VLOOKUP($A165,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C165" t="s">
+        <v>193</v>
+      </c>
+      <c r="D165" t="e">
+        <f>VLOOKUP($A165,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E165" t="e">
+        <f>VLOOKUP($A165,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G165" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>821</v>
+      </c>
+      <c r="B166" t="e">
+        <f>VLOOKUP($A166,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C166" t="s">
+        <v>194</v>
+      </c>
+      <c r="D166" t="e">
+        <f>VLOOKUP($A166,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E166" t="e">
+        <f>VLOOKUP($A166,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G166" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>822</v>
+      </c>
+      <c r="B167" t="e">
+        <f>VLOOKUP($A167,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C167" t="s">
+        <v>195</v>
+      </c>
+      <c r="D167" t="e">
+        <f>VLOOKUP($A167,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E167" t="e">
+        <f>VLOOKUP($A167,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G167" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>901</v>
+      </c>
+      <c r="B168" t="e">
+        <f>VLOOKUP($A168,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C168" t="s">
+        <v>196</v>
+      </c>
+      <c r="D168" t="e">
+        <f>VLOOKUP($A168,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E168" t="e">
+        <f>VLOOKUP($A168,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G168" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>902</v>
+      </c>
+      <c r="B169" t="e">
+        <f>VLOOKUP($A169,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C169" t="s">
+        <v>197</v>
+      </c>
+      <c r="D169" t="e">
+        <f>VLOOKUP($A169,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E169" t="e">
+        <f>VLOOKUP($A169,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G169" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>903</v>
+      </c>
+      <c r="B170" t="e">
+        <f>VLOOKUP($A170,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C170" t="s">
+        <v>198</v>
+      </c>
+      <c r="D170" t="e">
+        <f>VLOOKUP($A170,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E170" t="e">
+        <f>VLOOKUP($A170,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G170" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>904</v>
+      </c>
+      <c r="B171" t="e">
+        <f>VLOOKUP($A171,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C171" t="s">
+        <v>199</v>
+      </c>
+      <c r="D171" t="e">
+        <f>VLOOKUP($A171,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E171" t="e">
+        <f>VLOOKUP($A171,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G171" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>905</v>
+      </c>
+      <c r="B172" t="e">
+        <f>VLOOKUP($A172,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C172" t="s">
+        <v>200</v>
+      </c>
+      <c r="D172" t="e">
+        <f>VLOOKUP($A172,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E172" t="e">
+        <f>VLOOKUP($A172,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G172" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>906</v>
+      </c>
+      <c r="B173" t="e">
+        <f>VLOOKUP($A173,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C173" t="s">
+        <v>201</v>
+      </c>
+      <c r="D173" t="e">
+        <f>VLOOKUP($A173,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E173" t="e">
+        <f>VLOOKUP($A173,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G173" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>907</v>
+      </c>
+      <c r="B174" t="e">
+        <f>VLOOKUP($A174,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C174" t="s">
+        <v>202</v>
+      </c>
+      <c r="D174" t="e">
+        <f>VLOOKUP($A174,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E174" t="e">
+        <f>VLOOKUP($A174,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G174" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>908</v>
+      </c>
+      <c r="B175" t="e">
+        <f>VLOOKUP($A175,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C175" t="s">
+        <v>203</v>
+      </c>
+      <c r="D175" t="e">
+        <f>VLOOKUP($A175,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E175" t="e">
+        <f>VLOOKUP($A175,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G175" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>909</v>
+      </c>
+      <c r="B176" t="e">
+        <f>VLOOKUP($A176,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C176" t="s">
+        <v>204</v>
+      </c>
+      <c r="D176" t="e">
+        <f>VLOOKUP($A176,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E176" t="e">
+        <f>VLOOKUP($A176,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G176" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>910</v>
+      </c>
+      <c r="B177" t="e">
+        <f>VLOOKUP($A177,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C177" t="s">
+        <v>205</v>
+      </c>
+      <c r="D177" t="e">
+        <f>VLOOKUP($A177,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E177" t="e">
+        <f>VLOOKUP($A177,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G177" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>1001</v>
+      </c>
+      <c r="B178" t="e">
+        <f>VLOOKUP($A178,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C178" t="s">
+        <v>206</v>
+      </c>
+      <c r="D178" t="e">
+        <f>VLOOKUP($A178,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E178" t="e">
+        <f>VLOOKUP($A178,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G178" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>1002</v>
+      </c>
+      <c r="B179" t="e">
+        <f>VLOOKUP($A179,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C179" t="s">
+        <v>207</v>
+      </c>
+      <c r="D179" t="e">
+        <f>VLOOKUP($A179,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E179" t="e">
+        <f>VLOOKUP($A179,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G179" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>1003</v>
+      </c>
+      <c r="B180" t="e">
+        <f>VLOOKUP($A180,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C180" t="s">
+        <v>208</v>
+      </c>
+      <c r="D180" t="e">
+        <f>VLOOKUP($A180,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E180" t="e">
+        <f>VLOOKUP($A180,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G180" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>1004</v>
+      </c>
+      <c r="B181" t="e">
+        <f>VLOOKUP($A181,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C181" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" t="e">
+        <f>VLOOKUP($A181,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E181" t="e">
+        <f>VLOOKUP($A181,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G181" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>1005</v>
+      </c>
+      <c r="B182" t="e">
+        <f>VLOOKUP($A182,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C182" t="s">
+        <v>210</v>
+      </c>
+      <c r="D182" t="e">
+        <f>VLOOKUP($A182,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E182" t="e">
+        <f>VLOOKUP($A182,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G182" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>1006</v>
+      </c>
+      <c r="B183" t="e">
+        <f>VLOOKUP($A183,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C183" t="s">
+        <v>211</v>
+      </c>
+      <c r="D183" t="e">
+        <f>VLOOKUP($A183,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E183" t="e">
+        <f>VLOOKUP($A183,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G183" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>1007</v>
+      </c>
+      <c r="B184" t="e">
+        <f>VLOOKUP($A184,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C184" t="s">
+        <v>212</v>
+      </c>
+      <c r="D184" t="e">
+        <f>VLOOKUP($A184,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E184" t="e">
+        <f>VLOOKUP($A184,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G184" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>1008</v>
+      </c>
+      <c r="B185" t="e">
+        <f>VLOOKUP($A185,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C185" t="s">
+        <v>213</v>
+      </c>
+      <c r="D185" t="e">
+        <f>VLOOKUP($A185,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E185" t="e">
+        <f>VLOOKUP($A185,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G185" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>1101</v>
+      </c>
+      <c r="B186" t="e">
+        <f>VLOOKUP($A186,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C186" t="s">
+        <v>214</v>
+      </c>
+      <c r="D186" t="e">
+        <f>VLOOKUP($A186,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E186" t="e">
+        <f>VLOOKUP($A186,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G186" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>1102</v>
+      </c>
+      <c r="B187" t="e">
+        <f>VLOOKUP($A187,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C187" t="s">
+        <v>215</v>
+      </c>
+      <c r="D187" t="e">
+        <f>VLOOKUP($A187,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E187" t="e">
+        <f>VLOOKUP($A187,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G187" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>1103</v>
+      </c>
+      <c r="B188" t="e">
+        <f>VLOOKUP($A188,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C188" t="s">
+        <v>216</v>
+      </c>
+      <c r="D188" t="e">
+        <f>VLOOKUP($A188,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E188" t="e">
+        <f>VLOOKUP($A188,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G188" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>1104</v>
+      </c>
+      <c r="B189" t="e">
+        <f>VLOOKUP($A189,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C189" t="s">
+        <v>217</v>
+      </c>
+      <c r="D189" t="e">
+        <f>VLOOKUP($A189,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E189" t="e">
+        <f>VLOOKUP($A189,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G189" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>1105</v>
+      </c>
+      <c r="B190" t="e">
+        <f>VLOOKUP($A190,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C190" t="s">
+        <v>218</v>
+      </c>
+      <c r="D190" t="e">
+        <f>VLOOKUP($A190,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E190" t="e">
+        <f>VLOOKUP($A190,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G190" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>1106</v>
+      </c>
+      <c r="B191" t="e">
+        <f>VLOOKUP($A191,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C191" t="s">
+        <v>219</v>
+      </c>
+      <c r="D191" t="e">
+        <f>VLOOKUP($A191,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E191" t="e">
+        <f>VLOOKUP($A191,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G191" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>1107</v>
+      </c>
+      <c r="B192" t="e">
+        <f>VLOOKUP($A192,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C192" t="s">
+        <v>220</v>
+      </c>
+      <c r="D192" t="e">
+        <f>VLOOKUP($A192,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E192" t="e">
+        <f>VLOOKUP($A192,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G192" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>1108</v>
+      </c>
+      <c r="B193" t="e">
+        <f>VLOOKUP($A193,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+      <c r="D193" t="e">
+        <f>VLOOKUP($A193,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E193" t="e">
+        <f>VLOOKUP($A193,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G193" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>1109</v>
+      </c>
+      <c r="B194" t="e">
+        <f>VLOOKUP($A194,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C194" t="s">
+        <v>222</v>
+      </c>
+      <c r="D194" t="e">
+        <f>VLOOKUP($A194,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E194" t="e">
+        <f>VLOOKUP($A194,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G194" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>1110</v>
+      </c>
+      <c r="B195" t="e">
+        <f>VLOOKUP($A195,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C195" t="s">
+        <v>223</v>
+      </c>
+      <c r="D195" t="e">
+        <f>VLOOKUP($A195,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E195" t="e">
+        <f>VLOOKUP($A195,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G195" t="e">
+        <f t="shared" ref="G195:G258" si="3">"["&amp;B195&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B195,"卷","")&amp;".html)|"&amp;C195&amp;"|"&amp;D195&amp;"|"&amp;E195&amp;"|"&amp;F195</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>1111</v>
+      </c>
+      <c r="B196" t="e">
+        <f>VLOOKUP($A196,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C196" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" t="e">
+        <f>VLOOKUP($A196,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E196" t="e">
+        <f>VLOOKUP($A196,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G196" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>1112</v>
+      </c>
+      <c r="B197" t="e">
+        <f>VLOOKUP($A197,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C197" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" t="e">
+        <f>VLOOKUP($A197,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E197" t="e">
+        <f>VLOOKUP($A197,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G197" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>1113</v>
+      </c>
+      <c r="B198" t="e">
+        <f>VLOOKUP($A198,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C198" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" t="e">
+        <f>VLOOKUP($A198,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E198" t="e">
+        <f>VLOOKUP($A198,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G198" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>1114</v>
+      </c>
+      <c r="B199" t="e">
+        <f>VLOOKUP($A199,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C199" t="s">
+        <v>227</v>
+      </c>
+      <c r="D199" t="e">
+        <f>VLOOKUP($A199,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E199" t="e">
+        <f>VLOOKUP($A199,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G199" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>1115</v>
+      </c>
+      <c r="B200" t="e">
+        <f>VLOOKUP($A200,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C200" t="s">
+        <v>228</v>
+      </c>
+      <c r="D200" t="e">
+        <f>VLOOKUP($A200,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E200" t="e">
+        <f>VLOOKUP($A200,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G200" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>1116</v>
+      </c>
+      <c r="B201" t="e">
+        <f>VLOOKUP($A201,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C201" t="s">
+        <v>229</v>
+      </c>
+      <c r="D201" t="e">
+        <f>VLOOKUP($A201,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E201" t="e">
+        <f>VLOOKUP($A201,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G201" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>1117</v>
+      </c>
+      <c r="B202" t="e">
+        <f>VLOOKUP($A202,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C202" t="s">
+        <v>230</v>
+      </c>
+      <c r="D202" t="e">
+        <f>VLOOKUP($A202,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E202" t="e">
+        <f>VLOOKUP($A202,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G202" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>1118</v>
+      </c>
+      <c r="B203" t="e">
+        <f>VLOOKUP($A203,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C203" t="s">
+        <v>231</v>
+      </c>
+      <c r="D203" t="e">
+        <f>VLOOKUP($A203,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E203" t="e">
+        <f>VLOOKUP($A203,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G203" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>1119</v>
+      </c>
+      <c r="B204" t="e">
+        <f>VLOOKUP($A204,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C204" t="s">
+        <v>232</v>
+      </c>
+      <c r="D204" t="e">
+        <f>VLOOKUP($A204,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E204" t="e">
+        <f>VLOOKUP($A204,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G204" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>1120</v>
+      </c>
+      <c r="B205" t="e">
+        <f>VLOOKUP($A205,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C205" t="s">
+        <v>233</v>
+      </c>
+      <c r="D205" t="e">
+        <f>VLOOKUP($A205,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E205" t="e">
+        <f>VLOOKUP($A205,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G205" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>1121</v>
+      </c>
+      <c r="B206" t="e">
+        <f>VLOOKUP($A206,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C206" t="s">
+        <v>234</v>
+      </c>
+      <c r="D206" t="e">
+        <f>VLOOKUP($A206,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E206" t="e">
+        <f>VLOOKUP($A206,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G206" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>1122</v>
+      </c>
+      <c r="B207" t="e">
+        <f>VLOOKUP($A207,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C207" t="s">
+        <v>235</v>
+      </c>
+      <c r="D207" t="e">
+        <f>VLOOKUP($A207,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E207" t="e">
+        <f>VLOOKUP($A207,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G207" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>1123</v>
+      </c>
+      <c r="B208" t="e">
+        <f>VLOOKUP($A208,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C208" t="s">
+        <v>236</v>
+      </c>
+      <c r="D208" t="e">
+        <f>VLOOKUP($A208,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E208" t="e">
+        <f>VLOOKUP($A208,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G208" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>1124</v>
+      </c>
+      <c r="B209" t="e">
+        <f>VLOOKUP($A209,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C209" t="s">
+        <v>237</v>
+      </c>
+      <c r="D209" t="e">
+        <f>VLOOKUP($A209,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E209" t="e">
+        <f>VLOOKUP($A209,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G209" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>1125</v>
+      </c>
+      <c r="B210" t="e">
+        <f>VLOOKUP($A210,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C210" t="s">
+        <v>238</v>
+      </c>
+      <c r="D210" t="e">
+        <f>VLOOKUP($A210,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E210" t="e">
+        <f>VLOOKUP($A210,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G210" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>1126</v>
+      </c>
+      <c r="B211" t="e">
+        <f>VLOOKUP($A211,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C211" t="s">
+        <v>239</v>
+      </c>
+      <c r="D211" t="e">
+        <f>VLOOKUP($A211,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E211" t="e">
+        <f>VLOOKUP($A211,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G211" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>1127</v>
+      </c>
+      <c r="B212" t="e">
+        <f>VLOOKUP($A212,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C212" t="s">
+        <v>240</v>
+      </c>
+      <c r="D212" t="e">
+        <f>VLOOKUP($A212,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E212" t="e">
+        <f>VLOOKUP($A212,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G212" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>1128</v>
+      </c>
+      <c r="B213" t="e">
+        <f>VLOOKUP($A213,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C213" t="s">
+        <v>241</v>
+      </c>
+      <c r="D213" t="e">
+        <f>VLOOKUP($A213,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E213" t="e">
+        <f>VLOOKUP($A213,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G213" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>1129</v>
+      </c>
+      <c r="B214" t="e">
+        <f>VLOOKUP($A214,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C214" t="s">
+        <v>242</v>
+      </c>
+      <c r="D214" t="e">
+        <f>VLOOKUP($A214,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E214" t="e">
+        <f>VLOOKUP($A214,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G214" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>1130</v>
+      </c>
+      <c r="B215" t="e">
+        <f>VLOOKUP($A215,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C215" t="s">
+        <v>243</v>
+      </c>
+      <c r="D215" t="e">
+        <f>VLOOKUP($A215,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E215" t="e">
+        <f>VLOOKUP($A215,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G215" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>1131</v>
+      </c>
+      <c r="B216" t="e">
+        <f>VLOOKUP($A216,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C216" t="s">
+        <v>244</v>
+      </c>
+      <c r="D216" t="e">
+        <f>VLOOKUP($A216,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E216" t="e">
+        <f>VLOOKUP($A216,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G216" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>1132</v>
+      </c>
+      <c r="B217" t="e">
+        <f>VLOOKUP($A217,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C217" t="s">
+        <v>245</v>
+      </c>
+      <c r="D217" t="e">
+        <f>VLOOKUP($A217,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E217" t="e">
+        <f>VLOOKUP($A217,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G217" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>1133</v>
+      </c>
+      <c r="B218" t="e">
+        <f>VLOOKUP($A218,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C218" t="s">
+        <v>246</v>
+      </c>
+      <c r="D218" t="e">
+        <f>VLOOKUP($A218,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E218" t="e">
+        <f>VLOOKUP($A218,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G218" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>1134</v>
+      </c>
+      <c r="B219" t="e">
+        <f>VLOOKUP($A219,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C219" t="s">
+        <v>247</v>
+      </c>
+      <c r="D219" t="e">
+        <f>VLOOKUP($A219,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E219" t="e">
+        <f>VLOOKUP($A219,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G219" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>1135</v>
+      </c>
+      <c r="B220" t="e">
+        <f>VLOOKUP($A220,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C220" t="s">
+        <v>248</v>
+      </c>
+      <c r="D220" t="e">
+        <f>VLOOKUP($A220,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E220" t="e">
+        <f>VLOOKUP($A220,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G220" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>1136</v>
+      </c>
+      <c r="B221" t="e">
+        <f>VLOOKUP($A221,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C221" t="s">
+        <v>249</v>
+      </c>
+      <c r="D221" t="e">
+        <f>VLOOKUP($A221,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E221" t="e">
+        <f>VLOOKUP($A221,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G221" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>1137</v>
+      </c>
+      <c r="B222" t="e">
+        <f>VLOOKUP($A222,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C222" t="s">
+        <v>250</v>
+      </c>
+      <c r="D222" t="e">
+        <f>VLOOKUP($A222,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E222" t="e">
+        <f>VLOOKUP($A222,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G222" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>1138</v>
+      </c>
+      <c r="B223" t="e">
+        <f>VLOOKUP($A223,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C223" t="s">
+        <v>251</v>
+      </c>
+      <c r="D223" t="e">
+        <f>VLOOKUP($A223,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E223" t="e">
+        <f>VLOOKUP($A223,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G223" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>1139</v>
+      </c>
+      <c r="B224" t="e">
+        <f>VLOOKUP($A224,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C224" t="s">
+        <v>252</v>
+      </c>
+      <c r="D224" t="e">
+        <f>VLOOKUP($A224,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E224" t="e">
+        <f>VLOOKUP($A224,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G224" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>1140</v>
+      </c>
+      <c r="B225" t="e">
+        <f>VLOOKUP($A225,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C225" t="s">
+        <v>253</v>
+      </c>
+      <c r="D225" t="e">
+        <f>VLOOKUP($A225,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E225" t="e">
+        <f>VLOOKUP($A225,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G225" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>1141</v>
+      </c>
+      <c r="B226" t="e">
+        <f>VLOOKUP($A226,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C226" t="s">
+        <v>254</v>
+      </c>
+      <c r="D226" t="e">
+        <f>VLOOKUP($A226,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E226" t="e">
+        <f>VLOOKUP($A226,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G226" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>1142</v>
+      </c>
+      <c r="B227" t="e">
+        <f>VLOOKUP($A227,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C227" t="s">
+        <v>255</v>
+      </c>
+      <c r="D227" t="e">
+        <f>VLOOKUP($A227,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E227" t="e">
+        <f>VLOOKUP($A227,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G227" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>1143</v>
+      </c>
+      <c r="B228" t="e">
+        <f>VLOOKUP($A228,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C228" t="s">
+        <v>256</v>
+      </c>
+      <c r="D228" t="e">
+        <f>VLOOKUP($A228,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E228" t="e">
+        <f>VLOOKUP($A228,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G228" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>1144</v>
+      </c>
+      <c r="B229" t="e">
+        <f>VLOOKUP($A229,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C229" t="s">
+        <v>257</v>
+      </c>
+      <c r="D229" t="e">
+        <f>VLOOKUP($A229,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E229" t="e">
+        <f>VLOOKUP($A229,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G229" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>1145</v>
+      </c>
+      <c r="B230" t="e">
+        <f>VLOOKUP($A230,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C230" t="s">
+        <v>258</v>
+      </c>
+      <c r="D230" t="e">
+        <f>VLOOKUP($A230,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E230" t="e">
+        <f>VLOOKUP($A230,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G230" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>1146</v>
+      </c>
+      <c r="B231" t="e">
+        <f>VLOOKUP($A231,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C231" t="s">
+        <v>259</v>
+      </c>
+      <c r="D231" t="e">
+        <f>VLOOKUP($A231,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E231" t="e">
+        <f>VLOOKUP($A231,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G231" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>1147</v>
+      </c>
+      <c r="B232" t="e">
+        <f>VLOOKUP($A232,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C232" t="s">
+        <v>260</v>
+      </c>
+      <c r="D232" t="e">
+        <f>VLOOKUP($A232,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E232" t="e">
+        <f>VLOOKUP($A232,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G232" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>1148</v>
+      </c>
+      <c r="B233" t="e">
+        <f>VLOOKUP($A233,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C233" t="s">
+        <v>261</v>
+      </c>
+      <c r="D233" t="e">
+        <f>VLOOKUP($A233,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E233" t="e">
+        <f>VLOOKUP($A233,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G233" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>1149</v>
+      </c>
+      <c r="B234" t="e">
+        <f>VLOOKUP($A234,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C234" t="s">
+        <v>262</v>
+      </c>
+      <c r="D234" t="e">
+        <f>VLOOKUP($A234,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E234" t="e">
+        <f>VLOOKUP($A234,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G234" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>1150</v>
+      </c>
+      <c r="B235" t="e">
+        <f>VLOOKUP($A235,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C235" t="s">
+        <v>263</v>
+      </c>
+      <c r="D235" t="e">
+        <f>VLOOKUP($A235,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E235" t="e">
+        <f>VLOOKUP($A235,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G235" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>1151</v>
+      </c>
+      <c r="B236" t="e">
+        <f>VLOOKUP($A236,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C236" t="s">
+        <v>264</v>
+      </c>
+      <c r="D236" t="e">
+        <f>VLOOKUP($A236,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E236" t="e">
+        <f>VLOOKUP($A236,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G236" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>1152</v>
+      </c>
+      <c r="B237" t="e">
+        <f>VLOOKUP($A237,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C237" t="s">
+        <v>265</v>
+      </c>
+      <c r="D237" t="e">
+        <f>VLOOKUP($A237,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E237" t="e">
+        <f>VLOOKUP($A237,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G237" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>1153</v>
+      </c>
+      <c r="B238" t="e">
+        <f>VLOOKUP($A238,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C238" t="s">
+        <v>266</v>
+      </c>
+      <c r="D238" t="e">
+        <f>VLOOKUP($A238,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E238" t="e">
+        <f>VLOOKUP($A238,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G238" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>1154</v>
+      </c>
+      <c r="B239" t="e">
+        <f>VLOOKUP($A239,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C239" t="s">
+        <v>267</v>
+      </c>
+      <c r="D239" t="e">
+        <f>VLOOKUP($A239,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E239" t="e">
+        <f>VLOOKUP($A239,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G239" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>1155</v>
+      </c>
+      <c r="B240" t="e">
+        <f>VLOOKUP($A240,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C240" t="s">
+        <v>268</v>
+      </c>
+      <c r="D240" t="e">
+        <f>VLOOKUP($A240,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E240" t="e">
+        <f>VLOOKUP($A240,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G240" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>1156</v>
+      </c>
+      <c r="B241" t="e">
+        <f>VLOOKUP($A241,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C241" t="s">
+        <v>269</v>
+      </c>
+      <c r="D241" t="e">
+        <f>VLOOKUP($A241,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E241" t="e">
+        <f>VLOOKUP($A241,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G241" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>1157</v>
+      </c>
+      <c r="B242" t="e">
+        <f>VLOOKUP($A242,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C242" t="s">
+        <v>270</v>
+      </c>
+      <c r="D242" t="e">
+        <f>VLOOKUP($A242,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E242" t="e">
+        <f>VLOOKUP($A242,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G242" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>1158</v>
+      </c>
+      <c r="B243" t="e">
+        <f>VLOOKUP($A243,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C243" t="s">
+        <v>271</v>
+      </c>
+      <c r="D243" t="e">
+        <f>VLOOKUP($A243,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E243" t="e">
+        <f>VLOOKUP($A243,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G243" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>1159</v>
+      </c>
+      <c r="B244" t="e">
+        <f>VLOOKUP($A244,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C244" t="s">
+        <v>272</v>
+      </c>
+      <c r="D244" t="e">
+        <f>VLOOKUP($A244,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E244" t="e">
+        <f>VLOOKUP($A244,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G244" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>1160</v>
+      </c>
+      <c r="B245" t="e">
+        <f>VLOOKUP($A245,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C245" t="s">
+        <v>273</v>
+      </c>
+      <c r="D245" t="e">
+        <f>VLOOKUP($A245,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E245" t="e">
+        <f>VLOOKUP($A245,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G245" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>1161</v>
+      </c>
+      <c r="B246" t="e">
+        <f>VLOOKUP($A246,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C246" t="s">
+        <v>274</v>
+      </c>
+      <c r="D246" t="e">
+        <f>VLOOKUP($A246,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E246" t="e">
+        <f>VLOOKUP($A246,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G246" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>1162</v>
+      </c>
+      <c r="B247" t="e">
+        <f>VLOOKUP($A247,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C247" t="s">
+        <v>275</v>
+      </c>
+      <c r="D247" t="e">
+        <f>VLOOKUP($A247,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E247" t="e">
+        <f>VLOOKUP($A247,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G247" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>1163</v>
+      </c>
+      <c r="B248" t="e">
+        <f>VLOOKUP($A248,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C248" t="s">
+        <v>276</v>
+      </c>
+      <c r="D248" t="e">
+        <f>VLOOKUP($A248,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E248" t="e">
+        <f>VLOOKUP($A248,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G248" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>1164</v>
+      </c>
+      <c r="B249" t="e">
+        <f>VLOOKUP($A249,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C249" t="s">
+        <v>277</v>
+      </c>
+      <c r="D249" t="e">
+        <f>VLOOKUP($A249,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E249" t="e">
+        <f>VLOOKUP($A249,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G249" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <v>1165</v>
+      </c>
+      <c r="B250" t="e">
+        <f>VLOOKUP($A250,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C250" t="s">
+        <v>278</v>
+      </c>
+      <c r="D250" t="e">
+        <f>VLOOKUP($A250,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E250" t="e">
+        <f>VLOOKUP($A250,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G250" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <v>1166</v>
+      </c>
+      <c r="B251" t="e">
+        <f>VLOOKUP($A251,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C251" t="s">
+        <v>279</v>
+      </c>
+      <c r="D251" t="e">
+        <f>VLOOKUP($A251,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E251" t="e">
+        <f>VLOOKUP($A251,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G251" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <v>1167</v>
+      </c>
+      <c r="B252" t="e">
+        <f>VLOOKUP($A252,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C252" t="s">
+        <v>280</v>
+      </c>
+      <c r="D252" t="e">
+        <f>VLOOKUP($A252,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E252" t="e">
+        <f>VLOOKUP($A252,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G252" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <v>1168</v>
+      </c>
+      <c r="B253" t="e">
+        <f>VLOOKUP($A253,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C253" t="s">
+        <v>281</v>
+      </c>
+      <c r="D253" t="e">
+        <f>VLOOKUP($A253,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E253" t="e">
+        <f>VLOOKUP($A253,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G253" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <v>1169</v>
+      </c>
+      <c r="B254" t="e">
+        <f>VLOOKUP($A254,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C254" t="s">
+        <v>282</v>
+      </c>
+      <c r="D254" t="e">
+        <f>VLOOKUP($A254,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E254" t="e">
+        <f>VLOOKUP($A254,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G254" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <v>1170</v>
+      </c>
+      <c r="B255" t="e">
+        <f>VLOOKUP($A255,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C255" t="s">
+        <v>283</v>
+      </c>
+      <c r="D255" t="e">
+        <f>VLOOKUP($A255,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E255" t="e">
+        <f>VLOOKUP($A255,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G255" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <v>1171</v>
+      </c>
+      <c r="B256" t="e">
+        <f>VLOOKUP($A256,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C256" t="s">
+        <v>284</v>
+      </c>
+      <c r="D256" t="e">
+        <f>VLOOKUP($A256,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E256" t="e">
+        <f>VLOOKUP($A256,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G256" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <v>1172</v>
+      </c>
+      <c r="B257" t="e">
+        <f>VLOOKUP($A257,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C257" t="s">
+        <v>285</v>
+      </c>
+      <c r="D257" t="e">
+        <f>VLOOKUP($A257,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E257" t="e">
+        <f>VLOOKUP($A257,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G257" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <v>1173</v>
+      </c>
+      <c r="B258" t="e">
+        <f>VLOOKUP($A258,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C258" t="s">
+        <v>286</v>
+      </c>
+      <c r="D258" t="e">
+        <f>VLOOKUP($A258,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E258" t="e">
+        <f>VLOOKUP($A258,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G258" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <v>1174</v>
+      </c>
+      <c r="B259" t="e">
+        <f>VLOOKUP($A259,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C259" t="s">
+        <v>287</v>
+      </c>
+      <c r="D259" t="e">
+        <f>VLOOKUP($A259,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E259" t="e">
+        <f>VLOOKUP($A259,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G259" t="e">
+        <f t="shared" ref="G259:G295" si="4">"["&amp;B259&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B259,"卷","")&amp;".html)|"&amp;C259&amp;"|"&amp;D259&amp;"|"&amp;E259&amp;"|"&amp;F259</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <v>1175</v>
+      </c>
+      <c r="B260" t="e">
+        <f>VLOOKUP($A260,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C260" t="s">
+        <v>288</v>
+      </c>
+      <c r="D260" t="e">
+        <f>VLOOKUP($A260,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E260" t="e">
+        <f>VLOOKUP($A260,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G260" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <v>1176</v>
+      </c>
+      <c r="B261" t="e">
+        <f>VLOOKUP($A261,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C261" t="s">
+        <v>289</v>
+      </c>
+      <c r="D261" t="e">
+        <f>VLOOKUP($A261,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E261" t="e">
+        <f>VLOOKUP($A261,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G261" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <v>1177</v>
+      </c>
+      <c r="B262" t="e">
+        <f>VLOOKUP($A262,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C262" t="s">
+        <v>290</v>
+      </c>
+      <c r="D262" t="e">
+        <f>VLOOKUP($A262,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E262" t="e">
+        <f>VLOOKUP($A262,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G262" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <v>1178</v>
+      </c>
+      <c r="B263" t="e">
+        <f>VLOOKUP($A263,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C263" t="s">
+        <v>291</v>
+      </c>
+      <c r="D263" t="e">
+        <f>VLOOKUP($A263,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E263" t="e">
+        <f>VLOOKUP($A263,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G263" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <v>1179</v>
+      </c>
+      <c r="B264" t="e">
+        <f>VLOOKUP($A264,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C264" t="s">
+        <v>292</v>
+      </c>
+      <c r="D264" t="e">
+        <f>VLOOKUP($A264,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E264" t="e">
+        <f>VLOOKUP($A264,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G264" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <v>1180</v>
+      </c>
+      <c r="B265" t="e">
+        <f>VLOOKUP($A265,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C265" t="s">
+        <v>293</v>
+      </c>
+      <c r="D265" t="e">
+        <f>VLOOKUP($A265,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E265" t="e">
+        <f>VLOOKUP($A265,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G265" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <v>1181</v>
+      </c>
+      <c r="B266" t="e">
+        <f>VLOOKUP($A266,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C266" t="s">
+        <v>294</v>
+      </c>
+      <c r="D266" t="e">
+        <f>VLOOKUP($A266,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E266" t="e">
+        <f>VLOOKUP($A266,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G266" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <v>1201</v>
+      </c>
+      <c r="B267" t="e">
+        <f>VLOOKUP($A267,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C267" t="s">
+        <v>295</v>
+      </c>
+      <c r="D267" t="e">
+        <f>VLOOKUP($A267,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E267" t="e">
+        <f>VLOOKUP($A267,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G267" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <v>1202</v>
+      </c>
+      <c r="B268" t="e">
+        <f>VLOOKUP($A268,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C268" t="s">
+        <v>296</v>
+      </c>
+      <c r="D268" t="e">
+        <f>VLOOKUP($A268,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E268" t="e">
+        <f>VLOOKUP($A268,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G268" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <v>1203</v>
+      </c>
+      <c r="B269" t="e">
+        <f>VLOOKUP($A269,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C269" t="s">
+        <v>297</v>
+      </c>
+      <c r="D269" t="e">
+        <f>VLOOKUP($A269,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E269" t="e">
+        <f>VLOOKUP($A269,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G269" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <v>1204</v>
+      </c>
+      <c r="B270" t="e">
+        <f>VLOOKUP($A270,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C270" t="s">
+        <v>298</v>
+      </c>
+      <c r="D270" t="e">
+        <f>VLOOKUP($A270,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E270" t="e">
+        <f>VLOOKUP($A270,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G270" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <v>1205</v>
+      </c>
+      <c r="B271" t="e">
+        <f>VLOOKUP($A271,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C271" t="s">
+        <v>299</v>
+      </c>
+      <c r="D271" t="e">
+        <f>VLOOKUP($A271,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E271" t="e">
+        <f>VLOOKUP($A271,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G271" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <v>1206</v>
+      </c>
+      <c r="B272" t="e">
+        <f>VLOOKUP($A272,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C272" t="s">
+        <v>300</v>
+      </c>
+      <c r="D272" t="e">
+        <f>VLOOKUP($A272,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E272" t="e">
+        <f>VLOOKUP($A272,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G272" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <v>1301</v>
+      </c>
+      <c r="B273" t="e">
+        <f>VLOOKUP($A273,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C273" t="s">
+        <v>301</v>
+      </c>
+      <c r="D273" t="e">
+        <f>VLOOKUP($A273,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E273" t="e">
+        <f>VLOOKUP($A273,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G273" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <v>1302</v>
+      </c>
+      <c r="B274" t="e">
+        <f>VLOOKUP($A274,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C274" t="s">
+        <v>302</v>
+      </c>
+      <c r="D274" t="e">
+        <f>VLOOKUP($A274,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E274" t="e">
+        <f>VLOOKUP($A274,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G274" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <v>1303</v>
+      </c>
+      <c r="B275" t="e">
+        <f>VLOOKUP($A275,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C275" t="s">
+        <v>303</v>
+      </c>
+      <c r="D275" t="e">
+        <f>VLOOKUP($A275,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E275" t="e">
+        <f>VLOOKUP($A275,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G275" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <v>1304</v>
+      </c>
+      <c r="B276" t="e">
+        <f>VLOOKUP($A276,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C276" t="s">
+        <v>304</v>
+      </c>
+      <c r="D276" t="e">
+        <f>VLOOKUP($A276,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E276" t="e">
+        <f>VLOOKUP($A276,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G276" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <v>1305</v>
+      </c>
+      <c r="B277" t="e">
+        <f>VLOOKUP($A277,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C277" t="s">
+        <v>305</v>
+      </c>
+      <c r="D277" t="e">
+        <f>VLOOKUP($A277,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E277" t="e">
+        <f>VLOOKUP($A277,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G277" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <v>1306</v>
+      </c>
+      <c r="B278" t="e">
+        <f>VLOOKUP($A278,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C278" t="s">
+        <v>306</v>
+      </c>
+      <c r="D278" t="e">
+        <f>VLOOKUP($A278,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E278" t="e">
+        <f>VLOOKUP($A278,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G278" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <v>1307</v>
+      </c>
+      <c r="B279" t="e">
+        <f>VLOOKUP($A279,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C279" t="s">
+        <v>307</v>
+      </c>
+      <c r="D279" t="e">
+        <f>VLOOKUP($A279,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E279" t="e">
+        <f>VLOOKUP($A279,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G279" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <v>1308</v>
+      </c>
+      <c r="B280" t="e">
+        <f>VLOOKUP($A280,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C280" t="s">
+        <v>308</v>
+      </c>
+      <c r="D280" t="e">
+        <f>VLOOKUP($A280,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E280" t="e">
+        <f>VLOOKUP($A280,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G280" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <v>1401</v>
+      </c>
+      <c r="B281" t="e">
+        <f>VLOOKUP($A281,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C281" t="s">
+        <v>309</v>
+      </c>
+      <c r="D281" t="e">
+        <f>VLOOKUP($A281,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E281" t="e">
+        <f>VLOOKUP($A281,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G281" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <v>1402</v>
+      </c>
+      <c r="B282" t="e">
+        <f>VLOOKUP($A282,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C282" t="s">
+        <v>310</v>
+      </c>
+      <c r="D282" t="e">
+        <f>VLOOKUP($A282,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E282" t="e">
+        <f>VLOOKUP($A282,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G282" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <v>1403</v>
+      </c>
+      <c r="B283" t="e">
+        <f>VLOOKUP($A283,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C283" t="s">
+        <v>311</v>
+      </c>
+      <c r="D283" t="e">
+        <f>VLOOKUP($A283,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E283" t="e">
+        <f>VLOOKUP($A283,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G283" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <v>1404</v>
+      </c>
+      <c r="B284" t="e">
+        <f>VLOOKUP($A284,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C284" t="s">
+        <v>312</v>
+      </c>
+      <c r="D284" t="e">
+        <f>VLOOKUP($A284,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E284" t="e">
+        <f>VLOOKUP($A284,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G284" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <v>1405</v>
+      </c>
+      <c r="B285" t="e">
+        <f>VLOOKUP($A285,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C285" t="s">
+        <v>313</v>
+      </c>
+      <c r="D285" t="e">
+        <f>VLOOKUP($A285,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E285" t="e">
+        <f>VLOOKUP($A285,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G285" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <v>1406</v>
+      </c>
+      <c r="B286" t="e">
+        <f>VLOOKUP($A286,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C286" t="s">
+        <v>314</v>
+      </c>
+      <c r="D286" t="e">
+        <f>VLOOKUP($A286,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E286" t="e">
+        <f>VLOOKUP($A286,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G286" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <v>1501</v>
+      </c>
+      <c r="B287" t="e">
+        <f>VLOOKUP($A287,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C287" t="s">
+        <v>315</v>
+      </c>
+      <c r="D287" t="e">
+        <f>VLOOKUP($A287,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E287" t="e">
+        <f>VLOOKUP($A287,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G287" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <v>1502</v>
+      </c>
+      <c r="B288" t="e">
+        <f>VLOOKUP($A288,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C288" t="s">
+        <v>316</v>
+      </c>
+      <c r="D288" t="e">
+        <f>VLOOKUP($A288,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E288" t="e">
+        <f>VLOOKUP($A288,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G288" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <v>1503</v>
+      </c>
+      <c r="B289" t="e">
+        <f>VLOOKUP($A289,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C289" t="s">
+        <v>317</v>
+      </c>
+      <c r="D289" t="e">
+        <f>VLOOKUP($A289,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E289" t="e">
+        <f>VLOOKUP($A289,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G289" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A290">
+        <v>1504</v>
+      </c>
+      <c r="B290" t="e">
+        <f>VLOOKUP($A290,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C290" t="s">
+        <v>318</v>
+      </c>
+      <c r="D290" t="e">
+        <f>VLOOKUP($A290,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E290" t="e">
+        <f>VLOOKUP($A290,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G290" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <v>1601</v>
+      </c>
+      <c r="B291" t="e">
+        <f>VLOOKUP($A291,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C291" t="s">
+        <v>319</v>
+      </c>
+      <c r="D291" t="e">
+        <f>VLOOKUP($A291,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E291" t="e">
+        <f>VLOOKUP($A291,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G291" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <v>1602</v>
+      </c>
+      <c r="B292" t="e">
+        <f>VLOOKUP($A292,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C292" t="s">
+        <v>320</v>
+      </c>
+      <c r="D292" t="e">
+        <f>VLOOKUP($A292,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E292" t="e">
+        <f>VLOOKUP($A292,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G292" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A293">
+        <v>1603</v>
+      </c>
+      <c r="B293" t="e">
+        <f>VLOOKUP($A293,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C293" t="s">
+        <v>321</v>
+      </c>
+      <c r="D293" t="e">
+        <f>VLOOKUP($A293,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E293" t="e">
+        <f>VLOOKUP($A293,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G293" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A294">
+        <v>1604</v>
+      </c>
+      <c r="B294" t="e">
+        <f>VLOOKUP($A294,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C294" t="s">
+        <v>322</v>
+      </c>
+      <c r="D294" t="e">
+        <f>VLOOKUP($A294,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E294" t="e">
+        <f>VLOOKUP($A294,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G294" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A295">
+        <v>1605</v>
+      </c>
+      <c r="B295" t="e">
+        <f>VLOOKUP($A295,統計!$A:$G,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C295" t="s">
+        <v>323</v>
+      </c>
+      <c r="D295" t="e">
+        <f>VLOOKUP($A295,統計!$A:$G,6,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E295" t="e">
+        <f>VLOOKUP($A295,統計!$A:$G,7,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G295" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.15">
@@ -2878,30 +10957,30 @@
         <v>1173</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <f>C2/B2</f>
         <v>2.4179104477611939</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <f>D2/C2</f>
         <v>1.8101851851851851</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O2">
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <f>O2/D2</f>
@@ -2913,7 +10992,7 @@
         <v>1239</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
@@ -2921,7 +11000,7 @@
         <v>2175</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
@@ -2929,22 +11008,22 @@
         <v>2491</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
@@ -2952,7 +11031,7 @@
         <v>3732</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <f>C6-C2</f>
@@ -2980,10 +11059,10 @@
         <v>9612</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
@@ -2992,18 +11071,18 @@
         <v>6.741573033707865E-2</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N9" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3019,7 +11098,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N10" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -3035,7 +11114,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N11" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="O11">
         <v>294</v>
@@ -3045,13 +11124,13 @@
         <v>58601</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q10:Q11" si="2">O11*$O$13-1</f>
+        <f t="shared" ref="Q11" si="2">O11*$O$13-1</f>
         <v>58799</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N13" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="O13">
         <v>200</v>
@@ -3059,7 +11138,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N14" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="O14">
         <v>118</v>
@@ -3068,5 +11147,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="371">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1195,6 +1195,10 @@
   </si>
   <si>
     <t>md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢武帝17年至23年至31年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,6 +1569,9 @@
                 <c:pt idx="18">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1578,11 +1585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206438240"/>
-        <c:axId val="206438632"/>
+        <c:axId val="207289904"/>
+        <c:axId val="207290296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206438240"/>
+        <c:axId val="207289904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,12 +1701,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206438632"/>
+        <c:crossAx val="207290296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206438632"/>
+        <c:axId val="207290296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1819,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206438240"/>
+        <c:crossAx val="207289904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2741,9 +2748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2761,7 +2766,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -2860,19 +2865,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>977.0526315789474</v>
+        <v>952</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44996.052631578947</v>
+        <v>44971</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>618.38165106829933</v>
+        <v>597.19999564469583</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44637.381651068303</v>
+        <v>44616.199995644696</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2922,19 +2927,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1120.7368421052631</v>
+        <v>1092</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45139.73684210526</v>
+        <v>45111</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>677.93686625946782</v>
+        <v>654.71524402139198</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44696.936866259464</v>
+        <v>44673.71524402139</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -2984,19 +2989,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1695.4736842105262</v>
+        <v>1652</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45714.473684210527</v>
+        <v>45671</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>816.89903503886103</v>
+        <v>788.91749023368322</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44835.899035038863</v>
+        <v>44807.917490233682</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3046,19 +3051,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2528.8421052631579</v>
+        <v>2464</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46547.84210526316</v>
+        <v>46483</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>984.64622449398553</v>
+        <v>950.91877316137754</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>45003.646224493983</v>
+        <v>44969.918773161378</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3108,19 +3113,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3807.6315789473683</v>
+        <v>3710</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47826.631578947367</v>
+        <v>47729</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1300.2888650071784</v>
+        <v>1255.7495895578675</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45319.288865007176</v>
+        <v>45274.749589557869</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3170,19 +3175,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4224.3157894736842</v>
+        <v>4116</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>48243.315789473687</v>
+        <v>48135</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1351.9033848395245</v>
+        <v>1305.5961381510042</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45370.903384839527</v>
+        <v>45324.596138151006</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3232,19 +3237,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4224.3157894736842</v>
+        <v>4116</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>48243.315789473687</v>
+        <v>48135</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1351.9033848395245</v>
+        <v>1305.5961381510042</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45370.903384839527</v>
+        <v>45324.596138151006</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3317,7 +3322,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>14.368421052631579</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3335,7 +3340,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E20" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E21" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3357,7 +3362,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.992586919852808</v>
+        <v>0.95858747294493707</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3668,8 +3673,26 @@
       <c r="C21" s="1">
         <v>44287</v>
       </c>
+      <c r="D21" s="1">
+        <v>44293</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
       <c r="F21">
         <v>-118</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-110</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21" si="14">G21-F21+1</f>
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="15">E21/H21</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -3779,7 +3802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4337,11 +4360,14 @@
       </c>
       <c r="E21">
         <f>VLOOKUP($A21,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>370</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>[卷20](筆記/资治通鉴20.html)|漢紀十二|-118|0|</v>
+        <v>[卷20](筆記/资治通鉴20.html)|漢紀十二|-118|-110|漢武帝17年至23年至31年</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -10931,7 +10957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="372">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1200,6 +1200,9 @@
   <si>
     <t>漢武帝17年至23年至31年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢武帝32年至42年</t>
   </si>
 </sst>
 </file>
@@ -1572,6 +1575,9 @@
                 <c:pt idx="19">
                   <c:v>0.77777777777777779</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1585,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207289904"/>
-        <c:axId val="207290296"/>
+        <c:axId val="231909704"/>
+        <c:axId val="231920824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207289904"/>
+        <c:axId val="231909704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,12 +1707,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207290296"/>
+        <c:crossAx val="231920824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207290296"/>
+        <c:axId val="231920824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,7 +1825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207289904"/>
+        <c:crossAx val="231909704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2748,7 +2754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2865,19 +2873,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>952</v>
+        <v>929.33333333333326</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44971</v>
+        <v>44948.333333333336</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>597.19999564469583</v>
+        <v>580.04940068284759</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44616.199995644696</v>
+        <v>44599.049400682845</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2927,19 +2935,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1092</v>
+        <v>1066</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45111</v>
+        <v>45085</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>654.71524402139198</v>
+        <v>635.91290636658891</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44673.71524402139</v>
+        <v>44654.91290636659</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -2989,19 +2997,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1652</v>
+        <v>1612.6666666666665</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45671</v>
+        <v>45631.666666666664</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>788.91749023368322</v>
+        <v>766.26108629531871</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44807.917490233682</v>
+        <v>44785.261086295315</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3051,19 +3059,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2464</v>
+        <v>2405.333333333333</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46483</v>
+        <v>46424.333333333336</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>950.91877316137754</v>
+        <v>923.60996063785672</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44969.918773161378</v>
+        <v>44942.609960637856</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3113,19 +3121,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3710</v>
+        <v>3621.6666666666665</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47729</v>
+        <v>47640.666666666664</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1255.7495895578675</v>
+        <v>1219.6865407616858</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45274.749589557869</v>
+        <v>45238.686540761686</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3175,19 +3183,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4116</v>
+        <v>4018</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>48135</v>
+        <v>48037</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1305.5961381510042</v>
+        <v>1268.1015790209283</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45324.596138151006</v>
+        <v>45287.101579020928</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3237,19 +3245,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4116</v>
+        <v>4018</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>48135</v>
+        <v>48037</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1305.5961381510042</v>
+        <v>1268.1015790209283</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45324.596138151006</v>
+        <v>45287.101579020928</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3322,7 +3330,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>14</v>
+        <v>13.666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3340,7 +3348,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E21" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E22" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3362,7 +3370,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.95858747294493707</v>
+        <v>0.93105842806235561</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3702,6 +3710,30 @@
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>卷21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>-109</v>
+      </c>
+      <c r="G22">
+        <v>-99</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="16">G22-F22+1</f>
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="17">E22/H22</f>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -3802,7 +3834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4383,15 +4415,18 @@
       </c>
       <c r="D22">
         <f>VLOOKUP($A22,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-109</v>
       </c>
       <c r="E22">
         <f>VLOOKUP($A22,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>371</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>[卷21](筆記/资治通鉴21.html)|漢紀十三|0|0|</v>
+        <v>[卷21](筆記/资治通鉴21.html)|漢紀十三|-109|-99|漢武帝32年至42年</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="373">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1203,6 +1203,9 @@
   </si>
   <si>
     <t>漢武帝32年至42年</t>
+  </si>
+  <si>
+    <t>漢武帝43年至54年</t>
   </si>
 </sst>
 </file>
@@ -1578,6 +1581,9 @@
                 <c:pt idx="20">
                   <c:v>0.63636363636363635</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1591,11 +1597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231909704"/>
-        <c:axId val="231920824"/>
+        <c:axId val="230804992"/>
+        <c:axId val="230099960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231909704"/>
+        <c:axId val="230804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,12 +1713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231920824"/>
+        <c:crossAx val="230099960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231920824"/>
+        <c:axId val="230099960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231909704"/>
+        <c:crossAx val="230804992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2754,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2873,19 +2879,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>929.33333333333326</v>
+        <v>911.81818181818176</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44948.333333333336</v>
+        <v>44930.818181818184</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>580.04940068284759</v>
+        <v>564.12834511253948</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44599.049400682845</v>
+        <v>44583.128345112542</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2935,19 +2941,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1066</v>
+        <v>1045.9090909090908</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45085</v>
+        <v>45064.909090909088</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>635.91290636658891</v>
+        <v>618.45852281198142</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44654.91290636659</v>
+        <v>44637.458522811983</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -2997,19 +3003,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1612.6666666666665</v>
+        <v>1582.2727272727273</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45631.666666666664</v>
+        <v>45601.272727272728</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>766.26108629531871</v>
+        <v>745.22893744401279</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44785.261086295315</v>
+        <v>44764.228937444015</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3059,19 +3065,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2405.333333333333</v>
+        <v>2360</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46424.333333333336</v>
+        <v>46379</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>923.60996063785672</v>
+        <v>898.25893796410776</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44942.609960637856</v>
+        <v>44917.258937964107</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3121,19 +3127,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3621.6666666666665</v>
+        <v>3553.4090909090905</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47640.666666666664</v>
+        <v>47572.409090909088</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1219.6865407616858</v>
+        <v>1186.2088797711504</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45238.686540761686</v>
+        <v>45205.208879771148</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3183,19 +3189,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>4018</v>
+        <v>3942.272727272727</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>48037</v>
+        <v>47961.272727272728</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1268.1015790209283</v>
+        <v>1233.2950337773334</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45287.101579020928</v>
+        <v>45252.295033777336</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3245,19 +3251,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4018</v>
+        <v>3942.272727272727</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>48037</v>
+        <v>47961.272727272728</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1268.1015790209283</v>
+        <v>1233.2950337773334</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45287.101579020928</v>
+        <v>45252.295033777336</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3330,7 +3336,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>13.666666666666666</v>
+        <v>13.409090909090908</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3348,7 +3354,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E22" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E23" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3370,7 +3376,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.93105842806235561</v>
+        <v>0.90550296165736666</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3728,11 +3734,11 @@
         <v>-99</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="16">G22-F22+1</f>
+        <f t="shared" ref="H22:H23" si="16">G22-F22+1</f>
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="17">E22/H22</f>
+        <f t="shared" ref="I22:I23" si="17">E22/H22</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
@@ -3743,6 +3749,30 @@
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>卷22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44300</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-98</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-87</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="17"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -3832,9 +3862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4442,15 +4472,18 @@
       </c>
       <c r="D23">
         <f>VLOOKUP($A23,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="E23">
         <f>VLOOKUP($A23,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>372</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>[卷22](筆記/资治通鉴22.html)|漢紀十四|0|0|</v>
+        <v>[卷22](筆記/资治通鉴22.html)|漢紀十四|-98|-87|漢武帝43年至54年</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="374">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1206,6 +1206,9 @@
   </si>
   <si>
     <t>漢武帝43年至54年</t>
+  </si>
+  <si>
+    <t>漢昭帝至12年</t>
   </si>
 </sst>
 </file>
@@ -1584,6 +1587,9 @@
                 <c:pt idx="21">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1597,11 +1603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230804992"/>
-        <c:axId val="230099960"/>
+        <c:axId val="183094080"/>
+        <c:axId val="182694432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230804992"/>
+        <c:axId val="183094080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,12 +1719,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230099960"/>
+        <c:crossAx val="182694432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230099960"/>
+        <c:axId val="182694432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1837,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230804992"/>
+        <c:crossAx val="183094080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2760,9 +2766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2879,19 +2883,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>911.81818181818176</v>
+        <v>901.73913043478251</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44930.818181818184</v>
+        <v>44920.739130434784</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>564.12834511253948</v>
+        <v>546.76014940353332</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44583.128345112542</v>
+        <v>44565.760149403533</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2941,19 +2945,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1045.9090909090908</v>
+        <v>1034.3478260869565</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45064.909090909088</v>
+        <v>45053.34782608696</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>618.45852281198142</v>
+        <v>599.41762767674686</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44637.458522811983</v>
+        <v>44618.417627676747</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3003,19 +3007,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1582.2727272727273</v>
+        <v>1564.782608695652</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45601.272727272728</v>
+        <v>45583.782608695648</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>745.22893744401279</v>
+        <v>722.28507698091164</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44764.228937444015</v>
+        <v>44741.285076980908</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3065,19 +3069,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2360</v>
+        <v>2333.913043478261</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46379</v>
+        <v>46352.913043478264</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>898.25893796410776</v>
+        <v>870.60364078379621</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44917.258937964107</v>
+        <v>44889.603640783796</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3127,19 +3131,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3553.4090909090905</v>
+        <v>3514.1304347826085</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47572.409090909088</v>
+        <v>47533.130434782608</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1186.2088797711504</v>
+        <v>1149.6882756318278</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45205.208879771148</v>
+        <v>45168.68827563183</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3189,19 +3193,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3942.272727272727</v>
+        <v>3898.695652173913</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47961.272727272728</v>
+        <v>47917.695652173912</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1233.2950337773334</v>
+        <v>1195.324756801946</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45252.295033777336</v>
+        <v>45214.324756801943</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3251,19 +3255,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3942.272727272727</v>
+        <v>3898.695652173913</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47961.272727272728</v>
+        <v>47917.695652173912</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1233.2950337773334</v>
+        <v>1195.324756801946</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45252.295033777336</v>
+        <v>45214.324756801943</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3336,7 +3340,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>13.409090909090908</v>
+        <v>13.260869565217391</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3354,7 +3358,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E23" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E24" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3376,7 +3380,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.90550296165736666</v>
+        <v>0.87762463788689138</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3782,6 +3786,30 @@
       <c r="B24" t="str">
         <f t="shared" si="1"/>
         <v>卷23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44307</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44316</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>-86</v>
+      </c>
+      <c r="G24">
+        <v>-75</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24" si="18">G24-F24+1</f>
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24" si="19">E24/H24</f>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -3862,9 +3890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4499,15 +4527,18 @@
       </c>
       <c r="D24">
         <f>VLOOKUP($A24,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="E24">
         <f>VLOOKUP($A24,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>373</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>[卷23](筆記/资治通鉴23.html)|漢紀十五|0|0|</v>
+        <v>[卷23](筆記/资治通鉴23.html)|漢紀十五|-86|-75|漢昭帝至12年</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -11025,7 +11056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="375">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,6 +1209,9 @@
   </si>
   <si>
     <t>漢昭帝至12年</t>
+  </si>
+  <si>
+    <t>漢昭帝13年、漢廢帝、漢宣帝至6年</t>
   </si>
 </sst>
 </file>
@@ -1590,6 +1593,9 @@
                 <c:pt idx="22">
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1603,11 +1609,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183094080"/>
-        <c:axId val="182694432"/>
+        <c:axId val="211351552"/>
+        <c:axId val="211335008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183094080"/>
+        <c:axId val="211351552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,12 +1725,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182694432"/>
+        <c:crossAx val="211335008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182694432"/>
+        <c:axId val="211335008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183094080"/>
+        <c:crossAx val="211351552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2766,7 +2772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2883,19 +2891,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>901.73913043478251</v>
+        <v>889.66666666666674</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44920.739130434784</v>
+        <v>44908.666666666664</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>546.76014940353332</v>
+        <v>525.49644896886946</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44565.760149403533</v>
+        <v>44544.496448968872</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2945,19 +2953,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1034.3478260869565</v>
+        <v>1020.5</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45053.34782608696</v>
+        <v>45039.5</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>599.41762767674686</v>
+        <v>576.10605882140896</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44618.417627676747</v>
+        <v>44595.10605882141</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3007,19 +3015,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1564.782608695652</v>
+        <v>1543.8333333333335</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45583.782608695648</v>
+        <v>45562.833333333336</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>722.28507698091164</v>
+        <v>694.19514847733467</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44741.285076980908</v>
+        <v>44713.195148477338</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3069,19 +3077,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2333.913043478261</v>
+        <v>2302.666666666667</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46352.913043478264</v>
+        <v>46321.666666666664</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>870.60364078379621</v>
+        <v>836.7455495619879</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44889.603640783796</v>
+        <v>44855.745549561987</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3131,19 +3139,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3514.1304347826085</v>
+        <v>3467.0833333333335</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47533.130434782608</v>
+        <v>47486.083333333336</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1149.6882756318278</v>
+        <v>1104.9764817804478</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45168.68827563183</v>
+        <v>45123.976481780446</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3193,19 +3201,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3898.695652173913</v>
+        <v>3846.5</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47917.695652173912</v>
+        <v>47865.5</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1195.324756801946</v>
+        <v>1148.8381436526488</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45214.324756801943</v>
+        <v>45167.838143652647</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3255,19 +3263,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3898.695652173913</v>
+        <v>3846.5</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47917.695652173912</v>
+        <v>47865.5</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1195.324756801946</v>
+        <v>1148.8381436526488</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45214.324756801943</v>
+        <v>45167.838143652647</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3340,7 +3348,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>13.260869565217391</v>
+        <v>13.083333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3358,7 +3366,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E24" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E25" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3380,7 +3388,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.87762463788689138</v>
+        <v>0.8434934975423265</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3819,6 +3827,30 @@
       <c r="B25" t="str">
         <f t="shared" si="1"/>
         <v>卷24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44317</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44325</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-74</v>
+      </c>
+      <c r="G25">
+        <v>-68</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="20">G25-F25+1</f>
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="21">E25/H25</f>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -3890,9 +3922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4554,15 +4586,18 @@
       </c>
       <c r="D25">
         <f>VLOOKUP($A25,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="E25">
         <f>VLOOKUP($A25,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>374</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>[卷24](筆記/资治通鉴24.html)|漢紀十六|0|0|</v>
+        <v>[卷24](筆記/资治通鉴24.html)|漢紀十六|-74|-68|漢昭帝13年、漢廢帝、漢宣帝至6年</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="376">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,6 +1212,9 @@
   </si>
   <si>
     <t>漢昭帝13年、漢廢帝、漢宣帝至6年</t>
+  </si>
+  <si>
+    <t>漢宣帝7年至12年</t>
   </si>
 </sst>
 </file>
@@ -1596,6 +1599,9 @@
                 <c:pt idx="23">
                   <c:v>1.2857142857142858</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1609,11 +1615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211351552"/>
-        <c:axId val="211335008"/>
+        <c:axId val="216527280"/>
+        <c:axId val="216526888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211351552"/>
+        <c:axId val="216527280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,12 +1731,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211335008"/>
+        <c:crossAx val="216526888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211335008"/>
+        <c:axId val="216526888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211351552"/>
+        <c:crossAx val="216527280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2773,7 +2779,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2891,19 +2897,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>889.66666666666674</v>
+        <v>870.40000000000009</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44908.666666666664</v>
+        <v>44889.4</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>525.49644896886946</v>
+        <v>509.37388815402386</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44544.496448968872</v>
+        <v>44528.373888154027</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2953,19 +2959,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1020.5</v>
+        <v>998.40000000000009</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45039.5</v>
+        <v>45017.4</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>576.10605882140896</v>
+        <v>558.43076341765379</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44595.10605882141</v>
+        <v>44577.430763417651</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3015,19 +3021,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1543.8333333333335</v>
+        <v>1510.4</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45562.833333333336</v>
+        <v>45529.4</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>694.19514847733467</v>
+        <v>672.89680569945688</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44713.195148477338</v>
+        <v>44691.896805699456</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3077,19 +3083,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2302.666666666667</v>
+        <v>2252.8000000000002</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46321.666666666664</v>
+        <v>46271.8</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>836.7455495619879</v>
+        <v>811.07367102534783</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44855.745549561987</v>
+        <v>44830.073671025348</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3139,19 +3145,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3467.0833333333335</v>
+        <v>3392</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47486.083333333336</v>
+        <v>47411</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1104.9764817804478</v>
+        <v>1071.0751099225863</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45123.976481780446</v>
+        <v>45090.075109922589</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3201,19 +3207,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3846.5</v>
+        <v>3763.2000000000003</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47865.5</v>
+        <v>47782.2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1148.8381436526488</v>
+        <v>1113.5910684843989</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45167.838143652647</v>
+        <v>45132.591068484398</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3263,19 +3269,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3846.5</v>
+        <v>3763.2000000000003</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47865.5</v>
+        <v>47782.2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1148.8381436526488</v>
+        <v>1113.5910684843989</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45167.838143652647</v>
+        <v>45132.591068484398</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3348,7 +3354,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>13.083333333333334</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3366,7 +3372,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E25" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E26" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3388,7 +3394,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.8434934975423265</v>
+        <v>0.81761458772716511</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3860,6 +3866,30 @@
       <c r="B26" t="str">
         <f t="shared" si="1"/>
         <v>卷25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44325</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>-67</v>
+      </c>
+      <c r="G26">
+        <v>-62</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="22">G26-F26+1</f>
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="23">E26/H26</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -3923,8 +3953,8 @@
   <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4613,15 +4643,18 @@
       </c>
       <c r="D26">
         <f>VLOOKUP($A26,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="E26">
         <f>VLOOKUP($A26,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>375</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>[卷25](筆記/资治通鉴25.html)|漢紀十七|0|0|</v>
+        <v>[卷25](筆記/资治通鉴25.html)|漢紀十七|-67|-62|漢宣帝7年至12年</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="377">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,6 +1215,10 @@
   </si>
   <si>
     <t>漢宣帝7年至12年</t>
+  </si>
+  <si>
+    <t>漢宣帝13年至15年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1294,7 +1298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1306,6 +1310,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1442,7 +1447,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1517,6 +1522,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>卷25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>卷26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1602,6 +1610,9 @@
                 <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1615,11 +1626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216527280"/>
-        <c:axId val="216526888"/>
+        <c:axId val="210447704"/>
+        <c:axId val="210449112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216527280"/>
+        <c:axId val="210447704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,12 +1742,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216526888"/>
+        <c:crossAx val="210449112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216526888"/>
+        <c:axId val="210449112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1860,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216527280"/>
+        <c:crossAx val="210447704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2778,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2897,19 +2908,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>870.40000000000009</v>
+        <v>844.76923076923083</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44889.4</v>
+        <v>44863.769230769234</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>509.37388815402386</v>
+        <v>494.12929820482395</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44528.373888154027</v>
+        <v>44513.129298204825</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2917,7 +2928,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B26" si="1">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B27" si="1">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -2959,19 +2970,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>998.40000000000009</v>
+        <v>969</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>45017.4</v>
+        <v>44988</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>558.43076341765379</v>
+        <v>541.71799466114726</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44577.430763417651</v>
+        <v>44560.71799466115</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3021,19 +3032,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1510.4</v>
+        <v>1465.9230769230769</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45529.4</v>
+        <v>45484.923076923078</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>672.89680569945688</v>
+        <v>652.75828639256838</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44691.896805699456</v>
+        <v>44671.758286392571</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3083,19 +3094,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2252.8000000000002</v>
+        <v>2186.4615384615386</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46271.8</v>
+        <v>46205.461538461539</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>811.07367102534783</v>
+        <v>786.79978141121251</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44830.073671025348</v>
+        <v>44805.79978141121</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3145,19 +3156,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3392</v>
+        <v>3292.1153846153848</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47411</v>
+        <v>47311.115384615383</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1071.0751099225863</v>
+        <v>1039.019872629726</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45090.075109922589</v>
+        <v>45058.019872629724</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3207,19 +3218,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3763.2000000000003</v>
+        <v>3652.3846153846152</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47782.2</v>
+        <v>47671.384615384617</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1113.5910684843989</v>
+        <v>1080.2634095585397</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45132.591068484398</v>
+        <v>45099.263409558538</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3269,19 +3280,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3763.2000000000003</v>
+        <v>3652.3846153846152</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47782.2</v>
+        <v>47671.384615384617</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1113.5910684843989</v>
+        <v>1080.2634095585397</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45132.591068484398</v>
+        <v>45099.263409558538</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3354,7 +3365,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>12.8</v>
+        <v>12.423076923076923</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3372,7 +3383,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E26" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E27" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3394,7 +3405,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.81761458772716511</v>
+        <v>0.79314494093872223</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3855,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="21">E25/H25</f>
+        <f t="shared" ref="I25:I27" si="21">E25/H25</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -3884,11 +3895,44 @@
         <v>-62</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="22">G26-F26+1</f>
+        <f t="shared" ref="H26:H27" si="22">G26-F26+1</f>
         <v>6</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26" si="23">E26/H26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>318</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>卷26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44331</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>-61</v>
+      </c>
+      <c r="G27">
+        <v>-59</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -3952,9 +3996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4661,24 +4705,27 @@
       <c r="A27">
         <v>318</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27" t="str">
         <f>VLOOKUP($A27,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷26</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="e">
+      <c r="D27">
         <f>VLOOKUP($A27,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="e">
+        <v>-61</v>
+      </c>
+      <c r="E27">
         <f>VLOOKUP($A27,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" t="e">
+        <v>-59</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷26](筆記/资治通鉴26.html)|漢紀十八|-61|-59|漢宣帝13年至15年</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="378">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1219,6 +1219,9 @@
   <si>
     <t>漢宣帝13年至15年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢宣帝16年至25年</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1450,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1525,6 +1528,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>卷26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>卷27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1613,6 +1619,9 @@
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1626,11 +1635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210447704"/>
-        <c:axId val="210449112"/>
+        <c:axId val="207039032"/>
+        <c:axId val="207135768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210447704"/>
+        <c:axId val="207039032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,12 +1751,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210449112"/>
+        <c:crossAx val="207135768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210449112"/>
+        <c:axId val="207135768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210447704"/>
+        <c:crossAx val="207039032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2789,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2908,19 +2917,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>844.76923076923083</v>
+        <v>828.59259259259261</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44863.769230769234</v>
+        <v>44847.592592592591</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>494.12929820482395</v>
+        <v>483.80594112024278</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44513.129298204825</v>
+        <v>44502.805941120241</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2928,7 +2937,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B27" si="1">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B28" si="1">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -2970,19 +2979,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>969</v>
+        <v>950.44444444444446</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44988</v>
+        <v>44969.444444444445</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>541.71799466114726</v>
+        <v>530.40041378029832</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44560.71799466115</v>
+        <v>44549.400413780299</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3032,19 +3041,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1465.9230769230769</v>
+        <v>1437.8518518518517</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45484.923076923078</v>
+        <v>45456.851851851854</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>652.75828639256838</v>
+        <v>639.1208499870944</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44671.758286392571</v>
+        <v>44658.120849987092</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3094,19 +3103,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2186.4615384615386</v>
+        <v>2144.5925925925926</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46205.461538461539</v>
+        <v>46163.592592592591</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>786.79978141121251</v>
+        <v>770.36194797958399</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44805.79978141121</v>
+        <v>44789.361947979582</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3156,19 +3165,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3292.1153846153848</v>
+        <v>3229.0740740740739</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47311.115384615383</v>
+        <v>47248.074074074073</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1039.019872629726</v>
+        <v>1017.3126530778781</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45058.019872629724</v>
+        <v>45036.312653077875</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3218,19 +3227,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3652.3846153846152</v>
+        <v>3582.4444444444443</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47671.384615384617</v>
+        <v>47601.444444444445</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1080.2634095585397</v>
+        <v>1057.6945293832596</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45099.263409558538</v>
+        <v>45076.694529383261</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3280,19 +3289,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3652.3846153846152</v>
+        <v>3582.4444444444443</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47671.384615384617</v>
+        <v>47601.444444444445</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1080.2634095585397</v>
+        <v>1057.6945293832596</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45099.263409558538</v>
+        <v>45076.694529383261</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3365,7 +3374,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>12.423076923076923</v>
+        <v>12.185185185185185</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3383,7 +3392,7 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E27" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E28" si="8">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
@@ -3405,7 +3414,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.79314494093872223</v>
+        <v>0.7765745443342581</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3934,6 +3943,39 @@
       <c r="I27">
         <f t="shared" si="21"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>319</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>卷27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44334</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44339</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-58</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-49</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="24">G28-F28+1</f>
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="25">E28/H28</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -3996,9 +4038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4732,24 +4774,27 @@
       <c r="A28">
         <v>319</v>
       </c>
-      <c r="B28" t="e">
+      <c r="B28" t="str">
         <f>VLOOKUP($A28,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷27</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="D28" t="e">
+      <c r="D28">
         <f>VLOOKUP($A28,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" t="e">
+        <v>-58</v>
+      </c>
+      <c r="E28">
         <f>VLOOKUP($A28,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" t="e">
+        <v>-49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>377</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷27](筆記/资治通鉴27.html)|漢紀十九|-58|-49|漢宣帝16年至25年</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -1620,7 +1620,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,11 +1635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207039032"/>
-        <c:axId val="207135768"/>
+        <c:axId val="207055632"/>
+        <c:axId val="207056808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207039032"/>
+        <c:axId val="207055632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,12 +1751,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207135768"/>
+        <c:crossAx val="207056808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207135768"/>
+        <c:axId val="207056808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +1869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207039032"/>
+        <c:crossAx val="207055632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2798,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2917,19 +2917,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>828.59259259259261</v>
+        <v>831.11111111111109</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44847.592592592591</v>
+        <v>44850.111111111109</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>483.80594112024278</v>
+        <v>482.78042671695067</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44502.805941120241</v>
+        <v>44501.780426716949</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2979,19 +2979,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>950.44444444444446</v>
+        <v>953.33333333333326</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44969.444444444445</v>
+        <v>44972.333333333336</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>530.40041378029832</v>
+        <v>529.27613394490743</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44549.400413780299</v>
+        <v>44548.276133944906</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3041,19 +3041,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1437.8518518518517</v>
+        <v>1442.2222222222222</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45456.851851851854</v>
+        <v>45461.222222222219</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>639.1208499870944</v>
+        <v>637.76611747680647</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44658.120849987092</v>
+        <v>44656.766117476807</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3103,19 +3103,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2144.5925925925926</v>
+        <v>2151.1111111111109</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46163.592592592591</v>
+        <v>46170.111111111109</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>770.36194797958399</v>
+        <v>768.7290261688845</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44789.361947979582</v>
+        <v>44787.729026168883</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3165,19 +3165,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3229.0740740740739</v>
+        <v>3238.8888888888887</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47248.074074074073</v>
+        <v>47257.888888888891</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1017.3126530778781</v>
+        <v>1015.1562744770551</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45036.312653077875</v>
+        <v>45034.156274477056</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3227,19 +3227,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3582.4444444444443</v>
+        <v>3593.333333333333</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47601.444444444445</v>
+        <v>47612.333333333336</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1057.6945293832596</v>
+        <v>1055.4525540746176</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45076.694529383261</v>
+        <v>45074.452554074618</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3289,19 +3289,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3582.4444444444443</v>
+        <v>3593.333333333333</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47601.444444444445</v>
+        <v>47612.333333333336</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1057.6945293832596</v>
+        <v>1055.4525540746176</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45076.694529383261</v>
+        <v>45074.452554074618</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>12.185185185185185</v>
+        <v>12.222222222222221</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.7765745443342581</v>
+        <v>0.77492845379927877</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3957,11 +3957,11 @@
         <v>44334</v>
       </c>
       <c r="D28" s="1">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2">
         <v>-58</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="I28">
         <f t="shared" ref="I28" si="25">E28/H28</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -4038,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="379">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,6 +1222,10 @@
   </si>
   <si>
     <t>漢宣帝16年至25年</t>
+  </si>
+  <si>
+    <t>漢元帝至7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1450,7 +1454,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1531,6 +1535,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>卷27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>卷28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>卷29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>卷30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>卷31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>卷32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>卷33</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1622,6 +1644,24 @@
                 <c:pt idx="26">
                   <c:v>0.7</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1635,11 +1675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207055632"/>
-        <c:axId val="207056808"/>
+        <c:axId val="204873200"/>
+        <c:axId val="206422480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207055632"/>
+        <c:axId val="204873200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,12 +1791,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207056808"/>
+        <c:crossAx val="206422480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207056808"/>
+        <c:axId val="206422480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +1909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207055632"/>
+        <c:crossAx val="204873200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2799,7 +2839,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2917,19 +2957,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>831.11111111111109</v>
+        <v>700.60606060606062</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44850.111111111109</v>
+        <v>44719.606060606064</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>482.78042671695067</v>
+        <v>411.71151621493175</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44501.780426716949</v>
+        <v>44430.711516214935</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2937,7 +2977,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B28" si="1">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B34" si="1">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -2979,19 +3019,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>953.33333333333326</v>
+        <v>803.63636363636363</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44972.333333333336</v>
+        <v>44822.63636363636</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>529.27613394490743</v>
+        <v>451.3627055775255</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44548.276133944906</v>
+        <v>44470.362705577529</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3041,19 +3081,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1442.2222222222222</v>
+        <v>1215.7575757575758</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45461.222222222219</v>
+        <v>45234.757575757576</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>637.76611747680647</v>
+        <v>543.88214742357763</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44656.766117476807</v>
+        <v>44562.882147423581</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3103,19 +3143,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2151.1111111111109</v>
+        <v>1813.3333333333333</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>46170.111111111109</v>
+        <v>45832.333333333336</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>768.7290261688845</v>
+        <v>655.56633079488336</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44787.729026168883</v>
+        <v>44674.566330794885</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3165,19 +3205,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3238.8888888888887</v>
+        <v>2730.30303030303</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>47257.888888888891</v>
+        <v>46749.303030303032</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1015.1562744770551</v>
+        <v>865.71763441663018</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45034.156274477056</v>
+        <v>44884.717634416629</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3227,19 +3267,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3593.333333333333</v>
+        <v>3029.090909090909</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47612.333333333336</v>
+        <v>47048.090909090912</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1055.4525540746176</v>
+        <v>900.08199853087808</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45074.452554074618</v>
+        <v>44919.081998530877</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3289,19 +3329,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3593.333333333333</v>
+        <v>3029.090909090909</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47612.333333333336</v>
+        <v>47048.090909090912</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1055.4525540746176</v>
+        <v>900.08199853087808</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45074.452554074618</v>
+        <v>44919.081998530877</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3374,7 +3414,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>12.222222222222221</v>
+        <v>10.303030303030303</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3414,7 +3454,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.77492845379927877</v>
+        <v>0.66085315604322914</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3978,51 +4018,187 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>320</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>卷28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44341</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44345</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E34" si="26">D29-C29+1</f>
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-48</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-42</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H34" si="27">G29-F29+1</f>
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I34" si="28">E29/H29</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>321</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>卷29</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>322</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>卷30</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>323</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>卷31</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>324</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>卷32</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>325</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>卷33</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
@@ -4040,7 +4216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4801,144 +4977,147 @@
       <c r="A29">
         <v>320</v>
       </c>
-      <c r="B29" t="e">
+      <c r="B29" t="str">
         <f>VLOOKUP($A29,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷28</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="e">
+      <c r="D29">
         <f>VLOOKUP($A29,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" t="e">
+        <v>-48</v>
+      </c>
+      <c r="E29">
         <f>VLOOKUP($A29,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" t="e">
+        <v>-42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>378</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷28](筆記/资治通鉴28.html)|漢紀二十|-48|-42|漢元帝至7年</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>321</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30" t="str">
         <f>VLOOKUP($A30,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷29</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="e">
+      <c r="D30">
         <f>VLOOKUP($A30,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <f>VLOOKUP($A30,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" t="e">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷29](筆記/资治通鉴29.html)|漢紀二十一|0|0|</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>322</v>
       </c>
-      <c r="B31" t="e">
+      <c r="B31" t="str">
         <f>VLOOKUP($A31,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷30</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="e">
+      <c r="D31">
         <f>VLOOKUP($A31,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E31" t="e">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <f>VLOOKUP($A31,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" t="e">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷30](筆記/资治通鉴30.html)|漢紀二十二|0|0|</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>323</v>
       </c>
-      <c r="B32" t="e">
+      <c r="B32" t="str">
         <f>VLOOKUP($A32,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷31</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="e">
+      <c r="D32">
         <f>VLOOKUP($A32,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <f>VLOOKUP($A32,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" t="e">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷31](筆記/资治通鉴31.html)|漢紀二十三|0|0|</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>324</v>
       </c>
-      <c r="B33" t="e">
+      <c r="B33" t="str">
         <f>VLOOKUP($A33,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷32</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="e">
+      <c r="D33">
         <f>VLOOKUP($A33,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <f>VLOOKUP($A33,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" t="e">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷32](筆記/资治通鉴32.html)|漢紀二十四|0|0|</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>325</v>
       </c>
-      <c r="B34" t="e">
+      <c r="B34" t="str">
         <f>VLOOKUP($A34,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷33</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
       </c>
-      <c r="D34" t="e">
+      <c r="D34">
         <f>VLOOKUP($A34,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <f>VLOOKUP($A34,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" t="e">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷33](筆記/资治通鉴33.html)|漢紀二十五|0|0|</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="380">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1225,6 +1225,10 @@
   </si>
   <si>
     <t>漢元帝至7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢元帝8年至16年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1652,7 @@
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
@@ -1675,11 +1679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204873200"/>
-        <c:axId val="206422480"/>
+        <c:axId val="210140608"/>
+        <c:axId val="210531840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204873200"/>
+        <c:axId val="210140608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1795,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206422480"/>
+        <c:crossAx val="210531840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206422480"/>
+        <c:axId val="210531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204873200"/>
+        <c:crossAx val="210140608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2839,7 +2843,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2957,19 +2961,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>700.60606060606062</v>
+        <v>712.969696969697</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44719.606060606064</v>
+        <v>44731.969696969696</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>411.71151621493175</v>
+        <v>413.49133460081077</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44430.711516214935</v>
+        <v>44432.491334600811</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3019,19 +3023,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>803.63636363636363</v>
+        <v>817.81818181818176</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44822.63636363636</v>
+        <v>44836.818181818184</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>451.3627055775255</v>
+        <v>453.3139350439065</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44470.362705577529</v>
+        <v>44472.313935043909</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3081,19 +3085,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1215.7575757575758</v>
+        <v>1237.2121212121212</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45234.757575757576</v>
+        <v>45256.21212121212</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>543.88214742357763</v>
+        <v>546.23333607779659</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44562.882147423581</v>
+        <v>44565.233336077799</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3143,19 +3147,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1813.3333333333333</v>
+        <v>1845.3333333333333</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45832.333333333336</v>
+        <v>45864.333333333336</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>655.56633079488336</v>
+        <v>658.40032732584962</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44674.566330794885</v>
+        <v>44677.40032732585</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3205,19 +3209,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>2730.30303030303</v>
+        <v>2778.4848484848485</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46749.303030303032</v>
+        <v>46797.484848484848</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>865.71763441663018</v>
+        <v>869.46010967425707</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44884.717634416629</v>
+        <v>44888.460109674255</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3267,19 +3271,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3029.090909090909</v>
+        <v>3082.5454545454545</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47048.090909090912</v>
+        <v>47101.545454545456</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>900.08199853087808</v>
+        <v>903.97303005827337</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44919.081998530877</v>
+        <v>44922.973030058274</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3329,19 +3333,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3029.090909090909</v>
+        <v>3082.5454545454545</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47048.090909090912</v>
+        <v>47101.545454545456</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>900.08199853087808</v>
+        <v>903.97303005827337</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44919.081998530877</v>
+        <v>44922.973030058274</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3414,7 +3418,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.303030303030303</v>
+        <v>10.484848484848484</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3454,7 +3458,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66085315604322914</v>
+        <v>0.66371000738492902</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4059,19 +4063,29 @@
         <f t="shared" si="1"/>
         <v>卷29</v>
       </c>
+      <c r="C30" s="1">
+        <v>44346</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44352</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-41</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-33</v>
+      </c>
       <c r="H30">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I30">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -4216,7 +4230,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5013,15 +5027,18 @@
       </c>
       <c r="D30">
         <f>VLOOKUP($A30,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="E30">
         <f>VLOOKUP($A30,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-33</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>379</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>[卷29](筆記/资治通鉴29.html)|漢紀二十一|0|0|</v>
+        <v>[卷29](筆記/资治通鉴29.html)|漢紀二十一|-41|-33|漢元帝8年至16年</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="381">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1229,10 @@
   </si>
   <si>
     <t>漢元帝8年至16年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢成帝至10年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1655,7 +1659,7 @@
                   <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1</c:v>
@@ -1679,11 +1683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210140608"/>
-        <c:axId val="210531840"/>
+        <c:axId val="172355168"/>
+        <c:axId val="172355560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210140608"/>
+        <c:axId val="172355168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,12 +1799,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210531840"/>
+        <c:crossAx val="172355560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210531840"/>
+        <c:axId val="172355560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210140608"/>
+        <c:crossAx val="172355168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2842,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2961,19 +2965,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>712.969696969697</v>
+        <v>729.45454545454538</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44731.969696969696</v>
+        <v>44748.454545454544</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>413.49133460081077</v>
+        <v>414.29225287445638</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44432.491334600811</v>
+        <v>44433.292252874453</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3023,19 +3027,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>817.81818181818176</v>
+        <v>836.72727272727263</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44836.818181818184</v>
+        <v>44855.727272727272</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>453.3139350439065</v>
+        <v>454.19198830377803</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44472.313935043909</v>
+        <v>44473.191988303777</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3085,19 +3089,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1237.2121212121212</v>
+        <v>1265.8181818181818</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45256.21212121212</v>
+        <v>45284.818181818184</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>546.23333607779659</v>
+        <v>547.29137097219518</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44565.233336077799</v>
+        <v>44566.291370972198</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3147,19 +3151,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1845.3333333333333</v>
+        <v>1888</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45864.333333333336</v>
+        <v>45907</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>658.40032732584962</v>
+        <v>659.67562576478451</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44677.40032732585</v>
+        <v>44678.675625764787</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3209,19 +3213,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>2778.4848484848485</v>
+        <v>2842.7272727272725</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46797.484848484848</v>
+        <v>46861.727272727272</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>869.46010967425707</v>
+        <v>871.14422354018916</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44888.460109674255</v>
+        <v>44890.144223540192</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3271,19 +3275,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3082.5454545454545</v>
+        <v>3153.8181818181815</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47101.545454545456</v>
+        <v>47172.818181818184</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>903.97303005827337</v>
+        <v>905.72399424560126</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44922.973030058274</v>
+        <v>44924.7239942456</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3333,19 +3337,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3082.5454545454545</v>
+        <v>3153.8181818181815</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47101.545454545456</v>
+        <v>47172.818181818184</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>903.97303005827337</v>
+        <v>905.72399424560126</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44922.973030058274</v>
+        <v>44924.7239942456</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3418,7 +3422,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.484848484848484</v>
+        <v>10.727272727272727</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3458,7 +3462,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66371000738492902</v>
+        <v>0.66499559048869405</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4096,19 +4100,29 @@
         <f t="shared" si="1"/>
         <v>卷30</v>
       </c>
+      <c r="C31" s="1">
+        <v>44353</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44361</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-32</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-23</v>
+      </c>
       <c r="H31">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -4228,9 +4242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5054,15 +5068,18 @@
       </c>
       <c r="D31">
         <f>VLOOKUP($A31,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="E31">
         <f>VLOOKUP($A31,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-23</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>[卷30](筆記/资治通鉴30.html)|漢紀二十二|0|0|</v>
+        <v>[卷30](筆記/资治通鉴30.html)|漢紀二十二|-32|-23|漢成帝至10年</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="382">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,6 +1234,9 @@
   <si>
     <t>漢成帝至10年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢成帝11年19年</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1665,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
@@ -1683,11 +1686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172355168"/>
-        <c:axId val="172355560"/>
+        <c:axId val="207904712"/>
+        <c:axId val="207889352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172355168"/>
+        <c:axId val="207904712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,12 +1802,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172355560"/>
+        <c:crossAx val="207889352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172355560"/>
+        <c:axId val="207889352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172355168"/>
+        <c:crossAx val="207904712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2846,9 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2965,19 +2966,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>729.45454545454538</v>
+        <v>743.87878787878788</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44748.454545454544</v>
+        <v>44762.878787878784</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>414.29225287445638</v>
+        <v>415.18216206739589</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44433.292252874453</v>
+        <v>44434.182162067395</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3027,19 +3028,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>836.72727272727263</v>
+        <v>853.27272727272725</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44855.727272727272</v>
+        <v>44872.272727272728</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>454.19198830377803</v>
+        <v>455.1676030369685</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44473.191988303777</v>
+        <v>44474.167603036971</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3089,19 +3090,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1265.8181818181818</v>
+        <v>1290.8484848484848</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45284.818181818184</v>
+        <v>45309.848484848488</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>547.29137097219518</v>
+        <v>548.46696529930466</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44566.291370972198</v>
+        <v>44567.466965299303</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3151,19 +3152,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1888</v>
+        <v>1925.3333333333333</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45907</v>
+        <v>45944.333333333336</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>659.67562576478451</v>
+        <v>661.09262403026764</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44678.675625764787</v>
+        <v>44680.092624030265</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3213,19 +3214,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>2842.7272727272725</v>
+        <v>2898.939393939394</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46861.727272727272</v>
+        <v>46917.939393939392</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>871.14422354018916</v>
+        <v>873.01546116900261</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44890.144223540192</v>
+        <v>44892.015461169001</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3275,19 +3276,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3153.8181818181815</v>
+        <v>3216.181818181818</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47172.818181818184</v>
+        <v>47235.181818181816</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>905.72399424560126</v>
+        <v>907.66951000929885</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44924.7239942456</v>
+        <v>44926.669510009298</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3337,19 +3338,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3153.8181818181815</v>
+        <v>3216.181818181818</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47172.818181818184</v>
+        <v>47235.181818181816</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>905.72399424560126</v>
+        <v>907.66951000929885</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44924.7239942456</v>
+        <v>44926.669510009298</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3422,7 +3423,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.727272727272727</v>
+        <v>10.939393939393939</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3462,7 +3463,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66499559048869405</v>
+        <v>0.66642401615954394</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4133,19 +4134,29 @@
         <f t="shared" si="1"/>
         <v>卷31</v>
       </c>
+      <c r="C32" s="1">
+        <v>44361</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44368</v>
+      </c>
       <c r="E32" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-22</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-14</v>
+      </c>
       <c r="H32">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I32">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -4242,9 +4253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5095,15 +5106,18 @@
       </c>
       <c r="D32">
         <f>VLOOKUP($A32,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="E32">
         <f>VLOOKUP($A32,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>381</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>[卷31](筆記/资治通鉴31.html)|漢紀二十三|0|0|</v>
+        <v>[卷31](筆記/资治通鉴31.html)|漢紀二十三|-22|-14|漢成帝11年19年</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="383">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1237,6 +1237,9 @@
   </si>
   <si>
     <t>漢成帝11年19年</t>
+  </si>
+  <si>
+    <t>漢成帝20年至25年</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1671,7 @@
                   <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1</c:v>
@@ -1686,11 +1689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207904712"/>
-        <c:axId val="207889352"/>
+        <c:axId val="200305040"/>
+        <c:axId val="200358296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207904712"/>
+        <c:axId val="200305040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,12 +1805,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207889352"/>
+        <c:crossAx val="200358296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207889352"/>
+        <c:axId val="200358296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +1923,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207904712"/>
+        <c:crossAx val="200305040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2849,7 +2852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2966,19 +2971,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>743.87878787878788</v>
+        <v>752.12121212121212</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44762.878787878784</v>
+        <v>44771.121212121216</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>415.18216206739589</v>
+        <v>416.51702585680505</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44434.182162067395</v>
+        <v>44435.517025856803</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3028,19 +3033,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>853.27272727272725</v>
+        <v>862.72727272727275</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44872.272727272728</v>
+        <v>44881.727272727272</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>455.1676030369685</v>
+        <v>456.63102513675415</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44474.167603036971</v>
+        <v>44475.631025136754</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3090,19 +3095,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1290.8484848484848</v>
+        <v>1305.1515151515152</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45309.848484848488</v>
+        <v>45324.151515151512</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>548.46696529930466</v>
+        <v>550.23035678996871</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44567.466965299303</v>
+        <v>44569.230356789965</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3152,19 +3157,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1925.3333333333333</v>
+        <v>1946.6666666666667</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45944.333333333336</v>
+        <v>45965.666666666664</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>661.09262403026764</v>
+        <v>663.21812142849217</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44680.092624030265</v>
+        <v>44682.218121428494</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3214,19 +3219,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>2898.939393939394</v>
+        <v>2931.060606060606</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46917.939393939392</v>
+        <v>46950.060606060608</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>873.01546116900261</v>
+        <v>875.82231761222249</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44892.015461169001</v>
+        <v>44894.822317612219</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3276,19 +3281,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3216.181818181818</v>
+        <v>3251.818181818182</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47235.181818181816</v>
+        <v>47270.818181818184</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>907.66951000929885</v>
+        <v>910.587783654845</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44926.669510009298</v>
+        <v>44929.587783654846</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3338,19 +3343,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3216.181818181818</v>
+        <v>3251.818181818182</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47235.181818181816</v>
+        <v>47270.818181818184</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>907.66951000929885</v>
+        <v>910.587783654845</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44926.669510009298</v>
+        <v>44929.587783654846</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3423,7 +3428,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.939393939393939</v>
+        <v>11.060606060606061</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3463,7 +3468,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66642401615954394</v>
+        <v>0.66856665466581866</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4167,19 +4172,29 @@
         <f t="shared" si="1"/>
         <v>卷32</v>
       </c>
+      <c r="C33" s="1">
+        <v>44369</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44373</v>
+      </c>
       <c r="E33" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-13</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-8</v>
+      </c>
       <c r="H33">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I33">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -4255,7 +4270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5133,15 +5148,18 @@
       </c>
       <c r="D33">
         <f>VLOOKUP($A33,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E33">
         <f>VLOOKUP($A33,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>382</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>[卷32](筆記/资治通鉴32.html)|漢紀二十四|0|0|</v>
+        <v>[卷32](筆記/资治通鉴32.html)|漢紀二十四|-13|-8|漢成帝20年至25年</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="384">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,6 +1240,9 @@
   </si>
   <si>
     <t>漢成帝20年至25年</t>
+  </si>
+  <si>
+    <t>漢成帝26年、漢哀帝元年</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1677,7 @@
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,11 +1692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200305040"/>
-        <c:axId val="200358296"/>
+        <c:axId val="155512744"/>
+        <c:axId val="155467168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200305040"/>
+        <c:axId val="155512744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,12 +1808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200358296"/>
+        <c:crossAx val="155467168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200358296"/>
+        <c:axId val="155467168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1926,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200305040"/>
+        <c:crossAx val="155512744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2852,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2971,19 +2974,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>752.12121212121212</v>
+        <v>760.36363636363637</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44771.121212121216</v>
+        <v>44779.36363636364</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>416.51702585680505</v>
+        <v>450.35173660060673</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44435.517025856803</v>
+        <v>44469.351736600605</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3033,19 +3036,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>862.72727272727275</v>
+        <v>872.18181818181813</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44881.727272727272</v>
+        <v>44891.181818181816</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>456.63102513675415</v>
+        <v>493.72429550275183</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44475.631025136754</v>
+        <v>44512.724295502754</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3095,19 +3098,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1305.1515151515152</v>
+        <v>1319.4545454545455</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45324.151515151512</v>
+        <v>45338.454545454544</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>550.23035678996871</v>
+        <v>594.9269329410904</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44569.230356789965</v>
+        <v>44613.926932941089</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3157,19 +3160,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1946.6666666666667</v>
+        <v>1968</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45965.666666666664</v>
+        <v>45987</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>663.21812142849217</v>
+        <v>717.09297384879915</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44682.218121428494</v>
+        <v>44736.092973848798</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3219,19 +3222,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>2931.060606060606</v>
+        <v>2963.181818181818</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46950.060606060608</v>
+        <v>46982.181818181816</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>875.82231761222249</v>
+        <v>946.96753603016828</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44894.822317612219</v>
+        <v>44965.96753603017</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3281,19 +3284,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3251.818181818182</v>
+        <v>3287.4545454545455</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47270.818181818184</v>
+        <v>47306.454545454544</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>910.587783654845</v>
+        <v>984.55708707869405</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44929.587783654846</v>
+        <v>45003.557087078691</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3343,19 +3346,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3251.818181818182</v>
+        <v>3287.4545454545455</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47270.818181818184</v>
+        <v>47306.454545454544</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>910.587783654845</v>
+        <v>984.55708707869405</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44929.587783654846</v>
+        <v>45003.557087078691</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3428,7 +3431,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>11.060606060606061</v>
+        <v>11.181818181818182</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3468,7 +3471,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.66856665466581866</v>
+        <v>0.72287598170241851</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4205,19 +4208,29 @@
         <f t="shared" si="1"/>
         <v>卷33</v>
       </c>
+      <c r="C34" s="1">
+        <v>44373</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44377</v>
+      </c>
       <c r="E34" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-6</v>
+      </c>
       <c r="H34">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -4268,9 +4281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5175,15 +5188,18 @@
       </c>
       <c r="D34">
         <f>VLOOKUP($A34,統計!$A:$G,6,)</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E34">
         <f>VLOOKUP($A34,統計!$A:$G,7,)</f>
-        <v>0</v>
+        <v>-6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>383</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>[卷33](筆記/资治通鉴33.html)|漢紀二十五|0|0|</v>
+        <v>[卷33](筆記/资治通鉴33.html)|漢紀二十五|-7|-6|漢成帝26年、漢哀帝元年</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="385">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,6 +1243,10 @@
   </si>
   <si>
     <t>漢成帝26年、漢哀帝元年</t>
+  </si>
+  <si>
+    <t>漢哀帝2年至4年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1471,7 +1475,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1570,6 +1574,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>卷33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>卷34</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1679,6 +1686,9 @@
                 <c:pt idx="32">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1692,11 +1702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155512744"/>
-        <c:axId val="155467168"/>
+        <c:axId val="160740664"/>
+        <c:axId val="160347640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155512744"/>
+        <c:axId val="160740664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,12 +1818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155467168"/>
+        <c:crossAx val="160347640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155467168"/>
+        <c:axId val="160347640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1936,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155512744"/>
+        <c:crossAx val="160740664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2855,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2974,19 +2984,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>760.36363636363637</v>
+        <v>744</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44779.36363636364</v>
+        <v>44763</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>450.35173660060673</v>
+        <v>439.42453862305945</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44469.351736600605</v>
+        <v>44458.424538623061</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2994,7 +3004,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B34" si="1">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B35" si="1">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3036,19 +3046,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>872.18181818181813</v>
+        <v>853.41176470588232</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44891.181818181816</v>
+        <v>44872.411764705881</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>493.72429550275183</v>
+        <v>481.74471890778426</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44512.724295502754</v>
+        <v>44500.744718907787</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3098,19 +3108,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1319.4545454545455</v>
+        <v>1291.0588235294117</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45338.454545454544</v>
+        <v>45310.058823529413</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>594.9269329410904</v>
+        <v>580.49180623880886</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44613.926932941089</v>
+        <v>44599.49180623881</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3160,19 +3170,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>1968</v>
+        <v>1925.6470588235295</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45987</v>
+        <v>45944.647058823532</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>717.09297384879915</v>
+        <v>699.69364737411706</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44736.092973848798</v>
+        <v>44718.693647374115</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3222,19 +3232,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>2963.181818181818</v>
+        <v>2899.4117647058824</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46982.181818181816</v>
+        <v>46918.411764705881</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>946.96753603016828</v>
+        <v>923.99060288315866</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44965.96753603017</v>
+        <v>44942.990602883161</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3284,19 +3294,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>3287.4545454545455</v>
+        <v>3216.7058823529414</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47306.454545454544</v>
+        <v>47235.705882352944</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>984.55708707869405</v>
+        <v>960.66809246325352</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45003.557087078691</v>
+        <v>44979.668092463253</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3346,19 +3356,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>3287.4545454545455</v>
+        <v>3216.7058823529414</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47306.454545454544</v>
+        <v>47235.705882352944</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>984.55708707869405</v>
+        <v>960.66809246325352</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45003.557087078691</v>
+        <v>44979.668092463253</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3431,7 +3441,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>11.181818181818182</v>
+        <v>10.941176470588236</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3471,7 +3481,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.72287598170241851</v>
+        <v>0.70533633807874707</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4234,8 +4244,37 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35">
+        <v>326</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>卷34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44378</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44380</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ref="E35" si="29">D35-C35+1</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35" si="30">G35-F35+1</f>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35" si="31">E35/H35</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C36" s="2"/>
@@ -4282,8 +4321,8 @@
   <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5206,24 +5245,27 @@
       <c r="A35">
         <v>326</v>
       </c>
-      <c r="B35" t="e">
+      <c r="B35" t="str">
         <f>VLOOKUP($A35,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷34</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
       </c>
-      <c r="D35" t="e">
+      <c r="D35">
         <f>VLOOKUP($A35,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
+        <v>-5</v>
+      </c>
+      <c r="E35">
         <f>VLOOKUP($A35,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="e">
+        <v>-3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>384</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷34](筆記/资治通鉴34.html)|漢紀二十六|-5|-3|漢哀帝2年至4年</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="386">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,6 +1246,10 @@
   </si>
   <si>
     <t>漢哀帝2年至4年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢哀帝5年至6年、漢平帝至2年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,7 +1479,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1577,6 +1581,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>卷34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>卷35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1689,6 +1696,9 @@
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1702,11 +1712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160740664"/>
-        <c:axId val="160347640"/>
+        <c:axId val="161186848"/>
+        <c:axId val="161139016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160740664"/>
+        <c:axId val="161186848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1828,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160347640"/>
+        <c:crossAx val="161139016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160347640"/>
+        <c:axId val="161139016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +1946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160740664"/>
+        <c:crossAx val="161186848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2865,8 +2875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2962,7 +2973,7 @@
         <v>-369</v>
       </c>
       <c r="H2">
-        <f>G2-F2+1</f>
+        <f t="shared" ref="H2:H31" si="0">IF(F2*G2&lt;0,ABS(F2)+ABS(G2),G2-F2+1)</f>
         <v>35</v>
       </c>
       <c r="I2">
@@ -2983,20 +2994,20 @@
         <v>623</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O8" si="0">L2*$L$10</f>
-        <v>744</v>
+        <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
+        <v>732.45714285714291</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44763</v>
+        <v>44751.457142857143</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>439.42453862305945</v>
+        <v>427.21305480690029</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44458.424538623061</v>
+        <v>44446.213054806904</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3004,7 +3015,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B35" si="1">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B36" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3014,7 +3025,7 @@
         <v>44071</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="2">D3-C3+1</f>
+        <f t="shared" ref="E3:E10" si="3">D3-C3+1</f>
         <v>30</v>
       </c>
       <c r="F3">
@@ -3024,7 +3035,7 @@
         <v>-321</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="3">G3-F3+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="I3">
@@ -3045,20 +3056,20 @@
         <v>683</v>
       </c>
       <c r="O3">
-        <f t="shared" si="0"/>
-        <v>853.41176470588232</v>
+        <f t="shared" si="1"/>
+        <v>840.17142857142858</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44872.411764705881</v>
+        <v>44859.171428571426</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>481.74471890778426</v>
+        <v>468.35716923453117</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44500.744718907787</v>
+        <v>44487.357169234529</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3066,7 +3077,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷3</v>
       </c>
       <c r="C4" s="1">
@@ -3076,7 +3087,7 @@
         <v>44099</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F4">
@@ -3086,7 +3097,7 @@
         <v>-298</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I4">
@@ -3108,19 +3119,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1291.0588235294117</v>
+        <v>1271.0285714285715</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45310.058823529413</v>
+        <v>45290.028571428571</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>580.49180623880886</v>
+        <v>564.3601028990031</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44599.49180623881</v>
+        <v>44583.360102899002</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3128,7 +3139,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷4</v>
       </c>
       <c r="C5" s="1">
@@ -3138,7 +3149,7 @@
         <v>44121</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="F5">
@@ -3148,7 +3159,7 @@
         <v>-273</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I5">
@@ -3169,20 +3180,20 @@
         <v>992</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1925.6470588235295</v>
+        <f t="shared" si="1"/>
+        <v>1895.7714285714287</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45944.647058823532</v>
+        <v>45914.771428571432</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>699.69364737411706</v>
+        <v>680.24935853683007</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44718.693647374115</v>
+        <v>44699.249358536828</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3190,7 +3201,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷5</v>
       </c>
       <c r="C6" s="1">
@@ -3200,7 +3211,7 @@
         <v>44145</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="F6">
@@ -3210,7 +3221,7 @@
         <v>-256</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I6">
@@ -3231,20 +3242,20 @@
         <v>1310</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>2899.4117647058824</v>
+        <f t="shared" si="1"/>
+        <v>2854.4285714285716</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46918.411764705881</v>
+        <v>46873.428571428572</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>923.99060288315866</v>
+        <v>898.31316500327353</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44942.990602883161</v>
+        <v>44917.313165003274</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3252,7 +3263,7 @@
         <v>201</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷6</v>
       </c>
       <c r="C7" s="1">
@@ -3262,7 +3273,7 @@
         <v>44171</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="F7">
@@ -3272,7 +3283,7 @@
         <v>-228</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="I7">
@@ -3293,20 +3304,20 @@
         <v>1362</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>3216.7058823529414</v>
+        <f t="shared" si="1"/>
+        <v>3166.8</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47235.705882352944</v>
+        <v>47185.8</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>960.66809246325352</v>
+        <v>933.97139750722022</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44979.668092463253</v>
+        <v>44952.971397507223</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3314,7 +3325,7 @@
         <v>202</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷7</v>
       </c>
       <c r="C8" s="1">
@@ -3324,7 +3335,7 @@
         <v>44187</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F8">
@@ -3334,7 +3345,7 @@
         <v>-209</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I8">
@@ -3355,20 +3366,20 @@
         <v>1362</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>3216.7058823529414</v>
+        <f t="shared" si="1"/>
+        <v>3166.8</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47235.705882352944</v>
+        <v>47185.8</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>960.66809246325352</v>
+        <v>933.97139750722022</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44979.668092463253</v>
+        <v>44952.971397507223</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3376,7 +3387,7 @@
         <v>203</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷8</v>
       </c>
       <c r="C9" s="1">
@@ -3386,7 +3397,7 @@
         <v>44202</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F9">
@@ -3396,7 +3407,7 @@
         <v>-207</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I9">
@@ -3409,7 +3420,7 @@
         <v>301</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷9</v>
       </c>
       <c r="C10" s="1">
@@ -3419,7 +3430,7 @@
         <v>44207</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F10">
@@ -3429,7 +3440,7 @@
         <v>-205</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10">
@@ -3441,7 +3452,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.941176470588236</v>
+        <v>10.771428571428572</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3449,7 +3460,7 @@
         <v>302</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷10</v>
       </c>
       <c r="C11" s="1">
@@ -3469,7 +3480,7 @@
         <v>-203</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="9">G11-F11+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I11">
@@ -3481,7 +3492,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.70533633807874707</v>
+        <v>0.68573524046051415</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3489,7 +3500,7 @@
         <v>303</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷11</v>
       </c>
       <c r="C12" s="1">
@@ -3509,7 +3520,7 @@
         <v>-200</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12" si="10">G12-F12+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I12">
@@ -3522,7 +3533,7 @@
         <v>304</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷12</v>
       </c>
       <c r="C13" s="1">
@@ -3542,7 +3553,7 @@
         <v>-188</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H19" si="11">G13-F13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I13">
@@ -3555,7 +3566,7 @@
         <v>305</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷13</v>
       </c>
       <c r="C14" s="1">
@@ -3575,7 +3586,7 @@
         <v>-178</v>
       </c>
       <c r="H14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I14">
@@ -3588,7 +3599,7 @@
         <v>306</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷14</v>
       </c>
       <c r="C15" s="1">
@@ -3608,7 +3619,7 @@
         <v>-170</v>
       </c>
       <c r="H15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I15">
@@ -3621,7 +3632,7 @@
         <v>307</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷15</v>
       </c>
       <c r="C16" s="1">
@@ -3641,7 +3652,7 @@
         <v>-155</v>
       </c>
       <c r="H16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I16">
@@ -3654,7 +3665,7 @@
         <v>308</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷16</v>
       </c>
       <c r="C17" s="1">
@@ -3674,7 +3685,7 @@
         <v>-141</v>
       </c>
       <c r="H17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I17">
@@ -3687,7 +3698,7 @@
         <v>309</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷17</v>
       </c>
       <c r="C18" s="1">
@@ -3707,7 +3718,7 @@
         <v>-134</v>
       </c>
       <c r="H18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I18">
@@ -3720,7 +3731,7 @@
         <v>310</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷18</v>
       </c>
       <c r="C19" s="1">
@@ -3740,7 +3751,7 @@
         <v>-125</v>
       </c>
       <c r="H19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I19">
@@ -3753,7 +3764,7 @@
         <v>311</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷19</v>
       </c>
       <c r="C20" s="1">
@@ -3773,11 +3784,11 @@
         <v>-119</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="12">G20-F20+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="13">E20/H20</f>
+        <f t="shared" ref="I20" si="9">E20/H20</f>
         <v>1.5</v>
       </c>
     </row>
@@ -3786,7 +3797,7 @@
         <v>312</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷20</v>
       </c>
       <c r="C21" s="1">
@@ -3806,11 +3817,11 @@
         <v>-110</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21" si="14">G21-F21+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="15">E21/H21</f>
+        <f t="shared" ref="I21" si="10">E21/H21</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -3819,7 +3830,7 @@
         <v>313</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷21</v>
       </c>
       <c r="C22" s="1">
@@ -3839,11 +3850,11 @@
         <v>-99</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="16">G22-F22+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="17">E22/H22</f>
+        <f t="shared" ref="I22:I23" si="11">E22/H22</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
@@ -3852,7 +3863,7 @@
         <v>314</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷22</v>
       </c>
       <c r="C23" s="1">
@@ -3872,11 +3883,11 @@
         <v>-87</v>
       </c>
       <c r="H23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -3885,7 +3896,7 @@
         <v>315</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷23</v>
       </c>
       <c r="C24" s="1">
@@ -3905,11 +3916,11 @@
         <v>-75</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="18">G24-F24+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="19">E24/H24</f>
+        <f t="shared" ref="I24" si="12">E24/H24</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -3918,7 +3929,7 @@
         <v>316</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷24</v>
       </c>
       <c r="C25" s="1">
@@ -3938,11 +3949,11 @@
         <v>-68</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="20">G25-F25+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I27" si="21">E25/H25</f>
+        <f t="shared" ref="I25:I27" si="13">E25/H25</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -3951,7 +3962,7 @@
         <v>317</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷25</v>
       </c>
       <c r="C26" s="1">
@@ -3971,11 +3982,11 @@
         <v>-62</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H27" si="22">G26-F26+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="23">E26/H26</f>
+        <f t="shared" ref="I26" si="14">E26/H26</f>
         <v>1</v>
       </c>
     </row>
@@ -3984,7 +3995,7 @@
         <v>318</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷26</v>
       </c>
       <c r="C27" s="1">
@@ -4004,11 +4015,11 @@
         <v>-59</v>
       </c>
       <c r="H27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4017,7 +4028,7 @@
         <v>319</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷27</v>
       </c>
       <c r="C28" s="1">
@@ -4037,11 +4048,11 @@
         <v>-49</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="24">G28-F28+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="25">E28/H28</f>
+        <f t="shared" ref="I28" si="15">E28/H28</f>
         <v>0.7</v>
       </c>
     </row>
@@ -4050,7 +4061,7 @@
         <v>320</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷28</v>
       </c>
       <c r="C29" s="1">
@@ -4060,7 +4071,7 @@
         <v>44345</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ref="E29:E34" si="26">D29-C29+1</f>
+        <f t="shared" ref="E29:E34" si="16">D29-C29+1</f>
         <v>5</v>
       </c>
       <c r="F29" s="2">
@@ -4070,11 +4081,11 @@
         <v>-42</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H34" si="27">G29-F29+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I34" si="28">E29/H29</f>
+        <f t="shared" ref="I29:I34" si="17">E29/H29</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -4083,7 +4094,7 @@
         <v>321</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷29</v>
       </c>
       <c r="C30" s="1">
@@ -4093,7 +4104,7 @@
         <v>44352</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="F30" s="2">
@@ -4103,11 +4114,11 @@
         <v>-33</v>
       </c>
       <c r="H30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -4116,7 +4127,7 @@
         <v>322</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷30</v>
       </c>
       <c r="C31" s="1">
@@ -4126,7 +4137,7 @@
         <v>44361</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="F31" s="2">
@@ -4136,11 +4147,11 @@
         <v>-23</v>
       </c>
       <c r="H31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
     </row>
@@ -4149,7 +4160,7 @@
         <v>323</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷31</v>
       </c>
       <c r="C32" s="1">
@@ -4159,7 +4170,7 @@
         <v>44368</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="F32" s="2">
@@ -4169,11 +4180,11 @@
         <v>-14</v>
       </c>
       <c r="H32">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H32:H35" si="18">IF(F32*G32&lt;0,ABS(F32)+ABS(G32),G32-F32+1)</f>
         <v>9</v>
       </c>
       <c r="I32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
@@ -4182,7 +4193,7 @@
         <v>324</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷32</v>
       </c>
       <c r="C33" s="1">
@@ -4192,7 +4203,7 @@
         <v>44373</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F33" s="2">
@@ -4202,11 +4213,11 @@
         <v>-8</v>
       </c>
       <c r="H33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="I33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -4215,7 +4226,7 @@
         <v>325</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷33</v>
       </c>
       <c r="C34" s="1">
@@ -4225,7 +4236,7 @@
         <v>44377</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F34" s="2">
@@ -4235,11 +4246,11 @@
         <v>-6</v>
       </c>
       <c r="H34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
     </row>
@@ -4248,7 +4259,7 @@
         <v>326</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>卷34</v>
       </c>
       <c r="C35" s="1">
@@ -4258,7 +4269,7 @@
         <v>44380</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ref="E35" si="29">D35-C35+1</f>
+        <f t="shared" ref="E35" si="19">D35-C35+1</f>
         <v>3</v>
       </c>
       <c r="F35" s="2">
@@ -4268,17 +4279,46 @@
         <v>-3</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35" si="30">G35-F35+1</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35" si="31">E35/H35</f>
+        <f t="shared" ref="I35" si="20">E35/H35</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36">
+        <v>327</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="2"/>
+        <v>卷35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44381</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44385</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" ref="E36" si="21">D36-C36+1</f>
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f>IF(F36*G36&lt;0,ABS(F36)+ABS(G36),G36-F36+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36" si="22">E36/H36</f>
+        <v>1.25</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C37" s="2"/>
@@ -4321,8 +4361,8 @@
   <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5272,24 +5312,27 @@
       <c r="A36">
         <v>327</v>
       </c>
-      <c r="B36" t="e">
+      <c r="B36" t="str">
         <f>VLOOKUP($A36,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷35</v>
       </c>
       <c r="C36" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="e">
+      <c r="D36">
         <f>VLOOKUP($A36,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E36" t="e">
+        <v>-2</v>
+      </c>
+      <c r="E36">
         <f>VLOOKUP($A36,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" t="e">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>385</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷35](筆記/资治通鉴35.html)|漢紀二十七|-2|2|漢哀帝5年至6年、漢平帝至2年</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="429">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1250,6 +1250,178 @@
   </si>
   <si>
     <t>漢哀帝5年至6年、漢平帝至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙建國前世系圖、趙建國前傳位圖、魏建國前傳位圖、韓建國前傳位圖、田氏代齊前傳位圖、秦四代亂政世系圖、秦四代亂政傳位圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商鞅二十等爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齊威王時期諸田譜系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古蜀國世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚国都城与各种郢都、西周國、東周國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔子世系简图(至秦)、秦始皇关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓國都城變遷史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王翦家族、蒙驁家族、項燕家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷代歲首表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦末漢初政權逗逼分裂圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周礼宴请等级、韓信戰役表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诏书形式、驿站交通规格、鞋类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸呂世系圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉惠帝挂名子嗣表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉历代皇帝生前庙名、大夫罪名表、各类彗星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦汉三公九卿概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉徭役类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七国之乱世系图、臧兒田竇世系圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牢獄別稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛霍裙帶世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武帝時期漢匈重要戰役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武功爵表、张骞两次探索各国纪要、白鹿皮币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮南衡山谋反世系、死守外戚的平阳侯曹氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南诸夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西漢時期匈奴官制、汉武帝子嗣、人臣功五品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匈奴五单于争立背景、假設蓋主嫁王充、上官皇后世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢武帝子嗣皇帝示意圖、霍光世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西漢綬帶顏色、各時代盜墓信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五爭車師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五單于爭立表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟閣十一功臣成分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭史黨爭表、舜命九官（尚書）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金日磾及班彪世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼韓邪世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許平君世系、班氏世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墳形製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮奉世世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅丁太后世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西漢帝王男寵表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三公分職</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛子夫後衛氏世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1712,11 +1884,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161186848"/>
-        <c:axId val="161139016"/>
+        <c:axId val="81920192"/>
+        <c:axId val="81920584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161186848"/>
+        <c:axId val="81920192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,12 +2000,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161139016"/>
+        <c:crossAx val="81920584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161139016"/>
+        <c:axId val="81920584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,7 +2118,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161186848"/>
+        <c:crossAx val="81920192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4358,16 +4530,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>344</v>
       </c>
@@ -4383,14 +4559,20 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>101</v>
       </c>
@@ -4410,14 +4592,17 @@
         <v>-369</v>
       </c>
       <c r="F2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" t="s">
         <v>348</v>
       </c>
-      <c r="G2" t="str">
-        <f>"["&amp;B2&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B2,"卷","")&amp;".html)|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
-        <v>[卷1](筆記/资治通鉴1.html)|周紀一|-403|-369|周威烈王23年至24年、周安王共26年、周烈王至7年</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I2" t="str">
+        <f>"["&amp;B2&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B2,"卷","")&amp;".html)|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;G2&amp;"|"&amp;H2</f>
+        <v>[卷1](筆記/资治通鉴1.html)|周紀一|-403|-369|趙建國前世系圖、趙建國前傳位圖、魏建國前傳位圖、韓建國前傳位圖、田氏代齊前傳位圖、秦四代亂政世系圖、秦四代亂政傳位圖||周威烈王23年至24年、周安王共26年、周烈王至7年</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>102</v>
       </c>
@@ -4437,14 +4622,20 @@
         <v>-321</v>
       </c>
       <c r="F3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" t="s">
         <v>347</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="0">"["&amp;B3&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B3,"卷","")&amp;".html)|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3</f>
-        <v>[卷2](筆記/资治通鉴2.html)|周紀二|-368|-321|周顯王共48年</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="0">"["&amp;B3&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B3,"卷","")&amp;".html)|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3&amp;"|"&amp;G3&amp;"|"&amp;H3</f>
+        <v>[卷2](筆記/资治通鉴2.html)|周紀二|-368|-321|齊威王時期諸田譜系|商鞅二十等爵|周顯王共48年</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>103</v>
       </c>
@@ -4463,15 +4654,18 @@
         <f>VLOOKUP($A4,統計!$A:$G,7,)</f>
         <v>-298</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" t="s">
         <v>349</v>
       </c>
-      <c r="G4" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>[卷3](筆記/资治通鉴3.html)|周紀三|-320|-298|周慎靚王共6年、周赧王至17年</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷3](筆記/资治通鉴3.html)|周紀三|-320|-298||古蜀國世系|周慎靚王共6年、周赧王至17年</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>104</v>
       </c>
@@ -4490,15 +4684,18 @@
         <f>VLOOKUP($A5,統計!$A:$G,7,)</f>
         <v>-273</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H5" t="s">
         <v>350</v>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>[卷4](筆記/资治通鉴4.html)|周紀四|-297|-273|周赧王18年至42年</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷4](筆記/资治通鉴4.html)|周紀四|-297|-273||楚国都城与各种郢都、西周國、東周國|周赧王18年至42年</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>105</v>
       </c>
@@ -4518,14 +4715,17 @@
         <v>-256</v>
       </c>
       <c r="F6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6" t="s">
         <v>351</v>
       </c>
-      <c r="G6" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>[卷5](筆記/资治通鉴5.html)|周紀五|-272|-256|周赧王43年至59年</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷5](筆記/资治通鉴5.html)|周紀五|-272|-256|孔子世系简图(至秦)、秦始皇关系图||周赧王43年至59年</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>201</v>
       </c>
@@ -4544,15 +4744,18 @@
         <f>VLOOKUP($A7,統計!$A:$G,7,)</f>
         <v>-228</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H7" t="s">
         <v>352</v>
       </c>
-      <c r="G7" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>[卷6](筆記/资治通鉴6.html)|秦紀一|-255|-228|秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷6](筆記/资治通鉴6.html)|秦紀一|-255|-228||韓國都城變遷史|秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>202</v>
       </c>
@@ -4572,14 +4775,17 @@
         <v>-209</v>
       </c>
       <c r="F8" t="s">
+        <v>395</v>
+      </c>
+      <c r="H8" t="s">
         <v>353</v>
       </c>
-      <c r="G8" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>[卷7](筆記/资治通鉴7.html)|秦紀二|-227|-209|秦始皇20年至37年、秦二世元年</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷7](筆記/资治通鉴7.html)|秦紀二|-227|-209|王翦家族、蒙驁家族、項燕家族||秦始皇20年至37年、秦二世元年</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>203</v>
       </c>
@@ -4598,15 +4804,15 @@
         <f>VLOOKUP($A9,統計!$A:$G,7,)</f>
         <v>-207</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>354</v>
       </c>
-      <c r="G9" t="str">
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>[卷8](筆記/资治通鉴8.html)|秦紀三|-208|-207|秦二世2年至3年</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷8](筆記/资治通鉴8.html)|秦紀三|-208|-207|||秦二世2年至3年</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>301</v>
       </c>
@@ -4626,14 +4832,20 @@
         <v>-205</v>
       </c>
       <c r="F10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" t="s">
         <v>362</v>
       </c>
-      <c r="G10" t="str">
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>[卷9](筆記/资治通鉴9.html)|漢紀一|-206|-205|楚漢至2年</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷9](筆記/资治通鉴9.html)|漢紀一|-206|-205|秦末漢初政權逗逼分裂圖|歷代歲首表|楚漢至2年</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>302</v>
       </c>
@@ -4652,15 +4864,18 @@
         <f>VLOOKUP($A11,統計!$A:$G,7,)</f>
         <v>-203</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" t="s">
         <v>355</v>
       </c>
-      <c r="G11" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>[卷10](筆記/资治通鉴10.html)|漢紀二|-204|-203|楚漢3年至4年</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷10](筆記/资治通鉴10.html)|漢紀二|-204|-203||周礼宴请等级、韓信戰役表|楚漢3年至4年</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>303</v>
       </c>
@@ -4679,15 +4894,18 @@
         <f>VLOOKUP($A12,統計!$A:$G,7,)</f>
         <v>-200</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12" t="s">
         <v>356</v>
       </c>
-      <c r="G12" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>[卷11](筆記/资治通鉴11.html)|漢紀三|-202|-200|漢高祖5年至7年</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷11](筆記/资治通鉴11.html)|漢紀三|-202|-200||诏书形式、驿站交通规格、鞋类型|漢高祖5年至7年</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>304</v>
       </c>
@@ -4706,15 +4924,15 @@
         <f>VLOOKUP($A13,統計!$A:$G,7,)</f>
         <v>-188</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>357</v>
       </c>
-      <c r="G13" t="str">
+      <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>[卷12](筆記/资治通鉴12.html)|漢紀四|-199|-188|漢高祖8年至12年、漢惠帝共7年</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷12](筆記/资治通鉴12.html)|漢紀四|-199|-188|||漢高祖8年至12年、漢惠帝共7年</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>305</v>
       </c>
@@ -4734,14 +4952,20 @@
         <v>-178</v>
       </c>
       <c r="F14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" t="s">
         <v>358</v>
       </c>
-      <c r="G14" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>[卷13](筆記/资治通鉴13.html)|漢紀五|-187|-178|漢高后共8年、漢文帝至2年</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷13](筆記/资治通鉴13.html)|漢紀五|-187|-178|諸呂世系圖|汉惠帝挂名子嗣表|漢高后共8年、漢文帝至2年</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>306</v>
       </c>
@@ -4760,15 +4984,18 @@
         <f>VLOOKUP($A15,統計!$A:$G,7,)</f>
         <v>-170</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H15" t="s">
         <v>359</v>
       </c>
-      <c r="G15" t="str">
+      <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>[卷14](筆記/资治通鉴14.html)|漢紀六|-177|-170|漢文帝3年至10年</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷14](筆記/资治通鉴14.html)|漢紀六|-177|-170||汉历代皇帝生前庙名、大夫罪名表、各类彗星|漢文帝3年至10年</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>307</v>
       </c>
@@ -4787,15 +5014,18 @@
         <f>VLOOKUP($A16,統計!$A:$G,7,)</f>
         <v>-155</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" t="s">
         <v>360</v>
       </c>
-      <c r="G16" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>[卷15](筆記/资治通鉴15.html)|漢紀七|-169|-155|漢文帝11年至23年、漢景帝至2年</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷15](筆記/资治通鉴15.html)|漢紀七|-169|-155||秦汉三公九卿概要|漢文帝11年至23年、漢景帝至2年</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>308</v>
       </c>
@@ -4815,14 +5045,20 @@
         <v>-141</v>
       </c>
       <c r="F17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" t="s">
+        <v>404</v>
+      </c>
+      <c r="H17" t="s">
         <v>361</v>
       </c>
-      <c r="G17" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>[卷16](筆記/资治通鉴16.html)|漢紀八|-154|-141|漢景帝3年至16年</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷16](筆記/资治通鉴16.html)|漢紀八|-154|-141|七国之乱世系图、臧兒田竇世系圖|汉徭役类型|漢景帝3年至16年</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>309</v>
       </c>
@@ -4842,14 +5078,20 @@
         <v>-134</v>
       </c>
       <c r="F18" t="s">
+        <v>407</v>
+      </c>
+      <c r="G18" t="s">
+        <v>406</v>
+      </c>
+      <c r="H18" t="s">
         <v>363</v>
       </c>
-      <c r="G18" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>[卷17](筆記/资治通鉴17.html)|漢紀九|-140|-134|漢武帝至7年</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷17](筆記/资治通鉴17.html)|漢紀九|-140|-134|衛霍裙帶世系|牢獄別稱|漢武帝至7年</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>310</v>
       </c>
@@ -4868,15 +5110,18 @@
         <f>VLOOKUP($A19,統計!$A:$G,7,)</f>
         <v>-125</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19" t="s">
         <v>364</v>
       </c>
-      <c r="G19" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>[卷18](筆記/资治通鉴18.html)|漢紀十|-133|-125|漢武帝8年至16年</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷18](筆記/资治通鉴18.html)|漢紀十|-133|-125||武帝時期漢匈重要戰役|漢武帝8年至16年</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>311</v>
       </c>
@@ -4896,14 +5141,20 @@
         <v>-119</v>
       </c>
       <c r="F20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20" t="s">
         <v>365</v>
       </c>
-      <c r="G20" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>[卷19](筆記/资治通鉴19.html)|漢紀十一|-124|-119|漢武帝17年至22年</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷19](筆記/资治通鉴19.html)|漢紀十一|-124|-119|淮南衡山谋反世系、死守外戚的平阳侯曹氏|武功爵表、张骞两次探索各国纪要、白鹿皮币|漢武帝17年至22年</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>312</v>
       </c>
@@ -4922,15 +5173,18 @@
         <f>VLOOKUP($A21,統計!$A:$G,7,)</f>
         <v>-110</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H21" t="s">
         <v>370</v>
       </c>
-      <c r="G21" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>[卷20](筆記/资治通鉴20.html)|漢紀十二|-118|-110|漢武帝17年至23年至31年</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷20](筆記/资治通鉴20.html)|漢紀十二|-118|-110||西南诸夷|漢武帝17年至23年至31年</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>313</v>
       </c>
@@ -4949,15 +5203,15 @@
         <f>VLOOKUP($A22,統計!$A:$G,7,)</f>
         <v>-99</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>371</v>
       </c>
-      <c r="G22" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>[卷21](筆記/资治通鉴21.html)|漢紀十三|-109|-99|漢武帝32年至42年</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷21](筆記/资治通鉴21.html)|漢紀十三|-109|-99|||漢武帝32年至42年</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>314</v>
       </c>
@@ -4976,15 +5230,18 @@
         <f>VLOOKUP($A23,統計!$A:$G,7,)</f>
         <v>-87</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" t="s">
         <v>372</v>
       </c>
-      <c r="G23" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>[卷22](筆記/资治通鉴22.html)|漢紀十四|-98|-87|漢武帝43年至54年</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷22](筆記/资治通鉴22.html)|漢紀十四|-98|-87||西漢時期匈奴官制、汉武帝子嗣、人臣功五品|漢武帝43年至54年</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>315</v>
       </c>
@@ -5004,14 +5261,17 @@
         <v>-75</v>
       </c>
       <c r="F24" t="s">
+        <v>413</v>
+      </c>
+      <c r="H24" t="s">
         <v>373</v>
       </c>
-      <c r="G24" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>[卷23](筆記/资治通鉴23.html)|漢紀十五|-86|-75|漢昭帝至12年</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷23](筆記/资治通鉴23.html)|漢紀十五|-86|-75|匈奴五单于争立背景、假設蓋主嫁王充、上官皇后世系||漢昭帝至12年</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>316</v>
       </c>
@@ -5031,14 +5291,20 @@
         <v>-68</v>
       </c>
       <c r="F25" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" t="s">
         <v>374</v>
       </c>
-      <c r="G25" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>[卷24](筆記/资治通鉴24.html)|漢紀十六|-74|-68|漢昭帝13年、漢廢帝、漢宣帝至6年</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷24](筆記/资治通鉴24.html)|漢紀十六|-74|-68|漢武帝子嗣皇帝示意圖、霍光世系|西漢綬帶顏色、各時代盜墓信息|漢昭帝13年、漢廢帝、漢宣帝至6年</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>317</v>
       </c>
@@ -5057,15 +5323,18 @@
         <f>VLOOKUP($A26,統計!$A:$G,7,)</f>
         <v>-62</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>416</v>
+      </c>
+      <c r="H26" t="s">
         <v>375</v>
       </c>
-      <c r="G26" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>[卷25](筆記/资治通鉴25.html)|漢紀十七|-67|-62|漢宣帝7年至12年</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷25](筆記/资治通鉴25.html)|漢紀十七|-67|-62||五爭車師|漢宣帝7年至12年</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>318</v>
       </c>
@@ -5084,15 +5353,15 @@
         <f>VLOOKUP($A27,統計!$A:$G,7,)</f>
         <v>-59</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="G27" t="str">
+      <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>[卷26](筆記/资治通鉴26.html)|漢紀十八|-61|-59|漢宣帝13年至15年</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷26](筆記/资治通鉴26.html)|漢紀十八|-61|-59|||漢宣帝13年至15年</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>319</v>
       </c>
@@ -5112,14 +5381,20 @@
         <v>-49</v>
       </c>
       <c r="F28" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H28" t="s">
         <v>377</v>
       </c>
-      <c r="G28" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>[卷27](筆記/资治通鉴27.html)|漢紀十九|-58|-49|漢宣帝16年至25年</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷27](筆記/资治通鉴27.html)|漢紀十九|-58|-49|麒麟閣十一功臣成分|五單于爭立表|漢宣帝16年至25年</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>320</v>
       </c>
@@ -5138,15 +5413,18 @@
         <f>VLOOKUP($A29,統計!$A:$G,7,)</f>
         <v>-42</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" t="s">
         <v>378</v>
       </c>
-      <c r="G29" t="str">
+      <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>[卷28](筆記/资治通鉴28.html)|漢紀二十|-48|-42|漢元帝至7年</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷28](筆記/资治通鉴28.html)|漢紀二十|-48|-42||蕭史黨爭表、舜命九官（尚書）|漢元帝至7年</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>321</v>
       </c>
@@ -5165,15 +5443,18 @@
         <f>VLOOKUP($A30,統計!$A:$G,7,)</f>
         <v>-33</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" t="s">
+        <v>420</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="G30" t="str">
+      <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>[卷29](筆記/资治通鉴29.html)|漢紀二十一|-41|-33|漢元帝8年至16年</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷29](筆記/资治通鉴29.html)|漢紀二十一|-41|-33|金日磾及班彪世系||漢元帝8年至16年</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>322</v>
       </c>
@@ -5192,15 +5473,18 @@
         <f>VLOOKUP($A31,統計!$A:$G,7,)</f>
         <v>-23</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" t="s">
+        <v>421</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="G31" t="str">
+      <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>[卷30](筆記/资治通鉴30.html)|漢紀二十二|-32|-23|漢成帝至10年</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷30](筆記/资治通鉴30.html)|漢紀二十二|-32|-23|呼韓邪世系||漢成帝至10年</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>323</v>
       </c>
@@ -5220,14 +5504,20 @@
         <v>-14</v>
       </c>
       <c r="F32" t="s">
+        <v>422</v>
+      </c>
+      <c r="G32" t="s">
+        <v>423</v>
+      </c>
+      <c r="H32" t="s">
         <v>381</v>
       </c>
-      <c r="G32" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>[卷31](筆記/资治通鉴31.html)|漢紀二十三|-22|-14|漢成帝11年19年</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷31](筆記/资治通鉴31.html)|漢紀二十三|-22|-14|許平君世系、班氏世系|墳形製|漢成帝11年19年</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>324</v>
       </c>
@@ -5247,14 +5537,17 @@
         <v>-8</v>
       </c>
       <c r="F33" t="s">
+        <v>424</v>
+      </c>
+      <c r="H33" t="s">
         <v>382</v>
       </c>
-      <c r="G33" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>[卷32](筆記/资治通鉴32.html)|漢紀二十四|-13|-8|漢成帝20年至25年</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷32](筆記/资治通鉴32.html)|漢紀二十四|-13|-8|馮奉世世系||漢成帝20年至25年</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>325</v>
       </c>
@@ -5274,14 +5567,17 @@
         <v>-6</v>
       </c>
       <c r="F34" t="s">
+        <v>425</v>
+      </c>
+      <c r="H34" t="s">
         <v>383</v>
       </c>
-      <c r="G34" t="str">
+      <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>[卷33](筆記/资治通鉴33.html)|漢紀二十五|-7|-6|漢成帝26年、漢哀帝元年</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷33](筆記/资治通鉴33.html)|漢紀二十五|-7|-6|傅丁太后世系||漢成帝26年、漢哀帝元年</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>326</v>
       </c>
@@ -5300,15 +5596,18 @@
         <f>VLOOKUP($A35,統計!$A:$G,7,)</f>
         <v>-3</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>426</v>
+      </c>
+      <c r="H35" t="s">
         <v>384</v>
       </c>
-      <c r="G35" t="str">
+      <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>[卷34](筆記/资治通鉴34.html)|漢紀二十六|-5|-3|漢哀帝2年至4年</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷34](筆記/资治通鉴34.html)|漢紀二十六|-5|-3||西漢帝王男寵表|漢哀帝2年至4年</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>327</v>
       </c>
@@ -5328,14 +5627,20 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" t="s">
+        <v>427</v>
+      </c>
+      <c r="H36" t="s">
         <v>385</v>
       </c>
-      <c r="G36" t="str">
+      <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>[卷35](筆記/资治通鉴35.html)|漢紀二十七|-2|2|漢哀帝5年至6年、漢平帝至2年</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>[卷35](筆記/资治通鉴35.html)|漢紀二十七|-2|2|衛子夫後衛氏世系|新三公分職|漢哀帝5年至6年、漢平帝至2年</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>328</v>
       </c>
@@ -5354,12 +5659,12 @@
         <f>VLOOKUP($A37,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G37" t="e">
+      <c r="I37" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>329</v>
       </c>
@@ -5378,12 +5683,12 @@
         <f>VLOOKUP($A38,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G38" t="e">
+      <c r="I38" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>330</v>
       </c>
@@ -5402,12 +5707,12 @@
         <f>VLOOKUP($A39,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G39" t="e">
+      <c r="I39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>331</v>
       </c>
@@ -5426,12 +5731,12 @@
         <f>VLOOKUP($A40,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G40" t="e">
+      <c r="I40" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>332</v>
       </c>
@@ -5450,12 +5755,12 @@
         <f>VLOOKUP($A41,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G41" t="e">
+      <c r="I41" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>333</v>
       </c>
@@ -5474,12 +5779,12 @@
         <f>VLOOKUP($A42,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G42" t="e">
+      <c r="I42" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>334</v>
       </c>
@@ -5498,12 +5803,12 @@
         <f>VLOOKUP($A43,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G43" t="e">
+      <c r="I43" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>335</v>
       </c>
@@ -5522,12 +5827,12 @@
         <f>VLOOKUP($A44,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G44" t="e">
+      <c r="I44" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>336</v>
       </c>
@@ -5546,12 +5851,12 @@
         <f>VLOOKUP($A45,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G45" t="e">
+      <c r="I45" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>337</v>
       </c>
@@ -5570,12 +5875,12 @@
         <f>VLOOKUP($A46,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G46" t="e">
+      <c r="I46" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>338</v>
       </c>
@@ -5594,12 +5899,12 @@
         <f>VLOOKUP($A47,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G47" t="e">
+      <c r="I47" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>339</v>
       </c>
@@ -5618,12 +5923,12 @@
         <f>VLOOKUP($A48,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G48" t="e">
+      <c r="I48" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>340</v>
       </c>
@@ -5642,12 +5947,12 @@
         <f>VLOOKUP($A49,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G49" t="e">
+      <c r="I49" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>341</v>
       </c>
@@ -5666,12 +5971,12 @@
         <f>VLOOKUP($A50,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G50" t="e">
+      <c r="I50" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>342</v>
       </c>
@@ -5690,12 +5995,12 @@
         <f>VLOOKUP($A51,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G51" t="e">
+      <c r="I51" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>343</v>
       </c>
@@ -5714,12 +6019,12 @@
         <f>VLOOKUP($A52,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G52" t="e">
+      <c r="I52" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>344</v>
       </c>
@@ -5738,12 +6043,12 @@
         <f>VLOOKUP($A53,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G53" t="e">
+      <c r="I53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>345</v>
       </c>
@@ -5762,12 +6067,12 @@
         <f>VLOOKUP($A54,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G54" t="e">
+      <c r="I54" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>346</v>
       </c>
@@ -5786,12 +6091,12 @@
         <f>VLOOKUP($A55,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G55" t="e">
+      <c r="I55" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>347</v>
       </c>
@@ -5810,12 +6115,12 @@
         <f>VLOOKUP($A56,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G56" t="e">
+      <c r="I56" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>348</v>
       </c>
@@ -5834,12 +6139,12 @@
         <f>VLOOKUP($A57,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G57" t="e">
+      <c r="I57" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>349</v>
       </c>
@@ -5858,12 +6163,12 @@
         <f>VLOOKUP($A58,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G58" t="e">
+      <c r="I58" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>350</v>
       </c>
@@ -5882,12 +6187,12 @@
         <f>VLOOKUP($A59,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G59" t="e">
+      <c r="I59" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>351</v>
       </c>
@@ -5906,12 +6211,12 @@
         <f>VLOOKUP($A60,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G60" t="e">
+      <c r="I60" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>352</v>
       </c>
@@ -5930,12 +6235,12 @@
         <f>VLOOKUP($A61,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G61" t="e">
+      <c r="I61" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>353</v>
       </c>
@@ -5954,12 +6259,12 @@
         <f>VLOOKUP($A62,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G62" t="e">
+      <c r="I62" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>354</v>
       </c>
@@ -5978,12 +6283,12 @@
         <f>VLOOKUP($A63,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G63" t="e">
+      <c r="I63" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>355</v>
       </c>
@@ -6002,12 +6307,12 @@
         <f>VLOOKUP($A64,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G64" t="e">
+      <c r="I64" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>356</v>
       </c>
@@ -6026,12 +6331,12 @@
         <f>VLOOKUP($A65,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G65" t="e">
+      <c r="I65" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>357</v>
       </c>
@@ -6050,12 +6355,12 @@
         <f>VLOOKUP($A66,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G66" t="e">
+      <c r="I66" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>358</v>
       </c>
@@ -6074,12 +6379,12 @@
         <f>VLOOKUP($A67,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G67" t="e">
-        <f t="shared" ref="G67:G130" si="1">"["&amp;B67&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B67,"卷","")&amp;".html)|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67&amp;"|"&amp;F67</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I67" t="e">
+        <f t="shared" ref="I67:I130" si="1">"["&amp;B67&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B67,"卷","")&amp;".html)|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67&amp;"|"&amp;F67&amp;"|"&amp;G67&amp;"|"&amp;H67</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>359</v>
       </c>
@@ -6098,12 +6403,12 @@
         <f>VLOOKUP($A68,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G68" t="e">
+      <c r="I68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>360</v>
       </c>
@@ -6122,12 +6427,12 @@
         <f>VLOOKUP($A69,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G69" t="e">
+      <c r="I69" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>401</v>
       </c>
@@ -6146,12 +6451,12 @@
         <f>VLOOKUP($A70,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G70" t="e">
+      <c r="I70" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>402</v>
       </c>
@@ -6170,12 +6475,12 @@
         <f>VLOOKUP($A71,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G71" t="e">
+      <c r="I71" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>403</v>
       </c>
@@ -6194,12 +6499,12 @@
         <f>VLOOKUP($A72,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G72" t="e">
+      <c r="I72" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>404</v>
       </c>
@@ -6218,12 +6523,12 @@
         <f>VLOOKUP($A73,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G73" t="e">
+      <c r="I73" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>405</v>
       </c>
@@ -6242,12 +6547,12 @@
         <f>VLOOKUP($A74,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G74" t="e">
+      <c r="I74" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>406</v>
       </c>
@@ -6266,12 +6571,12 @@
         <f>VLOOKUP($A75,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G75" t="e">
+      <c r="I75" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>407</v>
       </c>
@@ -6290,12 +6595,12 @@
         <f>VLOOKUP($A76,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G76" t="e">
+      <c r="I76" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>408</v>
       </c>
@@ -6314,12 +6619,12 @@
         <f>VLOOKUP($A77,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G77" t="e">
+      <c r="I77" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>409</v>
       </c>
@@ -6338,12 +6643,12 @@
         <f>VLOOKUP($A78,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G78" t="e">
+      <c r="I78" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>410</v>
       </c>
@@ -6362,12 +6667,12 @@
         <f>VLOOKUP($A79,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G79" t="e">
+      <c r="I79" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>501</v>
       </c>
@@ -6386,12 +6691,12 @@
         <f>VLOOKUP($A80,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G80" t="e">
+      <c r="I80" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>502</v>
       </c>
@@ -6410,12 +6715,12 @@
         <f>VLOOKUP($A81,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G81" t="e">
+      <c r="I81" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>503</v>
       </c>
@@ -6434,12 +6739,12 @@
         <f>VLOOKUP($A82,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G82" t="e">
+      <c r="I82" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>504</v>
       </c>
@@ -6458,12 +6763,12 @@
         <f>VLOOKUP($A83,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G83" t="e">
+      <c r="I83" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>505</v>
       </c>
@@ -6482,12 +6787,12 @@
         <f>VLOOKUP($A84,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G84" t="e">
+      <c r="I84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>506</v>
       </c>
@@ -6506,12 +6811,12 @@
         <f>VLOOKUP($A85,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G85" t="e">
+      <c r="I85" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>507</v>
       </c>
@@ -6530,12 +6835,12 @@
         <f>VLOOKUP($A86,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G86" t="e">
+      <c r="I86" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>508</v>
       </c>
@@ -6554,12 +6859,12 @@
         <f>VLOOKUP($A87,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G87" t="e">
+      <c r="I87" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>509</v>
       </c>
@@ -6578,12 +6883,12 @@
         <f>VLOOKUP($A88,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G88" t="e">
+      <c r="I88" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>510</v>
       </c>
@@ -6602,12 +6907,12 @@
         <f>VLOOKUP($A89,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G89" t="e">
+      <c r="I89" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>511</v>
       </c>
@@ -6626,12 +6931,12 @@
         <f>VLOOKUP($A90,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G90" t="e">
+      <c r="I90" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>512</v>
       </c>
@@ -6650,12 +6955,12 @@
         <f>VLOOKUP($A91,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G91" t="e">
+      <c r="I91" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>513</v>
       </c>
@@ -6674,12 +6979,12 @@
         <f>VLOOKUP($A92,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G92" t="e">
+      <c r="I92" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>514</v>
       </c>
@@ -6698,12 +7003,12 @@
         <f>VLOOKUP($A93,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G93" t="e">
+      <c r="I93" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>515</v>
       </c>
@@ -6722,12 +7027,12 @@
         <f>VLOOKUP($A94,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G94" t="e">
+      <c r="I94" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>516</v>
       </c>
@@ -6746,12 +7051,12 @@
         <f>VLOOKUP($A95,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" t="e">
+      <c r="I95" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>517</v>
       </c>
@@ -6770,12 +7075,12 @@
         <f>VLOOKUP($A96,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G96" t="e">
+      <c r="I96" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>518</v>
       </c>
@@ -6794,12 +7099,12 @@
         <f>VLOOKUP($A97,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G97" t="e">
+      <c r="I97" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>519</v>
       </c>
@@ -6818,12 +7123,12 @@
         <f>VLOOKUP($A98,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G98" t="e">
+      <c r="I98" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>520</v>
       </c>
@@ -6842,12 +7147,12 @@
         <f>VLOOKUP($A99,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G99" t="e">
+      <c r="I99" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>521</v>
       </c>
@@ -6866,12 +7171,12 @@
         <f>VLOOKUP($A100,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G100" t="e">
+      <c r="I100" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>522</v>
       </c>
@@ -6890,12 +7195,12 @@
         <f>VLOOKUP($A101,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G101" t="e">
+      <c r="I101" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>523</v>
       </c>
@@ -6914,12 +7219,12 @@
         <f>VLOOKUP($A102,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G102" t="e">
+      <c r="I102" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>524</v>
       </c>
@@ -6938,12 +7243,12 @@
         <f>VLOOKUP($A103,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G103" t="e">
+      <c r="I103" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>525</v>
       </c>
@@ -6962,12 +7267,12 @@
         <f>VLOOKUP($A104,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G104" t="e">
+      <c r="I104" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>526</v>
       </c>
@@ -6986,12 +7291,12 @@
         <f>VLOOKUP($A105,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G105" t="e">
+      <c r="I105" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>527</v>
       </c>
@@ -7010,12 +7315,12 @@
         <f>VLOOKUP($A106,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G106" t="e">
+      <c r="I106" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>528</v>
       </c>
@@ -7034,12 +7339,12 @@
         <f>VLOOKUP($A107,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G107" t="e">
+      <c r="I107" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>529</v>
       </c>
@@ -7058,12 +7363,12 @@
         <f>VLOOKUP($A108,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G108" t="e">
+      <c r="I108" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>530</v>
       </c>
@@ -7082,12 +7387,12 @@
         <f>VLOOKUP($A109,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G109" t="e">
+      <c r="I109" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>531</v>
       </c>
@@ -7106,12 +7411,12 @@
         <f>VLOOKUP($A110,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G110" t="e">
+      <c r="I110" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>532</v>
       </c>
@@ -7130,12 +7435,12 @@
         <f>VLOOKUP($A111,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G111" t="e">
+      <c r="I111" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>533</v>
       </c>
@@ -7154,12 +7459,12 @@
         <f>VLOOKUP($A112,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G112" t="e">
+      <c r="I112" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>534</v>
       </c>
@@ -7178,12 +7483,12 @@
         <f>VLOOKUP($A113,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G113" t="e">
+      <c r="I113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>535</v>
       </c>
@@ -7202,12 +7507,12 @@
         <f>VLOOKUP($A114,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G114" t="e">
+      <c r="I114" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>536</v>
       </c>
@@ -7226,12 +7531,12 @@
         <f>VLOOKUP($A115,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G115" t="e">
+      <c r="I115" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>537</v>
       </c>
@@ -7250,12 +7555,12 @@
         <f>VLOOKUP($A116,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G116" t="e">
+      <c r="I116" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>538</v>
       </c>
@@ -7274,12 +7579,12 @@
         <f>VLOOKUP($A117,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G117" t="e">
+      <c r="I117" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>539</v>
       </c>
@@ -7298,12 +7603,12 @@
         <f>VLOOKUP($A118,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G118" t="e">
+      <c r="I118" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>540</v>
       </c>
@@ -7322,12 +7627,12 @@
         <f>VLOOKUP($A119,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G119" t="e">
+      <c r="I119" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>601</v>
       </c>
@@ -7346,12 +7651,12 @@
         <f>VLOOKUP($A120,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G120" t="e">
+      <c r="I120" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>602</v>
       </c>
@@ -7370,12 +7675,12 @@
         <f>VLOOKUP($A121,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G121" t="e">
+      <c r="I121" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>603</v>
       </c>
@@ -7394,12 +7699,12 @@
         <f>VLOOKUP($A122,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G122" t="e">
+      <c r="I122" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>604</v>
       </c>
@@ -7418,12 +7723,12 @@
         <f>VLOOKUP($A123,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G123" t="e">
+      <c r="I123" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>605</v>
       </c>
@@ -7442,12 +7747,12 @@
         <f>VLOOKUP($A124,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G124" t="e">
+      <c r="I124" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>606</v>
       </c>
@@ -7466,12 +7771,12 @@
         <f>VLOOKUP($A125,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G125" t="e">
+      <c r="I125" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>607</v>
       </c>
@@ -7490,12 +7795,12 @@
         <f>VLOOKUP($A126,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G126" t="e">
+      <c r="I126" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>608</v>
       </c>
@@ -7514,12 +7819,12 @@
         <f>VLOOKUP($A127,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G127" t="e">
+      <c r="I127" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>609</v>
       </c>
@@ -7538,12 +7843,12 @@
         <f>VLOOKUP($A128,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G128" t="e">
+      <c r="I128" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>610</v>
       </c>
@@ -7562,12 +7867,12 @@
         <f>VLOOKUP($A129,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G129" t="e">
+      <c r="I129" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>611</v>
       </c>
@@ -7586,12 +7891,12 @@
         <f>VLOOKUP($A130,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G130" t="e">
+      <c r="I130" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>612</v>
       </c>
@@ -7610,12 +7915,12 @@
         <f>VLOOKUP($A131,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G131" t="e">
-        <f t="shared" ref="G131:G194" si="2">"["&amp;B131&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B131,"卷","")&amp;".html)|"&amp;C131&amp;"|"&amp;D131&amp;"|"&amp;E131&amp;"|"&amp;F131</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I131" t="e">
+        <f t="shared" ref="I131:I194" si="2">"["&amp;B131&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B131,"卷","")&amp;".html)|"&amp;C131&amp;"|"&amp;D131&amp;"|"&amp;E131&amp;"|"&amp;F131&amp;"|"&amp;G131&amp;"|"&amp;H131</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>613</v>
       </c>
@@ -7634,12 +7939,12 @@
         <f>VLOOKUP($A132,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G132" t="e">
+      <c r="I132" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>614</v>
       </c>
@@ -7658,12 +7963,12 @@
         <f>VLOOKUP($A133,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G133" t="e">
+      <c r="I133" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>615</v>
       </c>
@@ -7682,12 +7987,12 @@
         <f>VLOOKUP($A134,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G134" t="e">
+      <c r="I134" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>616</v>
       </c>
@@ -7706,12 +8011,12 @@
         <f>VLOOKUP($A135,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G135" t="e">
+      <c r="I135" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>701</v>
       </c>
@@ -7730,12 +8035,12 @@
         <f>VLOOKUP($A136,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G136" t="e">
+      <c r="I136" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>702</v>
       </c>
@@ -7754,12 +8059,12 @@
         <f>VLOOKUP($A137,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G137" t="e">
+      <c r="I137" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>703</v>
       </c>
@@ -7778,12 +8083,12 @@
         <f>VLOOKUP($A138,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G138" t="e">
+      <c r="I138" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>704</v>
       </c>
@@ -7802,12 +8107,12 @@
         <f>VLOOKUP($A139,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G139" t="e">
+      <c r="I139" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>705</v>
       </c>
@@ -7826,12 +8131,12 @@
         <f>VLOOKUP($A140,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G140" t="e">
+      <c r="I140" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>706</v>
       </c>
@@ -7850,12 +8155,12 @@
         <f>VLOOKUP($A141,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G141" t="e">
+      <c r="I141" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>707</v>
       </c>
@@ -7874,12 +8179,12 @@
         <f>VLOOKUP($A142,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G142" t="e">
+      <c r="I142" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>708</v>
       </c>
@@ -7898,12 +8203,12 @@
         <f>VLOOKUP($A143,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G143" t="e">
+      <c r="I143" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>709</v>
       </c>
@@ -7922,12 +8227,12 @@
         <f>VLOOKUP($A144,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G144" t="e">
+      <c r="I144" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>710</v>
       </c>
@@ -7946,12 +8251,12 @@
         <f>VLOOKUP($A145,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G145" t="e">
+      <c r="I145" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>801</v>
       </c>
@@ -7970,12 +8275,12 @@
         <f>VLOOKUP($A146,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G146" t="e">
+      <c r="I146" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>802</v>
       </c>
@@ -7994,12 +8299,12 @@
         <f>VLOOKUP($A147,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G147" t="e">
+      <c r="I147" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>803</v>
       </c>
@@ -8018,12 +8323,12 @@
         <f>VLOOKUP($A148,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G148" t="e">
+      <c r="I148" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>804</v>
       </c>
@@ -8042,12 +8347,12 @@
         <f>VLOOKUP($A149,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G149" t="e">
+      <c r="I149" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>805</v>
       </c>
@@ -8066,12 +8371,12 @@
         <f>VLOOKUP($A150,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G150" t="e">
+      <c r="I150" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>806</v>
       </c>
@@ -8090,12 +8395,12 @@
         <f>VLOOKUP($A151,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G151" t="e">
+      <c r="I151" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>807</v>
       </c>
@@ -8114,12 +8419,12 @@
         <f>VLOOKUP($A152,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G152" t="e">
+      <c r="I152" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>808</v>
       </c>
@@ -8138,12 +8443,12 @@
         <f>VLOOKUP($A153,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G153" t="e">
+      <c r="I153" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>809</v>
       </c>
@@ -8162,12 +8467,12 @@
         <f>VLOOKUP($A154,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G154" t="e">
+      <c r="I154" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>810</v>
       </c>
@@ -8186,12 +8491,12 @@
         <f>VLOOKUP($A155,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G155" t="e">
+      <c r="I155" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>811</v>
       </c>
@@ -8210,12 +8515,12 @@
         <f>VLOOKUP($A156,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G156" t="e">
+      <c r="I156" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>812</v>
       </c>
@@ -8234,12 +8539,12 @@
         <f>VLOOKUP($A157,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G157" t="e">
+      <c r="I157" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>813</v>
       </c>
@@ -8258,12 +8563,12 @@
         <f>VLOOKUP($A158,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G158" t="e">
+      <c r="I158" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>814</v>
       </c>
@@ -8282,12 +8587,12 @@
         <f>VLOOKUP($A159,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G159" t="e">
+      <c r="I159" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>815</v>
       </c>
@@ -8306,12 +8611,12 @@
         <f>VLOOKUP($A160,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G160" t="e">
+      <c r="I160" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>816</v>
       </c>
@@ -8330,12 +8635,12 @@
         <f>VLOOKUP($A161,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G161" t="e">
+      <c r="I161" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>817</v>
       </c>
@@ -8354,12 +8659,12 @@
         <f>VLOOKUP($A162,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G162" t="e">
+      <c r="I162" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>818</v>
       </c>
@@ -8378,12 +8683,12 @@
         <f>VLOOKUP($A163,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G163" t="e">
+      <c r="I163" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>819</v>
       </c>
@@ -8402,12 +8707,12 @@
         <f>VLOOKUP($A164,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G164" t="e">
+      <c r="I164" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>820</v>
       </c>
@@ -8426,12 +8731,12 @@
         <f>VLOOKUP($A165,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G165" t="e">
+      <c r="I165" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>821</v>
       </c>
@@ -8450,12 +8755,12 @@
         <f>VLOOKUP($A166,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G166" t="e">
+      <c r="I166" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>822</v>
       </c>
@@ -8474,12 +8779,12 @@
         <f>VLOOKUP($A167,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G167" t="e">
+      <c r="I167" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>901</v>
       </c>
@@ -8498,12 +8803,12 @@
         <f>VLOOKUP($A168,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G168" t="e">
+      <c r="I168" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>902</v>
       </c>
@@ -8522,12 +8827,12 @@
         <f>VLOOKUP($A169,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G169" t="e">
+      <c r="I169" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>903</v>
       </c>
@@ -8546,12 +8851,12 @@
         <f>VLOOKUP($A170,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G170" t="e">
+      <c r="I170" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>904</v>
       </c>
@@ -8570,12 +8875,12 @@
         <f>VLOOKUP($A171,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G171" t="e">
+      <c r="I171" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>905</v>
       </c>
@@ -8594,12 +8899,12 @@
         <f>VLOOKUP($A172,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G172" t="e">
+      <c r="I172" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>906</v>
       </c>
@@ -8618,12 +8923,12 @@
         <f>VLOOKUP($A173,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G173" t="e">
+      <c r="I173" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>907</v>
       </c>
@@ -8642,12 +8947,12 @@
         <f>VLOOKUP($A174,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G174" t="e">
+      <c r="I174" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>908</v>
       </c>
@@ -8666,12 +8971,12 @@
         <f>VLOOKUP($A175,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G175" t="e">
+      <c r="I175" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>909</v>
       </c>
@@ -8690,12 +8995,12 @@
         <f>VLOOKUP($A176,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G176" t="e">
+      <c r="I176" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>910</v>
       </c>
@@ -8714,12 +9019,12 @@
         <f>VLOOKUP($A177,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G177" t="e">
+      <c r="I177" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>1001</v>
       </c>
@@ -8738,12 +9043,12 @@
         <f>VLOOKUP($A178,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G178" t="e">
+      <c r="I178" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>1002</v>
       </c>
@@ -8762,12 +9067,12 @@
         <f>VLOOKUP($A179,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G179" t="e">
+      <c r="I179" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>1003</v>
       </c>
@@ -8786,12 +9091,12 @@
         <f>VLOOKUP($A180,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G180" t="e">
+      <c r="I180" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>1004</v>
       </c>
@@ -8810,12 +9115,12 @@
         <f>VLOOKUP($A181,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G181" t="e">
+      <c r="I181" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>1005</v>
       </c>
@@ -8834,12 +9139,12 @@
         <f>VLOOKUP($A182,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G182" t="e">
+      <c r="I182" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>1006</v>
       </c>
@@ -8858,12 +9163,12 @@
         <f>VLOOKUP($A183,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G183" t="e">
+      <c r="I183" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>1007</v>
       </c>
@@ -8882,12 +9187,12 @@
         <f>VLOOKUP($A184,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G184" t="e">
+      <c r="I184" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>1008</v>
       </c>
@@ -8906,12 +9211,12 @@
         <f>VLOOKUP($A185,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G185" t="e">
+      <c r="I185" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1101</v>
       </c>
@@ -8930,12 +9235,12 @@
         <f>VLOOKUP($A186,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G186" t="e">
+      <c r="I186" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>1102</v>
       </c>
@@ -8954,12 +9259,12 @@
         <f>VLOOKUP($A187,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G187" t="e">
+      <c r="I187" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>1103</v>
       </c>
@@ -8978,12 +9283,12 @@
         <f>VLOOKUP($A188,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G188" t="e">
+      <c r="I188" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1104</v>
       </c>
@@ -9002,12 +9307,12 @@
         <f>VLOOKUP($A189,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G189" t="e">
+      <c r="I189" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>1105</v>
       </c>
@@ -9026,12 +9331,12 @@
         <f>VLOOKUP($A190,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G190" t="e">
+      <c r="I190" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>1106</v>
       </c>
@@ -9050,12 +9355,12 @@
         <f>VLOOKUP($A191,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G191" t="e">
+      <c r="I191" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>1107</v>
       </c>
@@ -9074,12 +9379,12 @@
         <f>VLOOKUP($A192,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G192" t="e">
+      <c r="I192" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>1108</v>
       </c>
@@ -9098,12 +9403,12 @@
         <f>VLOOKUP($A193,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G193" t="e">
+      <c r="I193" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>1109</v>
       </c>
@@ -9122,12 +9427,12 @@
         <f>VLOOKUP($A194,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G194" t="e">
+      <c r="I194" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>1110</v>
       </c>
@@ -9146,12 +9451,12 @@
         <f>VLOOKUP($A195,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G195" t="e">
-        <f t="shared" ref="G195:G258" si="3">"["&amp;B195&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B195,"卷","")&amp;".html)|"&amp;C195&amp;"|"&amp;D195&amp;"|"&amp;E195&amp;"|"&amp;F195</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I195" t="e">
+        <f t="shared" ref="I195:I258" si="3">"["&amp;B195&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B195,"卷","")&amp;".html)|"&amp;C195&amp;"|"&amp;D195&amp;"|"&amp;E195&amp;"|"&amp;F195&amp;"|"&amp;G195&amp;"|"&amp;H195</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>1111</v>
       </c>
@@ -9170,12 +9475,12 @@
         <f>VLOOKUP($A196,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G196" t="e">
+      <c r="I196" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>1112</v>
       </c>
@@ -9194,12 +9499,12 @@
         <f>VLOOKUP($A197,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G197" t="e">
+      <c r="I197" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>1113</v>
       </c>
@@ -9218,12 +9523,12 @@
         <f>VLOOKUP($A198,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G198" t="e">
+      <c r="I198" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>1114</v>
       </c>
@@ -9242,12 +9547,12 @@
         <f>VLOOKUP($A199,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G199" t="e">
+      <c r="I199" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>1115</v>
       </c>
@@ -9266,12 +9571,12 @@
         <f>VLOOKUP($A200,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G200" t="e">
+      <c r="I200" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>1116</v>
       </c>
@@ -9290,12 +9595,12 @@
         <f>VLOOKUP($A201,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G201" t="e">
+      <c r="I201" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>1117</v>
       </c>
@@ -9314,12 +9619,12 @@
         <f>VLOOKUP($A202,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G202" t="e">
+      <c r="I202" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>1118</v>
       </c>
@@ -9338,12 +9643,12 @@
         <f>VLOOKUP($A203,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G203" t="e">
+      <c r="I203" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>1119</v>
       </c>
@@ -9362,12 +9667,12 @@
         <f>VLOOKUP($A204,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G204" t="e">
+      <c r="I204" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>1120</v>
       </c>
@@ -9386,12 +9691,12 @@
         <f>VLOOKUP($A205,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G205" t="e">
+      <c r="I205" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>1121</v>
       </c>
@@ -9410,12 +9715,12 @@
         <f>VLOOKUP($A206,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G206" t="e">
+      <c r="I206" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>1122</v>
       </c>
@@ -9434,12 +9739,12 @@
         <f>VLOOKUP($A207,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G207" t="e">
+      <c r="I207" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>1123</v>
       </c>
@@ -9458,12 +9763,12 @@
         <f>VLOOKUP($A208,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G208" t="e">
+      <c r="I208" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>1124</v>
       </c>
@@ -9482,12 +9787,12 @@
         <f>VLOOKUP($A209,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G209" t="e">
+      <c r="I209" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>1125</v>
       </c>
@@ -9506,12 +9811,12 @@
         <f>VLOOKUP($A210,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G210" t="e">
+      <c r="I210" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>1126</v>
       </c>
@@ -9530,12 +9835,12 @@
         <f>VLOOKUP($A211,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G211" t="e">
+      <c r="I211" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>1127</v>
       </c>
@@ -9554,12 +9859,12 @@
         <f>VLOOKUP($A212,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G212" t="e">
+      <c r="I212" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>1128</v>
       </c>
@@ -9578,12 +9883,12 @@
         <f>VLOOKUP($A213,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G213" t="e">
+      <c r="I213" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>1129</v>
       </c>
@@ -9602,12 +9907,12 @@
         <f>VLOOKUP($A214,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G214" t="e">
+      <c r="I214" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>1130</v>
       </c>
@@ -9626,12 +9931,12 @@
         <f>VLOOKUP($A215,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G215" t="e">
+      <c r="I215" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>1131</v>
       </c>
@@ -9650,12 +9955,12 @@
         <f>VLOOKUP($A216,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G216" t="e">
+      <c r="I216" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>1132</v>
       </c>
@@ -9674,12 +9979,12 @@
         <f>VLOOKUP($A217,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G217" t="e">
+      <c r="I217" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>1133</v>
       </c>
@@ -9698,12 +10003,12 @@
         <f>VLOOKUP($A218,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G218" t="e">
+      <c r="I218" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>1134</v>
       </c>
@@ -9722,12 +10027,12 @@
         <f>VLOOKUP($A219,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G219" t="e">
+      <c r="I219" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>1135</v>
       </c>
@@ -9746,12 +10051,12 @@
         <f>VLOOKUP($A220,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G220" t="e">
+      <c r="I220" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>1136</v>
       </c>
@@ -9770,12 +10075,12 @@
         <f>VLOOKUP($A221,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G221" t="e">
+      <c r="I221" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>1137</v>
       </c>
@@ -9794,12 +10099,12 @@
         <f>VLOOKUP($A222,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G222" t="e">
+      <c r="I222" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>1138</v>
       </c>
@@ -9818,12 +10123,12 @@
         <f>VLOOKUP($A223,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G223" t="e">
+      <c r="I223" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>1139</v>
       </c>
@@ -9842,12 +10147,12 @@
         <f>VLOOKUP($A224,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G224" t="e">
+      <c r="I224" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>1140</v>
       </c>
@@ -9866,12 +10171,12 @@
         <f>VLOOKUP($A225,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G225" t="e">
+      <c r="I225" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>1141</v>
       </c>
@@ -9890,12 +10195,12 @@
         <f>VLOOKUP($A226,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G226" t="e">
+      <c r="I226" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>1142</v>
       </c>
@@ -9914,12 +10219,12 @@
         <f>VLOOKUP($A227,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G227" t="e">
+      <c r="I227" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>1143</v>
       </c>
@@ -9938,12 +10243,12 @@
         <f>VLOOKUP($A228,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G228" t="e">
+      <c r="I228" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>1144</v>
       </c>
@@ -9962,12 +10267,12 @@
         <f>VLOOKUP($A229,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G229" t="e">
+      <c r="I229" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>1145</v>
       </c>
@@ -9986,12 +10291,12 @@
         <f>VLOOKUP($A230,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G230" t="e">
+      <c r="I230" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>1146</v>
       </c>
@@ -10010,12 +10315,12 @@
         <f>VLOOKUP($A231,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G231" t="e">
+      <c r="I231" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>1147</v>
       </c>
@@ -10034,12 +10339,12 @@
         <f>VLOOKUP($A232,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G232" t="e">
+      <c r="I232" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>1148</v>
       </c>
@@ -10058,12 +10363,12 @@
         <f>VLOOKUP($A233,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G233" t="e">
+      <c r="I233" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>1149</v>
       </c>
@@ -10082,12 +10387,12 @@
         <f>VLOOKUP($A234,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G234" t="e">
+      <c r="I234" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>1150</v>
       </c>
@@ -10106,12 +10411,12 @@
         <f>VLOOKUP($A235,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G235" t="e">
+      <c r="I235" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>1151</v>
       </c>
@@ -10130,12 +10435,12 @@
         <f>VLOOKUP($A236,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G236" t="e">
+      <c r="I236" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>1152</v>
       </c>
@@ -10154,12 +10459,12 @@
         <f>VLOOKUP($A237,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G237" t="e">
+      <c r="I237" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>1153</v>
       </c>
@@ -10178,12 +10483,12 @@
         <f>VLOOKUP($A238,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G238" t="e">
+      <c r="I238" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>1154</v>
       </c>
@@ -10202,12 +10507,12 @@
         <f>VLOOKUP($A239,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G239" t="e">
+      <c r="I239" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>1155</v>
       </c>
@@ -10226,12 +10531,12 @@
         <f>VLOOKUP($A240,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G240" t="e">
+      <c r="I240" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>1156</v>
       </c>
@@ -10250,12 +10555,12 @@
         <f>VLOOKUP($A241,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G241" t="e">
+      <c r="I241" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>1157</v>
       </c>
@@ -10274,12 +10579,12 @@
         <f>VLOOKUP($A242,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G242" t="e">
+      <c r="I242" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>1158</v>
       </c>
@@ -10298,12 +10603,12 @@
         <f>VLOOKUP($A243,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G243" t="e">
+      <c r="I243" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>1159</v>
       </c>
@@ -10322,12 +10627,12 @@
         <f>VLOOKUP($A244,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G244" t="e">
+      <c r="I244" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>1160</v>
       </c>
@@ -10346,12 +10651,12 @@
         <f>VLOOKUP($A245,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G245" t="e">
+      <c r="I245" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>1161</v>
       </c>
@@ -10370,12 +10675,12 @@
         <f>VLOOKUP($A246,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G246" t="e">
+      <c r="I246" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>1162</v>
       </c>
@@ -10394,12 +10699,12 @@
         <f>VLOOKUP($A247,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G247" t="e">
+      <c r="I247" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>1163</v>
       </c>
@@ -10418,12 +10723,12 @@
         <f>VLOOKUP($A248,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G248" t="e">
+      <c r="I248" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>1164</v>
       </c>
@@ -10442,12 +10747,12 @@
         <f>VLOOKUP($A249,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G249" t="e">
+      <c r="I249" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>1165</v>
       </c>
@@ -10466,12 +10771,12 @@
         <f>VLOOKUP($A250,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G250" t="e">
+      <c r="I250" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>1166</v>
       </c>
@@ -10490,12 +10795,12 @@
         <f>VLOOKUP($A251,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G251" t="e">
+      <c r="I251" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>1167</v>
       </c>
@@ -10514,12 +10819,12 @@
         <f>VLOOKUP($A252,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G252" t="e">
+      <c r="I252" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>1168</v>
       </c>
@@ -10538,12 +10843,12 @@
         <f>VLOOKUP($A253,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G253" t="e">
+      <c r="I253" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>1169</v>
       </c>
@@ -10562,12 +10867,12 @@
         <f>VLOOKUP($A254,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G254" t="e">
+      <c r="I254" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>1170</v>
       </c>
@@ -10586,12 +10891,12 @@
         <f>VLOOKUP($A255,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G255" t="e">
+      <c r="I255" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>1171</v>
       </c>
@@ -10610,12 +10915,12 @@
         <f>VLOOKUP($A256,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G256" t="e">
+      <c r="I256" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>1172</v>
       </c>
@@ -10634,12 +10939,12 @@
         <f>VLOOKUP($A257,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G257" t="e">
+      <c r="I257" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>1173</v>
       </c>
@@ -10658,12 +10963,12 @@
         <f>VLOOKUP($A258,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G258" t="e">
+      <c r="I258" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>1174</v>
       </c>
@@ -10682,12 +10987,12 @@
         <f>VLOOKUP($A259,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G259" t="e">
-        <f t="shared" ref="G259:G295" si="4">"["&amp;B259&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B259,"卷","")&amp;".html)|"&amp;C259&amp;"|"&amp;D259&amp;"|"&amp;E259&amp;"|"&amp;F259</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I259" t="e">
+        <f t="shared" ref="I259:I295" si="4">"["&amp;B259&amp;"](筆記/资治通鉴"&amp;SUBSTITUTE(B259,"卷","")&amp;".html)|"&amp;C259&amp;"|"&amp;D259&amp;"|"&amp;E259&amp;"|"&amp;F259&amp;"|"&amp;G259&amp;"|"&amp;H259</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>1175</v>
       </c>
@@ -10706,12 +11011,12 @@
         <f>VLOOKUP($A260,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G260" t="e">
+      <c r="I260" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>1176</v>
       </c>
@@ -10730,12 +11035,12 @@
         <f>VLOOKUP($A261,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G261" t="e">
+      <c r="I261" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>1177</v>
       </c>
@@ -10754,12 +11059,12 @@
         <f>VLOOKUP($A262,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G262" t="e">
+      <c r="I262" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>1178</v>
       </c>
@@ -10778,12 +11083,12 @@
         <f>VLOOKUP($A263,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G263" t="e">
+      <c r="I263" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>1179</v>
       </c>
@@ -10802,12 +11107,12 @@
         <f>VLOOKUP($A264,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G264" t="e">
+      <c r="I264" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>1180</v>
       </c>
@@ -10826,12 +11131,12 @@
         <f>VLOOKUP($A265,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G265" t="e">
+      <c r="I265" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>1181</v>
       </c>
@@ -10850,12 +11155,12 @@
         <f>VLOOKUP($A266,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G266" t="e">
+      <c r="I266" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>1201</v>
       </c>
@@ -10874,12 +11179,12 @@
         <f>VLOOKUP($A267,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G267" t="e">
+      <c r="I267" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>1202</v>
       </c>
@@ -10898,12 +11203,12 @@
         <f>VLOOKUP($A268,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G268" t="e">
+      <c r="I268" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>1203</v>
       </c>
@@ -10922,12 +11227,12 @@
         <f>VLOOKUP($A269,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G269" t="e">
+      <c r="I269" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>1204</v>
       </c>
@@ -10946,12 +11251,12 @@
         <f>VLOOKUP($A270,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G270" t="e">
+      <c r="I270" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>1205</v>
       </c>
@@ -10970,12 +11275,12 @@
         <f>VLOOKUP($A271,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G271" t="e">
+      <c r="I271" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>1206</v>
       </c>
@@ -10994,12 +11299,12 @@
         <f>VLOOKUP($A272,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G272" t="e">
+      <c r="I272" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>1301</v>
       </c>
@@ -11018,12 +11323,12 @@
         <f>VLOOKUP($A273,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G273" t="e">
+      <c r="I273" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>1302</v>
       </c>
@@ -11042,12 +11347,12 @@
         <f>VLOOKUP($A274,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G274" t="e">
+      <c r="I274" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>1303</v>
       </c>
@@ -11066,12 +11371,12 @@
         <f>VLOOKUP($A275,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G275" t="e">
+      <c r="I275" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>1304</v>
       </c>
@@ -11090,12 +11395,12 @@
         <f>VLOOKUP($A276,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G276" t="e">
+      <c r="I276" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>1305</v>
       </c>
@@ -11114,12 +11419,12 @@
         <f>VLOOKUP($A277,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G277" t="e">
+      <c r="I277" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>1306</v>
       </c>
@@ -11138,12 +11443,12 @@
         <f>VLOOKUP($A278,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G278" t="e">
+      <c r="I278" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>1307</v>
       </c>
@@ -11162,12 +11467,12 @@
         <f>VLOOKUP($A279,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G279" t="e">
+      <c r="I279" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>1308</v>
       </c>
@@ -11186,12 +11491,12 @@
         <f>VLOOKUP($A280,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G280" t="e">
+      <c r="I280" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>1401</v>
       </c>
@@ -11210,12 +11515,12 @@
         <f>VLOOKUP($A281,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G281" t="e">
+      <c r="I281" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>1402</v>
       </c>
@@ -11234,12 +11539,12 @@
         <f>VLOOKUP($A282,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G282" t="e">
+      <c r="I282" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>1403</v>
       </c>
@@ -11258,12 +11563,12 @@
         <f>VLOOKUP($A283,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G283" t="e">
+      <c r="I283" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>1404</v>
       </c>
@@ -11282,12 +11587,12 @@
         <f>VLOOKUP($A284,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G284" t="e">
+      <c r="I284" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>1405</v>
       </c>
@@ -11306,12 +11611,12 @@
         <f>VLOOKUP($A285,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G285" t="e">
+      <c r="I285" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>1406</v>
       </c>
@@ -11330,12 +11635,12 @@
         <f>VLOOKUP($A286,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G286" t="e">
+      <c r="I286" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>1501</v>
       </c>
@@ -11354,12 +11659,12 @@
         <f>VLOOKUP($A287,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G287" t="e">
+      <c r="I287" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>1502</v>
       </c>
@@ -11378,12 +11683,12 @@
         <f>VLOOKUP($A288,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G288" t="e">
+      <c r="I288" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>1503</v>
       </c>
@@ -11402,12 +11707,12 @@
         <f>VLOOKUP($A289,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G289" t="e">
+      <c r="I289" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>1504</v>
       </c>
@@ -11426,12 +11731,12 @@
         <f>VLOOKUP($A290,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G290" t="e">
+      <c r="I290" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>1601</v>
       </c>
@@ -11450,12 +11755,12 @@
         <f>VLOOKUP($A291,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G291" t="e">
+      <c r="I291" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>1602</v>
       </c>
@@ -11474,12 +11779,12 @@
         <f>VLOOKUP($A292,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G292" t="e">
+      <c r="I292" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>1603</v>
       </c>
@@ -11498,12 +11803,12 @@
         <f>VLOOKUP($A293,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G293" t="e">
+      <c r="I293" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>1604</v>
       </c>
@@ -11522,12 +11827,12 @@
         <f>VLOOKUP($A294,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G294" t="e">
+      <c r="I294" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>1605</v>
       </c>
@@ -11546,7 +11851,7 @@
         <f>VLOOKUP($A295,統計!$A:$G,7,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G295" t="e">
+      <c r="I295" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="431">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1422,6 +1422,14 @@
   </si>
   <si>
     <t>衛子夫後衛氏世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九錫之法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢平帝3年至6年、王莽居攝、始初至3年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1573,7 +1581,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1651,7 +1658,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1756,6 +1763,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>卷35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>卷36</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1871,6 +1881,9 @@
                 <c:pt idx="34">
                   <c:v>1.25</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1884,11 +1897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81920192"/>
-        <c:axId val="81920584"/>
+        <c:axId val="173263840"/>
+        <c:axId val="173254560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81920192"/>
+        <c:axId val="173263840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1947,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2000,12 +2012,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81920584"/>
+        <c:crossAx val="173254560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81920584"/>
+        <c:axId val="173254560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2063,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2118,7 +2129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81920192"/>
+        <c:crossAx val="173263840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3049,7 +3060,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3167,19 +3178,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>732.45714285714291</v>
+        <v>721.55555555555554</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44751.457142857143</v>
+        <v>44740.555555555555</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>427.21305480690029</v>
+        <v>418.52523773318632</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44446.213054806904</v>
+        <v>44437.525237733185</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3187,7 +3198,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B36" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B37" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3229,19 +3240,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>840.17142857142858</v>
+        <v>827.66666666666663</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44859.171428571426</v>
+        <v>44846.666666666664</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>468.35716923453117</v>
+        <v>458.8326442564466</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44487.357169234529</v>
+        <v>44477.832644256443</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3291,19 +3302,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1271.0285714285715</v>
+        <v>1252.1111111111111</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45290.028571428571</v>
+        <v>45271.111111111109</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>564.3601028990031</v>
+        <v>552.88325947738736</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44583.360102899002</v>
+        <v>44571.883259477385</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3353,19 +3364,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1895.7714285714287</v>
+        <v>1867.5555555555554</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45914.771428571432</v>
+        <v>45886.555555555555</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>680.24935853683007</v>
+        <v>666.41578785123727</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44699.249358536828</v>
+        <v>44685.415787851234</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3415,19 +3426,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2854.4285714285716</v>
+        <v>2811.9444444444443</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46873.428571428572</v>
+        <v>46830.944444444445</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>898.31316500327353</v>
+        <v>880.04504242451696</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44917.313165003274</v>
+        <v>44899.045042424514</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3477,19 +3488,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>3166.8</v>
+        <v>3119.6666666666665</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47185.8</v>
+        <v>47138.666666666664</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>933.97139750722022</v>
+        <v>914.97812807800926</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44952.971397507223</v>
+        <v>44933.978128078008</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3539,19 +3550,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3166.8</v>
+        <v>3119.6666666666665</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47185.8</v>
+        <v>47138.666666666664</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>933.97139750722022</v>
+        <v>914.97812807800926</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44952.971397507223</v>
+        <v>44933.978128078008</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3624,7 +3635,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.771428571428572</v>
+        <v>10.611111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3664,7 +3675,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.68573524046051415</v>
+        <v>0.67179010872100531</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4493,8 +4504,37 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37">
+        <v>328</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="2"/>
+        <v>卷36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44386</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44390</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" ref="E37" si="23">D37-C37+1</f>
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <f>IF(F37*G37&lt;0,ABS(F37)+ABS(G37),G37-F37+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37" si="24">E37/H37</f>
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="2"/>
@@ -4533,8 +4573,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5644,24 +5684,30 @@
       <c r="A37">
         <v>328</v>
       </c>
-      <c r="B37" t="e">
+      <c r="B37" t="str">
         <f>VLOOKUP($A37,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷36</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D37">
         <f>VLOOKUP($A37,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E37" t="e">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <f>VLOOKUP($A37,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I37" t="e">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>429</v>
+      </c>
+      <c r="H37" t="s">
+        <v>430</v>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷36](筆記/资治通鉴36.html)|漢紀二十八|3|8||九錫之法|漢平帝3年至6年、王莽居攝、始初至3年</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="433">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1430,6 +1430,14 @@
   </si>
   <si>
     <t>漢平帝3年至6年、王莽居攝、始初至3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王莽至6年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王莽十一公表、漢官儀印制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1581,6 +1589,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1658,7 +1667,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1766,6 +1775,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>卷36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>卷37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1884,6 +1896,9 @@
                 <c:pt idx="35">
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1897,11 +1912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173263840"/>
-        <c:axId val="173254560"/>
+        <c:axId val="165951816"/>
+        <c:axId val="165784808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173263840"/>
+        <c:axId val="165951816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,6 +1962,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2012,12 +2028,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173254560"/>
+        <c:crossAx val="165784808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173254560"/>
+        <c:axId val="165784808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,6 +2079,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2129,7 +2146,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173263840"/>
+        <c:crossAx val="165951816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3060,7 +3077,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3178,19 +3195,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>721.55555555555554</v>
+        <v>713.08108108108104</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44740.555555555555</v>
+        <v>44732.08108108108</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>418.52523773318632</v>
+        <v>409.28154389510996</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44437.525237733185</v>
+        <v>44428.281543895107</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3198,7 +3215,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B37" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B38" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3240,19 +3257,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>827.66666666666663</v>
+        <v>817.94594594594594</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44846.666666666664</v>
+        <v>44836.945945945947</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>458.8326442564466</v>
+        <v>448.69870703107557</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44477.832644256443</v>
+        <v>44467.698707031079</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3302,19 +3319,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1252.1111111111111</v>
+        <v>1237.4054054054054</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45271.111111111109</v>
+        <v>45256.405405405407</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>552.88325947738736</v>
+        <v>540.67208768166211</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44571.883259477385</v>
+        <v>44559.672087681662</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3364,19 +3381,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1867.5555555555554</v>
+        <v>1845.6216216216214</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45886.555555555555</v>
+        <v>45864.62162162162</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>666.41578785123727</v>
+        <v>651.69709718129866</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44685.415787851234</v>
+        <v>44670.697097181299</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3426,19 +3443,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2811.9444444444443</v>
+        <v>2778.9189189189187</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46830.944444444445</v>
+        <v>46797.91891891892</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>880.04504242451696</v>
+        <v>860.60806180191662</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44899.045042424514</v>
+        <v>44879.608061801919</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3488,19 +3505,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>3119.6666666666665</v>
+        <v>3083.0270270270271</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47138.666666666664</v>
+        <v>47102.027027027027</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>914.97812807800926</v>
+        <v>894.76960318642011</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44933.978128078008</v>
+        <v>44913.769603186418</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3550,19 +3567,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3119.6666666666665</v>
+        <v>3083.0270270270271</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47138.666666666664</v>
+        <v>47102.027027027027</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>914.97812807800926</v>
+        <v>894.76960318642011</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44933.978128078008</v>
+        <v>44913.769603186418</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3635,7 +3652,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.611111111111111</v>
+        <v>10.486486486486486</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3675,7 +3692,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.67179010872100531</v>
+        <v>0.65695271893276075</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4537,8 +4554,37 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38">
+        <v>401</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="2"/>
+        <v>卷37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44391</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44396</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" ref="E38" si="25">D38-C38+1</f>
+        <v>6</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <f>IF(F38*G38&lt;0,ABS(F38)+ABS(G38),G38-F38+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38" si="26">E38/H38</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C39" s="2"/>
@@ -4573,8 +4619,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5712,31 +5758,37 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>329</v>
-      </c>
-      <c r="B38" t="e">
+        <v>401</v>
+      </c>
+      <c r="B38" t="str">
         <f>VLOOKUP($A38,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷37</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
       </c>
-      <c r="D38" t="e">
+      <c r="D38">
         <f>VLOOKUP($A38,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" t="e">
+        <v>9</v>
+      </c>
+      <c r="E38">
         <f>VLOOKUP($A38,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" t="e">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>432</v>
+      </c>
+      <c r="H38" t="s">
+        <v>431</v>
+      </c>
+      <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷37](筆記/资治通鉴37.html)|漢紀二十九|9|14||王莽十一公表、漢官儀印制|王莽至6年</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="B39" t="e">
         <f>VLOOKUP($A39,統計!$A:$G,2,)</f>
@@ -5760,7 +5812,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="B40" t="e">
         <f>VLOOKUP($A40,統計!$A:$G,2,)</f>
@@ -5784,7 +5836,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>332</v>
+        <v>501</v>
       </c>
       <c r="B41" t="e">
         <f>VLOOKUP($A41,統計!$A:$G,2,)</f>
@@ -5808,7 +5860,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>333</v>
+        <v>502</v>
       </c>
       <c r="B42" t="e">
         <f>VLOOKUP($A42,統計!$A:$G,2,)</f>
@@ -5832,7 +5884,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>334</v>
+        <v>503</v>
       </c>
       <c r="B43" t="e">
         <f>VLOOKUP($A43,統計!$A:$G,2,)</f>
@@ -5856,7 +5908,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>335</v>
+        <v>504</v>
       </c>
       <c r="B44" t="e">
         <f>VLOOKUP($A44,統計!$A:$G,2,)</f>
@@ -5880,7 +5932,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>336</v>
+        <v>505</v>
       </c>
       <c r="B45" t="e">
         <f>VLOOKUP($A45,統計!$A:$G,2,)</f>
@@ -5904,7 +5956,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>337</v>
+        <v>506</v>
       </c>
       <c r="B46" t="e">
         <f>VLOOKUP($A46,統計!$A:$G,2,)</f>
@@ -5928,7 +5980,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>338</v>
+        <v>507</v>
       </c>
       <c r="B47" t="e">
         <f>VLOOKUP($A47,統計!$A:$G,2,)</f>
@@ -5952,7 +6004,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>339</v>
+        <v>508</v>
       </c>
       <c r="B48" t="e">
         <f>VLOOKUP($A48,統計!$A:$G,2,)</f>
@@ -5976,7 +6028,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>340</v>
+        <v>509</v>
       </c>
       <c r="B49" t="e">
         <f>VLOOKUP($A49,統計!$A:$G,2,)</f>
@@ -6000,7 +6052,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>341</v>
+        <v>510</v>
       </c>
       <c r="B50" t="e">
         <f>VLOOKUP($A50,統計!$A:$G,2,)</f>
@@ -6024,7 +6076,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>342</v>
+        <v>511</v>
       </c>
       <c r="B51" t="e">
         <f>VLOOKUP($A51,統計!$A:$G,2,)</f>
@@ -6048,7 +6100,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>343</v>
+        <v>512</v>
       </c>
       <c r="B52" t="e">
         <f>VLOOKUP($A52,統計!$A:$G,2,)</f>
@@ -6072,7 +6124,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="B53" t="e">
         <f>VLOOKUP($A53,統計!$A:$G,2,)</f>
@@ -6096,7 +6148,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>345</v>
+        <v>514</v>
       </c>
       <c r="B54" t="e">
         <f>VLOOKUP($A54,統計!$A:$G,2,)</f>
@@ -6120,7 +6172,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>346</v>
+        <v>515</v>
       </c>
       <c r="B55" t="e">
         <f>VLOOKUP($A55,統計!$A:$G,2,)</f>
@@ -6144,7 +6196,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>347</v>
+        <v>516</v>
       </c>
       <c r="B56" t="e">
         <f>VLOOKUP($A56,統計!$A:$G,2,)</f>
@@ -6168,7 +6220,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>348</v>
+        <v>517</v>
       </c>
       <c r="B57" t="e">
         <f>VLOOKUP($A57,統計!$A:$G,2,)</f>
@@ -6192,7 +6244,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>349</v>
+        <v>518</v>
       </c>
       <c r="B58" t="e">
         <f>VLOOKUP($A58,統計!$A:$G,2,)</f>
@@ -6216,7 +6268,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>350</v>
+        <v>519</v>
       </c>
       <c r="B59" t="e">
         <f>VLOOKUP($A59,統計!$A:$G,2,)</f>
@@ -6240,7 +6292,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B60" t="e">
         <f>VLOOKUP($A60,統計!$A:$G,2,)</f>
@@ -6264,7 +6316,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>352</v>
+        <v>521</v>
       </c>
       <c r="B61" t="e">
         <f>VLOOKUP($A61,統計!$A:$G,2,)</f>
@@ -6288,7 +6340,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>353</v>
+        <v>522</v>
       </c>
       <c r="B62" t="e">
         <f>VLOOKUP($A62,統計!$A:$G,2,)</f>
@@ -6312,7 +6364,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>354</v>
+        <v>523</v>
       </c>
       <c r="B63" t="e">
         <f>VLOOKUP($A63,統計!$A:$G,2,)</f>
@@ -6336,7 +6388,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="B64" t="e">
         <f>VLOOKUP($A64,統計!$A:$G,2,)</f>
@@ -6360,7 +6412,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>356</v>
+        <v>525</v>
       </c>
       <c r="B65" t="e">
         <f>VLOOKUP($A65,統計!$A:$G,2,)</f>
@@ -6384,7 +6436,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>357</v>
+        <v>526</v>
       </c>
       <c r="B66" t="e">
         <f>VLOOKUP($A66,統計!$A:$G,2,)</f>
@@ -6408,7 +6460,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>358</v>
+        <v>527</v>
       </c>
       <c r="B67" t="e">
         <f>VLOOKUP($A67,統計!$A:$G,2,)</f>
@@ -6432,7 +6484,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>359</v>
+        <v>528</v>
       </c>
       <c r="B68" t="e">
         <f>VLOOKUP($A68,統計!$A:$G,2,)</f>
@@ -6456,7 +6508,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>360</v>
+        <v>529</v>
       </c>
       <c r="B69" t="e">
         <f>VLOOKUP($A69,統計!$A:$G,2,)</f>
@@ -6480,7 +6532,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B70" t="e">
         <f>VLOOKUP($A70,統計!$A:$G,2,)</f>
@@ -6504,7 +6556,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>402</v>
+        <v>602</v>
       </c>
       <c r="B71" t="e">
         <f>VLOOKUP($A71,統計!$A:$G,2,)</f>
@@ -6528,7 +6580,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>403</v>
+        <v>603</v>
       </c>
       <c r="B72" t="e">
         <f>VLOOKUP($A72,統計!$A:$G,2,)</f>
@@ -6552,7 +6604,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>404</v>
+        <v>604</v>
       </c>
       <c r="B73" t="e">
         <f>VLOOKUP($A73,統計!$A:$G,2,)</f>
@@ -6576,7 +6628,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>405</v>
+        <v>605</v>
       </c>
       <c r="B74" t="e">
         <f>VLOOKUP($A74,統計!$A:$G,2,)</f>
@@ -6600,7 +6652,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>406</v>
+        <v>606</v>
       </c>
       <c r="B75" t="e">
         <f>VLOOKUP($A75,統計!$A:$G,2,)</f>
@@ -6624,7 +6676,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>407</v>
+        <v>607</v>
       </c>
       <c r="B76" t="e">
         <f>VLOOKUP($A76,統計!$A:$G,2,)</f>
@@ -6648,7 +6700,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>408</v>
+        <v>608</v>
       </c>
       <c r="B77" t="e">
         <f>VLOOKUP($A77,統計!$A:$G,2,)</f>
@@ -6672,7 +6724,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>409</v>
+        <v>609</v>
       </c>
       <c r="B78" t="e">
         <f>VLOOKUP($A78,統計!$A:$G,2,)</f>
@@ -6696,7 +6748,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="B79" t="e">
         <f>VLOOKUP($A79,統計!$A:$G,2,)</f>
@@ -6720,7 +6772,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>501</v>
+        <v>701</v>
       </c>
       <c r="B80" t="e">
         <f>VLOOKUP($A80,統計!$A:$G,2,)</f>
@@ -6744,7 +6796,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>502</v>
+        <v>702</v>
       </c>
       <c r="B81" t="e">
         <f>VLOOKUP($A81,統計!$A:$G,2,)</f>
@@ -6768,7 +6820,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>503</v>
+        <v>703</v>
       </c>
       <c r="B82" t="e">
         <f>VLOOKUP($A82,統計!$A:$G,2,)</f>
@@ -6792,7 +6844,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>504</v>
+        <v>704</v>
       </c>
       <c r="B83" t="e">
         <f>VLOOKUP($A83,統計!$A:$G,2,)</f>
@@ -6816,7 +6868,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>505</v>
+        <v>705</v>
       </c>
       <c r="B84" t="e">
         <f>VLOOKUP($A84,統計!$A:$G,2,)</f>
@@ -6840,7 +6892,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>506</v>
+        <v>706</v>
       </c>
       <c r="B85" t="e">
         <f>VLOOKUP($A85,統計!$A:$G,2,)</f>
@@ -6864,7 +6916,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>507</v>
+        <v>707</v>
       </c>
       <c r="B86" t="e">
         <f>VLOOKUP($A86,統計!$A:$G,2,)</f>
@@ -6888,7 +6940,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>508</v>
+        <v>708</v>
       </c>
       <c r="B87" t="e">
         <f>VLOOKUP($A87,統計!$A:$G,2,)</f>
@@ -6912,7 +6964,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>509</v>
+        <v>709</v>
       </c>
       <c r="B88" t="e">
         <f>VLOOKUP($A88,統計!$A:$G,2,)</f>
@@ -6936,7 +6988,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>510</v>
+        <v>710</v>
       </c>
       <c r="B89" t="e">
         <f>VLOOKUP($A89,統計!$A:$G,2,)</f>
@@ -6960,7 +7012,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="B90" t="e">
         <f>VLOOKUP($A90,統計!$A:$G,2,)</f>
@@ -6984,7 +7036,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>512</v>
+        <v>712</v>
       </c>
       <c r="B91" t="e">
         <f>VLOOKUP($A91,統計!$A:$G,2,)</f>
@@ -7008,7 +7060,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>513</v>
+        <v>713</v>
       </c>
       <c r="B92" t="e">
         <f>VLOOKUP($A92,統計!$A:$G,2,)</f>
@@ -7032,7 +7084,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>514</v>
+        <v>714</v>
       </c>
       <c r="B93" t="e">
         <f>VLOOKUP($A93,統計!$A:$G,2,)</f>
@@ -7056,7 +7108,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>515</v>
+        <v>715</v>
       </c>
       <c r="B94" t="e">
         <f>VLOOKUP($A94,統計!$A:$G,2,)</f>
@@ -7080,7 +7132,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>516</v>
+        <v>716</v>
       </c>
       <c r="B95" t="e">
         <f>VLOOKUP($A95,統計!$A:$G,2,)</f>
@@ -7104,7 +7156,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>517</v>
+        <v>717</v>
       </c>
       <c r="B96" t="e">
         <f>VLOOKUP($A96,統計!$A:$G,2,)</f>
@@ -7128,7 +7180,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>518</v>
+        <v>718</v>
       </c>
       <c r="B97" t="e">
         <f>VLOOKUP($A97,統計!$A:$G,2,)</f>
@@ -7152,7 +7204,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>519</v>
+        <v>719</v>
       </c>
       <c r="B98" t="e">
         <f>VLOOKUP($A98,統計!$A:$G,2,)</f>
@@ -7176,7 +7228,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>520</v>
+        <v>720</v>
       </c>
       <c r="B99" t="e">
         <f>VLOOKUP($A99,統計!$A:$G,2,)</f>
@@ -7200,7 +7252,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>521</v>
+        <v>721</v>
       </c>
       <c r="B100" t="e">
         <f>VLOOKUP($A100,統計!$A:$G,2,)</f>
@@ -7224,7 +7276,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>522</v>
+        <v>722</v>
       </c>
       <c r="B101" t="e">
         <f>VLOOKUP($A101,統計!$A:$G,2,)</f>
@@ -7248,7 +7300,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>523</v>
+        <v>723</v>
       </c>
       <c r="B102" t="e">
         <f>VLOOKUP($A102,統計!$A:$G,2,)</f>
@@ -7272,7 +7324,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>524</v>
+        <v>724</v>
       </c>
       <c r="B103" t="e">
         <f>VLOOKUP($A103,統計!$A:$G,2,)</f>
@@ -7296,7 +7348,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="B104" t="e">
         <f>VLOOKUP($A104,統計!$A:$G,2,)</f>
@@ -7320,7 +7372,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>526</v>
+        <v>726</v>
       </c>
       <c r="B105" t="e">
         <f>VLOOKUP($A105,統計!$A:$G,2,)</f>
@@ -7344,7 +7396,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>527</v>
+        <v>727</v>
       </c>
       <c r="B106" t="e">
         <f>VLOOKUP($A106,統計!$A:$G,2,)</f>
@@ -7368,7 +7420,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>528</v>
+        <v>728</v>
       </c>
       <c r="B107" t="e">
         <f>VLOOKUP($A107,統計!$A:$G,2,)</f>
@@ -7392,7 +7444,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>529</v>
+        <v>729</v>
       </c>
       <c r="B108" t="e">
         <f>VLOOKUP($A108,統計!$A:$G,2,)</f>
@@ -7416,7 +7468,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>530</v>
+        <v>730</v>
       </c>
       <c r="B109" t="e">
         <f>VLOOKUP($A109,統計!$A:$G,2,)</f>
@@ -7440,7 +7492,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>531</v>
+        <v>731</v>
       </c>
       <c r="B110" t="e">
         <f>VLOOKUP($A110,統計!$A:$G,2,)</f>
@@ -7464,7 +7516,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>532</v>
+        <v>732</v>
       </c>
       <c r="B111" t="e">
         <f>VLOOKUP($A111,統計!$A:$G,2,)</f>
@@ -7488,7 +7540,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="B112" t="e">
         <f>VLOOKUP($A112,統計!$A:$G,2,)</f>
@@ -7512,7 +7564,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>534</v>
+        <v>734</v>
       </c>
       <c r="B113" t="e">
         <f>VLOOKUP($A113,統計!$A:$G,2,)</f>
@@ -7536,7 +7588,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>535</v>
+        <v>735</v>
       </c>
       <c r="B114" t="e">
         <f>VLOOKUP($A114,統計!$A:$G,2,)</f>
@@ -7560,7 +7612,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>536</v>
+        <v>736</v>
       </c>
       <c r="B115" t="e">
         <f>VLOOKUP($A115,統計!$A:$G,2,)</f>
@@ -7584,7 +7636,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>537</v>
+        <v>737</v>
       </c>
       <c r="B116" t="e">
         <f>VLOOKUP($A116,統計!$A:$G,2,)</f>
@@ -7608,7 +7660,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>538</v>
+        <v>738</v>
       </c>
       <c r="B117" t="e">
         <f>VLOOKUP($A117,統計!$A:$G,2,)</f>
@@ -7632,7 +7684,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>539</v>
+        <v>739</v>
       </c>
       <c r="B118" t="e">
         <f>VLOOKUP($A118,統計!$A:$G,2,)</f>
@@ -7656,7 +7708,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>540</v>
+        <v>740</v>
       </c>
       <c r="B119" t="e">
         <f>VLOOKUP($A119,統計!$A:$G,2,)</f>
@@ -7680,7 +7732,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>601</v>
+        <v>801</v>
       </c>
       <c r="B120" t="e">
         <f>VLOOKUP($A120,統計!$A:$G,2,)</f>
@@ -7704,7 +7756,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>602</v>
+        <v>802</v>
       </c>
       <c r="B121" t="e">
         <f>VLOOKUP($A121,統計!$A:$G,2,)</f>
@@ -7728,7 +7780,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>603</v>
+        <v>803</v>
       </c>
       <c r="B122" t="e">
         <f>VLOOKUP($A122,統計!$A:$G,2,)</f>
@@ -7752,7 +7804,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>604</v>
+        <v>804</v>
       </c>
       <c r="B123" t="e">
         <f>VLOOKUP($A123,統計!$A:$G,2,)</f>
@@ -7776,7 +7828,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>605</v>
+        <v>805</v>
       </c>
       <c r="B124" t="e">
         <f>VLOOKUP($A124,統計!$A:$G,2,)</f>
@@ -7800,7 +7852,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>606</v>
+        <v>806</v>
       </c>
       <c r="B125" t="e">
         <f>VLOOKUP($A125,統計!$A:$G,2,)</f>
@@ -7824,7 +7876,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>607</v>
+        <v>807</v>
       </c>
       <c r="B126" t="e">
         <f>VLOOKUP($A126,統計!$A:$G,2,)</f>
@@ -7848,7 +7900,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>608</v>
+        <v>808</v>
       </c>
       <c r="B127" t="e">
         <f>VLOOKUP($A127,統計!$A:$G,2,)</f>
@@ -7872,7 +7924,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>609</v>
+        <v>809</v>
       </c>
       <c r="B128" t="e">
         <f>VLOOKUP($A128,統計!$A:$G,2,)</f>
@@ -7896,7 +7948,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>610</v>
+        <v>810</v>
       </c>
       <c r="B129" t="e">
         <f>VLOOKUP($A129,統計!$A:$G,2,)</f>
@@ -7920,7 +7972,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>611</v>
+        <v>811</v>
       </c>
       <c r="B130" t="e">
         <f>VLOOKUP($A130,統計!$A:$G,2,)</f>
@@ -7944,7 +7996,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>612</v>
+        <v>812</v>
       </c>
       <c r="B131" t="e">
         <f>VLOOKUP($A131,統計!$A:$G,2,)</f>
@@ -7968,7 +8020,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>613</v>
+        <v>813</v>
       </c>
       <c r="B132" t="e">
         <f>VLOOKUP($A132,統計!$A:$G,2,)</f>
@@ -7992,7 +8044,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>614</v>
+        <v>814</v>
       </c>
       <c r="B133" t="e">
         <f>VLOOKUP($A133,統計!$A:$G,2,)</f>
@@ -8016,7 +8068,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>615</v>
+        <v>815</v>
       </c>
       <c r="B134" t="e">
         <f>VLOOKUP($A134,統計!$A:$G,2,)</f>
@@ -8040,7 +8092,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>616</v>
+        <v>816</v>
       </c>
       <c r="B135" t="e">
         <f>VLOOKUP($A135,統計!$A:$G,2,)</f>
@@ -8064,7 +8116,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>701</v>
+        <v>901</v>
       </c>
       <c r="B136" t="e">
         <f>VLOOKUP($A136,統計!$A:$G,2,)</f>
@@ -8088,7 +8140,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>702</v>
+        <v>902</v>
       </c>
       <c r="B137" t="e">
         <f>VLOOKUP($A137,統計!$A:$G,2,)</f>
@@ -8112,7 +8164,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>703</v>
+        <v>903</v>
       </c>
       <c r="B138" t="e">
         <f>VLOOKUP($A138,統計!$A:$G,2,)</f>
@@ -8136,7 +8188,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>704</v>
+        <v>904</v>
       </c>
       <c r="B139" t="e">
         <f>VLOOKUP($A139,統計!$A:$G,2,)</f>
@@ -8160,7 +8212,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>705</v>
+        <v>905</v>
       </c>
       <c r="B140" t="e">
         <f>VLOOKUP($A140,統計!$A:$G,2,)</f>
@@ -8184,7 +8236,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>706</v>
+        <v>906</v>
       </c>
       <c r="B141" t="e">
         <f>VLOOKUP($A141,統計!$A:$G,2,)</f>
@@ -8208,7 +8260,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>707</v>
+        <v>907</v>
       </c>
       <c r="B142" t="e">
         <f>VLOOKUP($A142,統計!$A:$G,2,)</f>
@@ -8232,7 +8284,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>708</v>
+        <v>908</v>
       </c>
       <c r="B143" t="e">
         <f>VLOOKUP($A143,統計!$A:$G,2,)</f>
@@ -8256,7 +8308,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>709</v>
+        <v>909</v>
       </c>
       <c r="B144" t="e">
         <f>VLOOKUP($A144,統計!$A:$G,2,)</f>
@@ -8280,7 +8332,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>710</v>
+        <v>910</v>
       </c>
       <c r="B145" t="e">
         <f>VLOOKUP($A145,統計!$A:$G,2,)</f>
@@ -8304,7 +8356,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>801</v>
+        <v>1001</v>
       </c>
       <c r="B146" t="e">
         <f>VLOOKUP($A146,統計!$A:$G,2,)</f>
@@ -8328,7 +8380,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="B147" t="e">
         <f>VLOOKUP($A147,統計!$A:$G,2,)</f>
@@ -8352,7 +8404,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>803</v>
+        <v>1003</v>
       </c>
       <c r="B148" t="e">
         <f>VLOOKUP($A148,統計!$A:$G,2,)</f>
@@ -8376,7 +8428,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>804</v>
+        <v>1004</v>
       </c>
       <c r="B149" t="e">
         <f>VLOOKUP($A149,統計!$A:$G,2,)</f>
@@ -8400,7 +8452,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>805</v>
+        <v>1005</v>
       </c>
       <c r="B150" t="e">
         <f>VLOOKUP($A150,統計!$A:$G,2,)</f>
@@ -8424,7 +8476,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>806</v>
+        <v>1006</v>
       </c>
       <c r="B151" t="e">
         <f>VLOOKUP($A151,統計!$A:$G,2,)</f>
@@ -8448,7 +8500,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>807</v>
+        <v>1007</v>
       </c>
       <c r="B152" t="e">
         <f>VLOOKUP($A152,統計!$A:$G,2,)</f>
@@ -8472,7 +8524,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>808</v>
+        <v>1008</v>
       </c>
       <c r="B153" t="e">
         <f>VLOOKUP($A153,統計!$A:$G,2,)</f>
@@ -8496,7 +8548,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>809</v>
+        <v>1009</v>
       </c>
       <c r="B154" t="e">
         <f>VLOOKUP($A154,統計!$A:$G,2,)</f>
@@ -8520,7 +8572,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>810</v>
+        <v>1010</v>
       </c>
       <c r="B155" t="e">
         <f>VLOOKUP($A155,統計!$A:$G,2,)</f>
@@ -8544,7 +8596,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>811</v>
+        <v>1011</v>
       </c>
       <c r="B156" t="e">
         <f>VLOOKUP($A156,統計!$A:$G,2,)</f>
@@ -8568,7 +8620,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>812</v>
+        <v>1012</v>
       </c>
       <c r="B157" t="e">
         <f>VLOOKUP($A157,統計!$A:$G,2,)</f>
@@ -8592,7 +8644,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>813</v>
+        <v>1013</v>
       </c>
       <c r="B158" t="e">
         <f>VLOOKUP($A158,統計!$A:$G,2,)</f>
@@ -8616,7 +8668,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>814</v>
+        <v>1014</v>
       </c>
       <c r="B159" t="e">
         <f>VLOOKUP($A159,統計!$A:$G,2,)</f>
@@ -8640,7 +8692,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>815</v>
+        <v>1015</v>
       </c>
       <c r="B160" t="e">
         <f>VLOOKUP($A160,統計!$A:$G,2,)</f>
@@ -8664,7 +8716,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>816</v>
+        <v>1016</v>
       </c>
       <c r="B161" t="e">
         <f>VLOOKUP($A161,統計!$A:$G,2,)</f>
@@ -8688,7 +8740,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>817</v>
+        <v>1017</v>
       </c>
       <c r="B162" t="e">
         <f>VLOOKUP($A162,統計!$A:$G,2,)</f>
@@ -8712,7 +8764,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>818</v>
+        <v>1018</v>
       </c>
       <c r="B163" t="e">
         <f>VLOOKUP($A163,統計!$A:$G,2,)</f>
@@ -8736,7 +8788,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>819</v>
+        <v>1019</v>
       </c>
       <c r="B164" t="e">
         <f>VLOOKUP($A164,統計!$A:$G,2,)</f>
@@ -8760,7 +8812,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>820</v>
+        <v>1020</v>
       </c>
       <c r="B165" t="e">
         <f>VLOOKUP($A165,統計!$A:$G,2,)</f>
@@ -8784,7 +8836,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>821</v>
+        <v>1021</v>
       </c>
       <c r="B166" t="e">
         <f>VLOOKUP($A166,統計!$A:$G,2,)</f>
@@ -8808,7 +8860,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>822</v>
+        <v>1022</v>
       </c>
       <c r="B167" t="e">
         <f>VLOOKUP($A167,統計!$A:$G,2,)</f>
@@ -8832,7 +8884,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>901</v>
+        <v>1101</v>
       </c>
       <c r="B168" t="e">
         <f>VLOOKUP($A168,統計!$A:$G,2,)</f>
@@ -8856,7 +8908,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>902</v>
+        <v>1102</v>
       </c>
       <c r="B169" t="e">
         <f>VLOOKUP($A169,統計!$A:$G,2,)</f>
@@ -8880,7 +8932,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>903</v>
+        <v>1103</v>
       </c>
       <c r="B170" t="e">
         <f>VLOOKUP($A170,統計!$A:$G,2,)</f>
@@ -8904,7 +8956,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>904</v>
+        <v>1104</v>
       </c>
       <c r="B171" t="e">
         <f>VLOOKUP($A171,統計!$A:$G,2,)</f>
@@ -8928,7 +8980,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>905</v>
+        <v>1105</v>
       </c>
       <c r="B172" t="e">
         <f>VLOOKUP($A172,統計!$A:$G,2,)</f>
@@ -8952,7 +9004,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>906</v>
+        <v>1106</v>
       </c>
       <c r="B173" t="e">
         <f>VLOOKUP($A173,統計!$A:$G,2,)</f>
@@ -8976,7 +9028,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>907</v>
+        <v>1107</v>
       </c>
       <c r="B174" t="e">
         <f>VLOOKUP($A174,統計!$A:$G,2,)</f>
@@ -9000,7 +9052,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>908</v>
+        <v>1108</v>
       </c>
       <c r="B175" t="e">
         <f>VLOOKUP($A175,統計!$A:$G,2,)</f>
@@ -9024,7 +9076,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>909</v>
+        <v>1109</v>
       </c>
       <c r="B176" t="e">
         <f>VLOOKUP($A176,統計!$A:$G,2,)</f>
@@ -9048,7 +9100,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>910</v>
+        <v>1110</v>
       </c>
       <c r="B177" t="e">
         <f>VLOOKUP($A177,統計!$A:$G,2,)</f>
@@ -9072,7 +9124,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>1001</v>
+        <v>1201</v>
       </c>
       <c r="B178" t="e">
         <f>VLOOKUP($A178,統計!$A:$G,2,)</f>
@@ -9096,7 +9148,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>1002</v>
+        <v>1202</v>
       </c>
       <c r="B179" t="e">
         <f>VLOOKUP($A179,統計!$A:$G,2,)</f>
@@ -9120,7 +9172,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>1003</v>
+        <v>1203</v>
       </c>
       <c r="B180" t="e">
         <f>VLOOKUP($A180,統計!$A:$G,2,)</f>
@@ -9144,7 +9196,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>1004</v>
+        <v>1204</v>
       </c>
       <c r="B181" t="e">
         <f>VLOOKUP($A181,統計!$A:$G,2,)</f>
@@ -9168,7 +9220,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>1005</v>
+        <v>1205</v>
       </c>
       <c r="B182" t="e">
         <f>VLOOKUP($A182,統計!$A:$G,2,)</f>
@@ -9192,7 +9244,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>1006</v>
+        <v>1206</v>
       </c>
       <c r="B183" t="e">
         <f>VLOOKUP($A183,統計!$A:$G,2,)</f>
@@ -9216,7 +9268,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>1007</v>
+        <v>1207</v>
       </c>
       <c r="B184" t="e">
         <f>VLOOKUP($A184,統計!$A:$G,2,)</f>
@@ -9240,7 +9292,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>1008</v>
+        <v>1208</v>
       </c>
       <c r="B185" t="e">
         <f>VLOOKUP($A185,統計!$A:$G,2,)</f>
@@ -9264,7 +9316,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>1101</v>
+        <v>1301</v>
       </c>
       <c r="B186" t="e">
         <f>VLOOKUP($A186,統計!$A:$G,2,)</f>
@@ -9288,7 +9340,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>1102</v>
+        <v>1302</v>
       </c>
       <c r="B187" t="e">
         <f>VLOOKUP($A187,統計!$A:$G,2,)</f>
@@ -9312,7 +9364,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>1103</v>
+        <v>1303</v>
       </c>
       <c r="B188" t="e">
         <f>VLOOKUP($A188,統計!$A:$G,2,)</f>
@@ -9336,7 +9388,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>1104</v>
+        <v>1304</v>
       </c>
       <c r="B189" t="e">
         <f>VLOOKUP($A189,統計!$A:$G,2,)</f>
@@ -9360,7 +9412,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>1105</v>
+        <v>1305</v>
       </c>
       <c r="B190" t="e">
         <f>VLOOKUP($A190,統計!$A:$G,2,)</f>
@@ -9384,7 +9436,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>1106</v>
+        <v>1306</v>
       </c>
       <c r="B191" t="e">
         <f>VLOOKUP($A191,統計!$A:$G,2,)</f>
@@ -9408,7 +9460,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>1107</v>
+        <v>1307</v>
       </c>
       <c r="B192" t="e">
         <f>VLOOKUP($A192,統計!$A:$G,2,)</f>
@@ -9432,7 +9484,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>1108</v>
+        <v>1308</v>
       </c>
       <c r="B193" t="e">
         <f>VLOOKUP($A193,統計!$A:$G,2,)</f>
@@ -9456,7 +9508,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>1109</v>
+        <v>1309</v>
       </c>
       <c r="B194" t="e">
         <f>VLOOKUP($A194,統計!$A:$G,2,)</f>
@@ -9480,7 +9532,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>1110</v>
+        <v>1310</v>
       </c>
       <c r="B195" t="e">
         <f>VLOOKUP($A195,統計!$A:$G,2,)</f>
@@ -9504,7 +9556,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>1111</v>
+        <v>1311</v>
       </c>
       <c r="B196" t="e">
         <f>VLOOKUP($A196,統計!$A:$G,2,)</f>
@@ -9528,7 +9580,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>1112</v>
+        <v>1312</v>
       </c>
       <c r="B197" t="e">
         <f>VLOOKUP($A197,統計!$A:$G,2,)</f>
@@ -9552,7 +9604,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>1113</v>
+        <v>1313</v>
       </c>
       <c r="B198" t="e">
         <f>VLOOKUP($A198,統計!$A:$G,2,)</f>
@@ -9576,7 +9628,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>1114</v>
+        <v>1314</v>
       </c>
       <c r="B199" t="e">
         <f>VLOOKUP($A199,統計!$A:$G,2,)</f>
@@ -9600,7 +9652,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>1115</v>
+        <v>1315</v>
       </c>
       <c r="B200" t="e">
         <f>VLOOKUP($A200,統計!$A:$G,2,)</f>
@@ -9624,7 +9676,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>1116</v>
+        <v>1316</v>
       </c>
       <c r="B201" t="e">
         <f>VLOOKUP($A201,統計!$A:$G,2,)</f>
@@ -9648,7 +9700,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>1117</v>
+        <v>1317</v>
       </c>
       <c r="B202" t="e">
         <f>VLOOKUP($A202,統計!$A:$G,2,)</f>
@@ -9672,7 +9724,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>1118</v>
+        <v>1318</v>
       </c>
       <c r="B203" t="e">
         <f>VLOOKUP($A203,統計!$A:$G,2,)</f>
@@ -9696,7 +9748,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>1119</v>
+        <v>1319</v>
       </c>
       <c r="B204" t="e">
         <f>VLOOKUP($A204,統計!$A:$G,2,)</f>
@@ -9720,7 +9772,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>1120</v>
+        <v>1320</v>
       </c>
       <c r="B205" t="e">
         <f>VLOOKUP($A205,統計!$A:$G,2,)</f>
@@ -9744,7 +9796,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>1121</v>
+        <v>1321</v>
       </c>
       <c r="B206" t="e">
         <f>VLOOKUP($A206,統計!$A:$G,2,)</f>
@@ -9768,7 +9820,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>1122</v>
+        <v>1322</v>
       </c>
       <c r="B207" t="e">
         <f>VLOOKUP($A207,統計!$A:$G,2,)</f>
@@ -9792,7 +9844,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>1123</v>
+        <v>1323</v>
       </c>
       <c r="B208" t="e">
         <f>VLOOKUP($A208,統計!$A:$G,2,)</f>
@@ -9816,7 +9868,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>1124</v>
+        <v>1324</v>
       </c>
       <c r="B209" t="e">
         <f>VLOOKUP($A209,統計!$A:$G,2,)</f>
@@ -9840,7 +9892,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>1125</v>
+        <v>1325</v>
       </c>
       <c r="B210" t="e">
         <f>VLOOKUP($A210,統計!$A:$G,2,)</f>
@@ -9864,7 +9916,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>1126</v>
+        <v>1326</v>
       </c>
       <c r="B211" t="e">
         <f>VLOOKUP($A211,統計!$A:$G,2,)</f>
@@ -9888,7 +9940,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>1127</v>
+        <v>1327</v>
       </c>
       <c r="B212" t="e">
         <f>VLOOKUP($A212,統計!$A:$G,2,)</f>
@@ -9912,7 +9964,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>1128</v>
+        <v>1328</v>
       </c>
       <c r="B213" t="e">
         <f>VLOOKUP($A213,統計!$A:$G,2,)</f>
@@ -9936,7 +9988,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>1129</v>
+        <v>1329</v>
       </c>
       <c r="B214" t="e">
         <f>VLOOKUP($A214,統計!$A:$G,2,)</f>
@@ -9960,7 +10012,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>1130</v>
+        <v>1330</v>
       </c>
       <c r="B215" t="e">
         <f>VLOOKUP($A215,統計!$A:$G,2,)</f>
@@ -9984,7 +10036,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>1131</v>
+        <v>1331</v>
       </c>
       <c r="B216" t="e">
         <f>VLOOKUP($A216,統計!$A:$G,2,)</f>
@@ -10008,7 +10060,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>1132</v>
+        <v>1332</v>
       </c>
       <c r="B217" t="e">
         <f>VLOOKUP($A217,統計!$A:$G,2,)</f>
@@ -10032,7 +10084,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="B218" t="e">
         <f>VLOOKUP($A218,統計!$A:$G,2,)</f>
@@ -10056,7 +10108,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>1134</v>
+        <v>1334</v>
       </c>
       <c r="B219" t="e">
         <f>VLOOKUP($A219,統計!$A:$G,2,)</f>
@@ -10080,7 +10132,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>1135</v>
+        <v>1335</v>
       </c>
       <c r="B220" t="e">
         <f>VLOOKUP($A220,統計!$A:$G,2,)</f>
@@ -10104,7 +10156,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>1136</v>
+        <v>1336</v>
       </c>
       <c r="B221" t="e">
         <f>VLOOKUP($A221,統計!$A:$G,2,)</f>
@@ -10128,7 +10180,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>1137</v>
+        <v>1337</v>
       </c>
       <c r="B222" t="e">
         <f>VLOOKUP($A222,統計!$A:$G,2,)</f>
@@ -10152,7 +10204,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>1138</v>
+        <v>1338</v>
       </c>
       <c r="B223" t="e">
         <f>VLOOKUP($A223,統計!$A:$G,2,)</f>
@@ -10176,7 +10228,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>1139</v>
+        <v>1339</v>
       </c>
       <c r="B224" t="e">
         <f>VLOOKUP($A224,統計!$A:$G,2,)</f>
@@ -10200,7 +10252,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="B225" t="e">
         <f>VLOOKUP($A225,統計!$A:$G,2,)</f>
@@ -10224,7 +10276,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>1141</v>
+        <v>1341</v>
       </c>
       <c r="B226" t="e">
         <f>VLOOKUP($A226,統計!$A:$G,2,)</f>
@@ -10248,7 +10300,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>1142</v>
+        <v>1342</v>
       </c>
       <c r="B227" t="e">
         <f>VLOOKUP($A227,統計!$A:$G,2,)</f>
@@ -10272,7 +10324,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>1143</v>
+        <v>1343</v>
       </c>
       <c r="B228" t="e">
         <f>VLOOKUP($A228,統計!$A:$G,2,)</f>
@@ -10296,7 +10348,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>1144</v>
+        <v>1344</v>
       </c>
       <c r="B229" t="e">
         <f>VLOOKUP($A229,統計!$A:$G,2,)</f>
@@ -10320,7 +10372,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>1145</v>
+        <v>1345</v>
       </c>
       <c r="B230" t="e">
         <f>VLOOKUP($A230,統計!$A:$G,2,)</f>
@@ -10344,7 +10396,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>1146</v>
+        <v>1346</v>
       </c>
       <c r="B231" t="e">
         <f>VLOOKUP($A231,統計!$A:$G,2,)</f>
@@ -10368,7 +10420,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>1147</v>
+        <v>1347</v>
       </c>
       <c r="B232" t="e">
         <f>VLOOKUP($A232,統計!$A:$G,2,)</f>
@@ -10392,7 +10444,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233">
-        <v>1148</v>
+        <v>1348</v>
       </c>
       <c r="B233" t="e">
         <f>VLOOKUP($A233,統計!$A:$G,2,)</f>
@@ -10416,7 +10468,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234">
-        <v>1149</v>
+        <v>1349</v>
       </c>
       <c r="B234" t="e">
         <f>VLOOKUP($A234,統計!$A:$G,2,)</f>
@@ -10440,7 +10492,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235">
-        <v>1150</v>
+        <v>1350</v>
       </c>
       <c r="B235" t="e">
         <f>VLOOKUP($A235,統計!$A:$G,2,)</f>
@@ -10464,7 +10516,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236">
-        <v>1151</v>
+        <v>1351</v>
       </c>
       <c r="B236" t="e">
         <f>VLOOKUP($A236,統計!$A:$G,2,)</f>
@@ -10488,7 +10540,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237">
-        <v>1152</v>
+        <v>1352</v>
       </c>
       <c r="B237" t="e">
         <f>VLOOKUP($A237,統計!$A:$G,2,)</f>
@@ -10512,7 +10564,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>1153</v>
+        <v>1353</v>
       </c>
       <c r="B238" t="e">
         <f>VLOOKUP($A238,統計!$A:$G,2,)</f>
@@ -10536,7 +10588,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239">
-        <v>1154</v>
+        <v>1354</v>
       </c>
       <c r="B239" t="e">
         <f>VLOOKUP($A239,統計!$A:$G,2,)</f>
@@ -10560,7 +10612,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240">
-        <v>1155</v>
+        <v>1355</v>
       </c>
       <c r="B240" t="e">
         <f>VLOOKUP($A240,統計!$A:$G,2,)</f>
@@ -10584,7 +10636,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>1156</v>
+        <v>1356</v>
       </c>
       <c r="B241" t="e">
         <f>VLOOKUP($A241,統計!$A:$G,2,)</f>
@@ -10608,7 +10660,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242">
-        <v>1157</v>
+        <v>1357</v>
       </c>
       <c r="B242" t="e">
         <f>VLOOKUP($A242,統計!$A:$G,2,)</f>
@@ -10632,7 +10684,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243">
-        <v>1158</v>
+        <v>1358</v>
       </c>
       <c r="B243" t="e">
         <f>VLOOKUP($A243,統計!$A:$G,2,)</f>
@@ -10656,7 +10708,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244">
-        <v>1159</v>
+        <v>1359</v>
       </c>
       <c r="B244" t="e">
         <f>VLOOKUP($A244,統計!$A:$G,2,)</f>
@@ -10680,7 +10732,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245">
-        <v>1160</v>
+        <v>1360</v>
       </c>
       <c r="B245" t="e">
         <f>VLOOKUP($A245,統計!$A:$G,2,)</f>
@@ -10704,7 +10756,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246">
-        <v>1161</v>
+        <v>1361</v>
       </c>
       <c r="B246" t="e">
         <f>VLOOKUP($A246,統計!$A:$G,2,)</f>
@@ -10728,7 +10780,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247">
-        <v>1162</v>
+        <v>1362</v>
       </c>
       <c r="B247" t="e">
         <f>VLOOKUP($A247,統計!$A:$G,2,)</f>
@@ -10752,7 +10804,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248">
-        <v>1163</v>
+        <v>1363</v>
       </c>
       <c r="B248" t="e">
         <f>VLOOKUP($A248,統計!$A:$G,2,)</f>
@@ -10776,7 +10828,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249">
-        <v>1164</v>
+        <v>1364</v>
       </c>
       <c r="B249" t="e">
         <f>VLOOKUP($A249,統計!$A:$G,2,)</f>
@@ -10800,7 +10852,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250">
-        <v>1165</v>
+        <v>1365</v>
       </c>
       <c r="B250" t="e">
         <f>VLOOKUP($A250,統計!$A:$G,2,)</f>
@@ -10824,7 +10876,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251">
-        <v>1166</v>
+        <v>1366</v>
       </c>
       <c r="B251" t="e">
         <f>VLOOKUP($A251,統計!$A:$G,2,)</f>
@@ -10848,7 +10900,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252">
-        <v>1167</v>
+        <v>1367</v>
       </c>
       <c r="B252" t="e">
         <f>VLOOKUP($A252,統計!$A:$G,2,)</f>
@@ -10872,7 +10924,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253">
-        <v>1168</v>
+        <v>1368</v>
       </c>
       <c r="B253" t="e">
         <f>VLOOKUP($A253,統計!$A:$G,2,)</f>
@@ -10896,7 +10948,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>1169</v>
+        <v>1369</v>
       </c>
       <c r="B254" t="e">
         <f>VLOOKUP($A254,統計!$A:$G,2,)</f>
@@ -10920,7 +10972,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>1170</v>
+        <v>1370</v>
       </c>
       <c r="B255" t="e">
         <f>VLOOKUP($A255,統計!$A:$G,2,)</f>
@@ -10944,7 +10996,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>1171</v>
+        <v>1371</v>
       </c>
       <c r="B256" t="e">
         <f>VLOOKUP($A256,統計!$A:$G,2,)</f>
@@ -10968,7 +11020,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>1172</v>
+        <v>1372</v>
       </c>
       <c r="B257" t="e">
         <f>VLOOKUP($A257,統計!$A:$G,2,)</f>
@@ -10992,7 +11044,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258">
-        <v>1173</v>
+        <v>1373</v>
       </c>
       <c r="B258" t="e">
         <f>VLOOKUP($A258,統計!$A:$G,2,)</f>
@@ -11016,7 +11068,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259">
-        <v>1174</v>
+        <v>1374</v>
       </c>
       <c r="B259" t="e">
         <f>VLOOKUP($A259,統計!$A:$G,2,)</f>
@@ -11040,7 +11092,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260">
-        <v>1175</v>
+        <v>1375</v>
       </c>
       <c r="B260" t="e">
         <f>VLOOKUP($A260,統計!$A:$G,2,)</f>
@@ -11064,7 +11116,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261">
-        <v>1176</v>
+        <v>1376</v>
       </c>
       <c r="B261" t="e">
         <f>VLOOKUP($A261,統計!$A:$G,2,)</f>
@@ -11088,7 +11140,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262">
-        <v>1177</v>
+        <v>1377</v>
       </c>
       <c r="B262" t="e">
         <f>VLOOKUP($A262,統計!$A:$G,2,)</f>
@@ -11112,7 +11164,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263">
-        <v>1178</v>
+        <v>1378</v>
       </c>
       <c r="B263" t="e">
         <f>VLOOKUP($A263,統計!$A:$G,2,)</f>
@@ -11136,7 +11188,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264">
-        <v>1179</v>
+        <v>1379</v>
       </c>
       <c r="B264" t="e">
         <f>VLOOKUP($A264,統計!$A:$G,2,)</f>
@@ -11160,7 +11212,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265">
-        <v>1180</v>
+        <v>1380</v>
       </c>
       <c r="B265" t="e">
         <f>VLOOKUP($A265,統計!$A:$G,2,)</f>
@@ -11184,7 +11236,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266">
-        <v>1181</v>
+        <v>1381</v>
       </c>
       <c r="B266" t="e">
         <f>VLOOKUP($A266,統計!$A:$G,2,)</f>
@@ -11208,7 +11260,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>1201</v>
+        <v>1401</v>
       </c>
       <c r="B267" t="e">
         <f>VLOOKUP($A267,統計!$A:$G,2,)</f>
@@ -11232,7 +11284,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>1202</v>
+        <v>1402</v>
       </c>
       <c r="B268" t="e">
         <f>VLOOKUP($A268,統計!$A:$G,2,)</f>
@@ -11256,7 +11308,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269">
-        <v>1203</v>
+        <v>1403</v>
       </c>
       <c r="B269" t="e">
         <f>VLOOKUP($A269,統計!$A:$G,2,)</f>
@@ -11280,7 +11332,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270">
-        <v>1204</v>
+        <v>1404</v>
       </c>
       <c r="B270" t="e">
         <f>VLOOKUP($A270,統計!$A:$G,2,)</f>
@@ -11304,7 +11356,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271">
-        <v>1205</v>
+        <v>1405</v>
       </c>
       <c r="B271" t="e">
         <f>VLOOKUP($A271,統計!$A:$G,2,)</f>
@@ -11328,7 +11380,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272">
-        <v>1206</v>
+        <v>1406</v>
       </c>
       <c r="B272" t="e">
         <f>VLOOKUP($A272,統計!$A:$G,2,)</f>
@@ -11352,7 +11404,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273">
-        <v>1301</v>
+        <v>1501</v>
       </c>
       <c r="B273" t="e">
         <f>VLOOKUP($A273,統計!$A:$G,2,)</f>
@@ -11376,7 +11428,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274">
-        <v>1302</v>
+        <v>1502</v>
       </c>
       <c r="B274" t="e">
         <f>VLOOKUP($A274,統計!$A:$G,2,)</f>
@@ -11400,7 +11452,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275">
-        <v>1303</v>
+        <v>1503</v>
       </c>
       <c r="B275" t="e">
         <f>VLOOKUP($A275,統計!$A:$G,2,)</f>
@@ -11424,7 +11476,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276">
-        <v>1304</v>
+        <v>1504</v>
       </c>
       <c r="B276" t="e">
         <f>VLOOKUP($A276,統計!$A:$G,2,)</f>
@@ -11448,7 +11500,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277">
-        <v>1305</v>
+        <v>1505</v>
       </c>
       <c r="B277" t="e">
         <f>VLOOKUP($A277,統計!$A:$G,2,)</f>
@@ -11472,7 +11524,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278">
-        <v>1306</v>
+        <v>1506</v>
       </c>
       <c r="B278" t="e">
         <f>VLOOKUP($A278,統計!$A:$G,2,)</f>
@@ -11496,7 +11548,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279">
-        <v>1307</v>
+        <v>1507</v>
       </c>
       <c r="B279" t="e">
         <f>VLOOKUP($A279,統計!$A:$G,2,)</f>
@@ -11520,7 +11572,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280">
-        <v>1308</v>
+        <v>1508</v>
       </c>
       <c r="B280" t="e">
         <f>VLOOKUP($A280,統計!$A:$G,2,)</f>
@@ -11544,7 +11596,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281">
-        <v>1401</v>
+        <v>1601</v>
       </c>
       <c r="B281" t="e">
         <f>VLOOKUP($A281,統計!$A:$G,2,)</f>
@@ -11568,7 +11620,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282">
-        <v>1402</v>
+        <v>1602</v>
       </c>
       <c r="B282" t="e">
         <f>VLOOKUP($A282,統計!$A:$G,2,)</f>
@@ -11592,7 +11644,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283">
-        <v>1403</v>
+        <v>1603</v>
       </c>
       <c r="B283" t="e">
         <f>VLOOKUP($A283,統計!$A:$G,2,)</f>
@@ -11616,7 +11668,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284">
-        <v>1404</v>
+        <v>1604</v>
       </c>
       <c r="B284" t="e">
         <f>VLOOKUP($A284,統計!$A:$G,2,)</f>
@@ -11640,7 +11692,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285">
-        <v>1405</v>
+        <v>1605</v>
       </c>
       <c r="B285" t="e">
         <f>VLOOKUP($A285,統計!$A:$G,2,)</f>
@@ -11664,7 +11716,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286">
-        <v>1406</v>
+        <v>1606</v>
       </c>
       <c r="B286" t="e">
         <f>VLOOKUP($A286,統計!$A:$G,2,)</f>
@@ -11688,7 +11740,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287">
-        <v>1501</v>
+        <v>1701</v>
       </c>
       <c r="B287" t="e">
         <f>VLOOKUP($A287,統計!$A:$G,2,)</f>
@@ -11712,7 +11764,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288">
-        <v>1502</v>
+        <v>1702</v>
       </c>
       <c r="B288" t="e">
         <f>VLOOKUP($A288,統計!$A:$G,2,)</f>
@@ -11736,7 +11788,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289">
-        <v>1503</v>
+        <v>1703</v>
       </c>
       <c r="B289" t="e">
         <f>VLOOKUP($A289,統計!$A:$G,2,)</f>
@@ -11760,7 +11812,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290">
-        <v>1504</v>
+        <v>1704</v>
       </c>
       <c r="B290" t="e">
         <f>VLOOKUP($A290,統計!$A:$G,2,)</f>
@@ -11784,7 +11836,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291">
-        <v>1601</v>
+        <v>1801</v>
       </c>
       <c r="B291" t="e">
         <f>VLOOKUP($A291,統計!$A:$G,2,)</f>
@@ -11808,7 +11860,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292">
-        <v>1602</v>
+        <v>1802</v>
       </c>
       <c r="B292" t="e">
         <f>VLOOKUP($A292,統計!$A:$G,2,)</f>
@@ -11832,7 +11884,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293">
-        <v>1603</v>
+        <v>1803</v>
       </c>
       <c r="B293" t="e">
         <f>VLOOKUP($A293,統計!$A:$G,2,)</f>
@@ -11856,7 +11908,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294">
-        <v>1604</v>
+        <v>1804</v>
       </c>
       <c r="B294" t="e">
         <f>VLOOKUP($A294,統計!$A:$G,2,)</f>
@@ -11880,7 +11932,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295">
-        <v>1605</v>
+        <v>1805</v>
       </c>
       <c r="B295" t="e">
         <f>VLOOKUP($A295,統計!$A:$G,2,)</f>

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="435">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,6 +1438,14 @@
   </si>
   <si>
     <t>王莽十一公表、漢官儀印制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王莽7年至14年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王莽滅親表、漢儒天子妻妾制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1667,7 +1675,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1778,6 +1786,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>卷37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>卷38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1899,6 +1910,9 @@
                 <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.875</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1912,11 +1926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165951816"/>
-        <c:axId val="165784808"/>
+        <c:axId val="180599384"/>
+        <c:axId val="180590304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165951816"/>
+        <c:axId val="180599384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,12 +2042,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165784808"/>
+        <c:crossAx val="180590304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165784808"/>
+        <c:axId val="180590304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2160,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165951816"/>
+        <c:crossAx val="180599384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3075,9 +3089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3195,19 +3209,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>713.08108108108104</v>
+        <v>706.84210526315792</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44732.08108108108</v>
+        <v>44725.84210526316</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>409.28154389510996</v>
+        <v>401.28127360290978</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44428.281543895107</v>
+        <v>44420.281273602908</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3215,7 +3229,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B38" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B39" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3257,19 +3271,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>817.94594594594594</v>
+        <v>810.78947368421052</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44836.945945945947</v>
+        <v>44829.789473684214</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>448.69870703107557</v>
+        <v>439.92794521795724</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44467.698707031079</v>
+        <v>44458.927945217954</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3319,19 +3333,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1237.4054054054054</v>
+        <v>1226.578947368421</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45256.405405405407</v>
+        <v>45245.57894736842</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>540.67208768166211</v>
+        <v>530.1035123197347</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44559.672087681662</v>
+        <v>44549.103512319736</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3381,19 +3395,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1845.6216216216214</v>
+        <v>1829.4736842105265</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45864.62162162162</v>
+        <v>45848.473684210527</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>651.69709718129866</v>
+        <v>638.95830403545187</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44670.697097181299</v>
+        <v>44657.958304035448</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3443,19 +3457,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2778.9189189189187</v>
+        <v>2754.605263157895</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46797.91891891892</v>
+        <v>46773.605263157893</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>860.60806180191662</v>
+        <v>843.78566359520357</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44879.608061801919</v>
+        <v>44862.785663595205</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3505,19 +3519,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>3083.0270270270271</v>
+        <v>3056.0526315789475</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47102.027027027027</v>
+        <v>47075.052631578947</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>894.76960318642011</v>
+        <v>877.27944566157805</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44913.769603186418</v>
+        <v>44896.279445661581</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3567,19 +3581,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3083.0270270270271</v>
+        <v>3056.0526315789475</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47102.027027027027</v>
+        <v>47075.052631578947</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>894.76960318642011</v>
+        <v>877.27944566157805</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44913.769603186418</v>
+        <v>44896.279445661581</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3652,7 +3666,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.486486486486486</v>
+        <v>10.394736842105264</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3692,7 +3706,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.65695271893276075</v>
+        <v>0.64411119358412483</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4587,8 +4601,37 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39">
+        <v>402</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="2"/>
+        <v>卷38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44397</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44403</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39" si="27">D39-C39+1</f>
+        <v>7</v>
+      </c>
+      <c r="F39" s="2">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <f>IF(F39*G39&lt;0,ABS(F39)+ABS(G39),G39-F39+1)</f>
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39" si="28">E39/H39</f>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C40" s="2"/>
@@ -4618,9 +4661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5790,24 +5833,30 @@
       <c r="A39">
         <v>402</v>
       </c>
-      <c r="B39" t="e">
+      <c r="B39" t="str">
         <f>VLOOKUP($A39,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷38</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="D39" t="e">
+      <c r="D39">
         <f>VLOOKUP($A39,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" t="e">
+        <v>15</v>
+      </c>
+      <c r="E39">
         <f>VLOOKUP($A39,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I39" t="e">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷38](筆記/资治通鉴38.html)|漢紀三十|15|22||王莽滅親表、漢儒天子妻妾制|王莽7年至14年</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="437">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,6 +1446,14 @@
   </si>
   <si>
     <t>王莽滅親表、漢儒天子妻妾制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王莽15年、玄漢至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東漢幽州十郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,7 +1683,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1789,6 +1797,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>卷38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>卷39</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1913,6 +1924,9 @@
                 <c:pt idx="37">
                   <c:v>0.875</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1926,11 +1940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180599384"/>
-        <c:axId val="180590304"/>
+        <c:axId val="187438376"/>
+        <c:axId val="187438760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180599384"/>
+        <c:axId val="187438376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,12 +2056,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180590304"/>
+        <c:crossAx val="187438760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180590304"/>
+        <c:axId val="187438760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2174,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180599384"/>
+        <c:crossAx val="187438376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3089,9 +3103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3209,19 +3223,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>706.84210526315792</v>
+        <v>699.17948717948718</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44725.84210526316</v>
+        <v>44718.179487179485</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>401.28127360290978</v>
+        <v>434.39571635292418</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44420.281273602908</v>
+        <v>44453.395716352927</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3229,7 +3243,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B39" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B40" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3271,19 +3285,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>810.78947368421052</v>
+        <v>802.00000000000011</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44829.789473684214</v>
+        <v>44821</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>439.92794521795724</v>
+        <v>476.23157988611109</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44458.927945217954</v>
+        <v>44495.231579886109</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3333,19 +3347,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1226.578947368421</v>
+        <v>1213.2820512820513</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45245.57894736842</v>
+        <v>45232.282051282054</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>530.1035123197347</v>
+        <v>573.84859479688055</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44549.103512319736</v>
+        <v>44592.84859479688</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3395,19 +3409,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1829.4736842105265</v>
+        <v>1809.6410256410259</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45848.473684210527</v>
+        <v>45828.641025641024</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>638.95830403545187</v>
+        <v>691.68627708202371</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44657.958304035448</v>
+        <v>44710.686277082023</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3457,19 +3471,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2754.605263157895</v>
+        <v>2724.7435897435898</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46773.605263157893</v>
+        <v>46743.743589743593</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>843.78566359520357</v>
+        <v>913.41635380791445</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44862.785663595205</v>
+        <v>44932.416353807916</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3519,19 +3533,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>3056.0526315789475</v>
+        <v>3022.9230769230771</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47075.052631578947</v>
+        <v>47041.923076923078</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>877.27944566157805</v>
+        <v>949.67410220334307</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44896.279445661581</v>
+        <v>44968.674102203346</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3581,19 +3595,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3056.0526315789475</v>
+        <v>3022.9230769230771</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47075.052631578947</v>
+        <v>47041.923076923078</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>877.27944566157805</v>
+        <v>949.67410220334307</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44896.279445661581</v>
+        <v>44968.674102203346</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3666,7 +3680,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.394736842105264</v>
+        <v>10.282051282051283</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3706,7 +3720,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.64411119358412483</v>
+        <v>0.69726439221978198</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4634,8 +4648,37 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40">
+        <v>403</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="2"/>
+        <v>卷39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44404</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44409</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="29">D40-C40+1</f>
+        <v>6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>23</v>
+      </c>
+      <c r="G40" s="2">
+        <v>24</v>
+      </c>
+      <c r="H40">
+        <f>IF(F40*G40&lt;0,ABS(F40)+ABS(G40),G40-F40+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40" si="30">E40/H40</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C41" s="2"/>
@@ -4661,9 +4704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5863,24 +5906,30 @@
       <c r="A40">
         <v>403</v>
       </c>
-      <c r="B40" t="e">
+      <c r="B40" t="str">
         <f>VLOOKUP($A40,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷39</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
       </c>
-      <c r="D40" t="e">
+      <c r="D40">
         <f>VLOOKUP($A40,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" t="e">
+        <v>23</v>
+      </c>
+      <c r="E40">
         <f>VLOOKUP($A40,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" t="e">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>436</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷39](筆記/资治通鉴39.html)|漢紀三十一|23|24||東漢幽州十郡|王莽15年、玄漢至2年</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -1453,7 +1453,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>東漢幽州十郡</t>
+    <t>東漢幽州十郡、銅馬諸賊表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1605,7 +1605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1940,11 +1939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187438376"/>
-        <c:axId val="187438760"/>
+        <c:axId val="265096376"/>
+        <c:axId val="265096768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187438376"/>
+        <c:axId val="265096376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +1989,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2056,12 +2054,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187438760"/>
+        <c:crossAx val="265096768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187438760"/>
+        <c:axId val="265096768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2105,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2174,7 +2171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187438376"/>
+        <c:crossAx val="265096376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5929,7 +5926,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>[卷39](筆記/资治通鉴39.html)|漢紀三十一|23|24||東漢幽州十郡|王莽15年、玄漢至2年</v>
+        <v>[卷39](筆記/资治通鉴39.html)|漢紀三十一|23|24||東漢幽州十郡、銅馬諸賊表|王莽15年、玄漢至2年</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="438">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1454,6 +1454,10 @@
   </si>
   <si>
     <t>東漢幽州十郡、銅馬諸賊表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢光武帝至2年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1605,6 +1609,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1682,7 +1687,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1799,6 +1804,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>卷39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>卷40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1926,6 +1934,9 @@
                 <c:pt idx="38">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1939,11 +1950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265096376"/>
-        <c:axId val="265096768"/>
+        <c:axId val="187783208"/>
+        <c:axId val="187741552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265096376"/>
+        <c:axId val="187783208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,6 +2000,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2054,12 +2066,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265096768"/>
+        <c:crossAx val="187741552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265096768"/>
+        <c:axId val="187741552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,6 +2117,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2171,7 +2184,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265096376"/>
+        <c:crossAx val="187783208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3102,7 +3115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3220,19 +3233,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>699.17948717948718</v>
+        <v>693.59999999999991</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44718.179487179485</v>
+        <v>44712.6</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>434.39571635292418</v>
+        <v>476.39980241867983</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44453.395716352927</v>
+        <v>44495.39980241868</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3240,7 +3253,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B40" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B41" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3282,19 +3295,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>802.00000000000011</v>
+        <v>795.59999999999991</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44821</v>
+        <v>44814.6</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>476.23157988611109</v>
+        <v>522.28100329367305</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44495.231579886109</v>
+        <v>44541.281003293676</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3344,19 +3357,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1213.2820512820513</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45232.282051282054</v>
+        <v>45222.6</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>573.84859479688055</v>
+        <v>629.3371386686573</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44592.84859479688</v>
+        <v>44648.337138668656</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3406,19 +3419,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1809.6410256410259</v>
+        <v>1795.1999999999998</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45828.641025641024</v>
+        <v>45814.2</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>691.68627708202371</v>
+        <v>758.56918779988825</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44710.686277082023</v>
+        <v>44777.569187799891</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3468,19 +3481,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2724.7435897435898</v>
+        <v>2703</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46743.743589743593</v>
+        <v>46722</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>913.41635380791445</v>
+        <v>1001.7395524373525</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>44932.416353807916</v>
+        <v>45020.73955243735</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3530,19 +3543,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>3022.9230769230771</v>
+        <v>2998.7999999999997</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47041.923076923078</v>
+        <v>47017.8</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>949.67410220334307</v>
+        <v>1041.5032598623466</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>44968.674102203346</v>
+        <v>45060.503259862344</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3592,19 +3605,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3022.9230769230771</v>
+        <v>2998.7999999999997</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47041.923076923078</v>
+        <v>47017.8</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>949.67410220334307</v>
+        <v>1041.5032598623466</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>44968.674102203346</v>
+        <v>45060.503259862344</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3677,7 +3690,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.282051282051283</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3717,7 +3730,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.69726439221978198</v>
+        <v>0.76468668124988737</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4678,8 +4691,37 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41">
+        <v>501</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="2"/>
+        <v>卷40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44410</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44416</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="31">D41-C41+1</f>
+        <v>7</v>
+      </c>
+      <c r="F41" s="2">
+        <v>25</v>
+      </c>
+      <c r="G41" s="2">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <f>IF(F41*G41&lt;0,ABS(F41)+ABS(G41),G41-F41+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <f>E41/H41</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C42" s="2"/>
@@ -4703,7 +4745,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5933,24 +5975,27 @@
       <c r="A41">
         <v>501</v>
       </c>
-      <c r="B41" t="e">
+      <c r="B41" t="str">
         <f>VLOOKUP($A41,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷40</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
       </c>
-      <c r="D41" t="e">
+      <c r="D41">
         <f>VLOOKUP($A41,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E41" t="e">
+        <v>25</v>
+      </c>
+      <c r="E41">
         <f>VLOOKUP($A41,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I41" t="e">
+        <v>26</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷40](筆記/资治通鉴40.html)|漢紀三十二|25|26|||漢光武帝至2年</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="440">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1458,6 +1458,14 @@
   </si>
   <si>
     <t>漢光武帝至2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢光武帝3年至5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿氏世系、莎車王世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1687,7 +1695,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1807,6 +1815,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>卷40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>卷41</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1937,6 +1948,9 @@
                 <c:pt idx="39">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1950,11 +1964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187783208"/>
-        <c:axId val="187741552"/>
+        <c:axId val="182204984"/>
+        <c:axId val="182206160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187783208"/>
+        <c:axId val="182204984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,12 +2080,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187741552"/>
+        <c:crossAx val="182206160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187741552"/>
+        <c:axId val="182206160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,7 +2198,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187783208"/>
+        <c:crossAx val="182204984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3113,9 +3127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3233,19 +3247,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>693.59999999999991</v>
+        <v>689.95121951219517</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44712.6</v>
+        <v>44708.951219512193</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>476.39980241867983</v>
+        <v>494.69074945487444</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44495.39980241868</v>
+        <v>44513.690749454872</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3253,7 +3267,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B41" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B42" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3295,19 +3309,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>795.59999999999991</v>
+        <v>791.41463414634143</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44814.6</v>
+        <v>44810.414634146342</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>522.28100329367305</v>
+        <v>542.33351826272747</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44541.281003293676</v>
+        <v>44561.333518262727</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3357,19 +3371,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1203.5999999999999</v>
+        <v>1197.2682926829268</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45222.6</v>
+        <v>45216.268292682929</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>629.3371386686573</v>
+        <v>653.49997881438469</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44648.337138668656</v>
+        <v>44672.499978814383</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3419,19 +3433,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1795.1999999999998</v>
+        <v>1785.7560975609756</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45814.2</v>
+        <v>45804.756097560974</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>758.56918779988825</v>
+        <v>787.69377762317083</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44777.569187799891</v>
+        <v>44806.693777623172</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3481,19 +3495,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2703</v>
+        <v>2688.7804878048782</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46722</v>
+        <v>46707.780487804877</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1001.7395524373525</v>
+        <v>1040.2004523047922</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45020.73955243735</v>
+        <v>45059.200452304794</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3543,19 +3557,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2998.7999999999997</v>
+        <v>2983.0243902439024</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47017.8</v>
+        <v>47002.024390243903</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1041.5032598623466</v>
+        <v>1081.4908519382648</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45060.503259862344</v>
+        <v>45100.490851938266</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3605,19 +3619,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2998.7999999999997</v>
+        <v>2983.0243902439024</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47017.8</v>
+        <v>47002.024390243903</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1041.5032598623466</v>
+        <v>1081.4908519382648</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45060.503259862344</v>
+        <v>45100.490851938266</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3690,7 +3704,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.199999999999999</v>
+        <v>10.146341463414634</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3730,7 +3744,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.76468668124988737</v>
+        <v>0.79404614679755126</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4550,11 +4564,11 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <f>IF(F36*G36&lt;0,ABS(F36)+ABS(G36),G36-F36+1)</f>
+        <f t="shared" ref="H36:H41" si="22">IF(F36*G36&lt;0,ABS(F36)+ABS(G36),G36-F36+1)</f>
         <v>4</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36" si="22">E36/H36</f>
+        <f t="shared" ref="I36" si="23">E36/H36</f>
         <v>1.25</v>
       </c>
     </row>
@@ -4573,7 +4587,7 @@
         <v>44390</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37" si="23">D37-C37+1</f>
+        <f t="shared" ref="E37" si="24">D37-C37+1</f>
         <v>5</v>
       </c>
       <c r="F37" s="2">
@@ -4583,11 +4597,11 @@
         <v>8</v>
       </c>
       <c r="H37">
-        <f>IF(F37*G37&lt;0,ABS(F37)+ABS(G37),G37-F37+1)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37" si="24">E37/H37</f>
+        <f t="shared" ref="I37" si="25">E37/H37</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -4606,7 +4620,7 @@
         <v>44396</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" ref="E38" si="25">D38-C38+1</f>
+        <f t="shared" ref="E38" si="26">D38-C38+1</f>
         <v>6</v>
       </c>
       <c r="F38" s="2">
@@ -4616,11 +4630,11 @@
         <v>14</v>
       </c>
       <c r="H38">
-        <f>IF(F38*G38&lt;0,ABS(F38)+ABS(G38),G38-F38+1)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38" si="26">E38/H38</f>
+        <f t="shared" ref="I38" si="27">E38/H38</f>
         <v>1</v>
       </c>
     </row>
@@ -4639,7 +4653,7 @@
         <v>44403</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="27">D39-C39+1</f>
+        <f t="shared" ref="E39" si="28">D39-C39+1</f>
         <v>7</v>
       </c>
       <c r="F39" s="2">
@@ -4649,11 +4663,11 @@
         <v>22</v>
       </c>
       <c r="H39">
-        <f>IF(F39*G39&lt;0,ABS(F39)+ABS(G39),G39-F39+1)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39" si="28">E39/H39</f>
+        <f t="shared" ref="I39" si="29">E39/H39</f>
         <v>0.875</v>
       </c>
     </row>
@@ -4672,7 +4686,7 @@
         <v>44409</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ref="E40" si="29">D40-C40+1</f>
+        <f t="shared" ref="E40" si="30">D40-C40+1</f>
         <v>6</v>
       </c>
       <c r="F40" s="2">
@@ -4682,11 +4696,11 @@
         <v>24</v>
       </c>
       <c r="H40">
-        <f>IF(F40*G40&lt;0,ABS(F40)+ABS(G40),G40-F40+1)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40" si="30">E40/H40</f>
+        <f t="shared" ref="I40" si="31">E40/H40</f>
         <v>3</v>
       </c>
     </row>
@@ -4705,7 +4719,7 @@
         <v>44416</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41" si="31">D41-C41+1</f>
+        <f t="shared" ref="E41" si="32">D41-C41+1</f>
         <v>7</v>
       </c>
       <c r="F41" s="2">
@@ -4715,7 +4729,7 @@
         <v>26</v>
       </c>
       <c r="H41">
-        <f>IF(F41*G41&lt;0,ABS(F41)+ABS(G41),G41-F41+1)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="I41">
@@ -4724,8 +4738,37 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42">
+        <v>502</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="2"/>
+        <v>卷41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44417</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44424</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="33">D42-C42+1</f>
+        <v>8</v>
+      </c>
+      <c r="F42" s="2">
+        <v>27</v>
+      </c>
+      <c r="G42" s="2">
+        <v>29</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42" si="34">IF(F42*G42&lt;0,ABS(F42)+ABS(G42),G42-F42+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <f>E42/H42</f>
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C43" s="2"/>
@@ -4745,7 +4788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6002,24 +6045,30 @@
       <c r="A42">
         <v>502</v>
       </c>
-      <c r="B42" t="e">
+      <c r="B42" t="str">
         <f>VLOOKUP($A42,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷41</v>
       </c>
       <c r="C42" t="s">
         <v>70</v>
       </c>
-      <c r="D42" t="e">
+      <c r="D42">
         <f>VLOOKUP($A42,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E42" t="e">
+        <v>27</v>
+      </c>
+      <c r="E42">
         <f>VLOOKUP($A42,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I42" t="e">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>439</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷41](筆記/资治通鉴41.html)|漢紀三十三|27|29|耿氏世系、莎車王世系||漢光武帝3年至5年</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="442">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1467,6 +1467,13 @@
   <si>
     <t>耿氏世系、莎車王世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰氏世系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢光武帝6年至11年</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1702,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1818,6 +1825,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>卷41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>卷42</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1951,6 +1961,9 @@
                 <c:pt idx="40">
                   <c:v>2.6666666666666665</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1964,11 +1977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182204984"/>
-        <c:axId val="182206160"/>
+        <c:axId val="189114088"/>
+        <c:axId val="189059512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182204984"/>
+        <c:axId val="189114088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,12 +2093,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182206160"/>
+        <c:crossAx val="189059512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182206160"/>
+        <c:axId val="189059512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182204984"/>
+        <c:crossAx val="189114088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3127,9 +3140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3247,19 +3260,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>689.95121951219517</v>
+        <v>683.23809523809518</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44708.951219512193</v>
+        <v>44702.238095238092</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>494.69074945487444</v>
+        <v>485.71459296513996</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44513.690749454872</v>
+        <v>44504.714592965138</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3267,7 +3280,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B42" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B43" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3309,19 +3322,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>791.41463414634143</v>
+        <v>783.71428571428567</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44810.414634146342</v>
+        <v>44802.714285714283</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>542.33351826272747</v>
+        <v>532.49288442245688</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44561.333518262727</v>
+        <v>44551.492884422456</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3371,19 +3384,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1197.2682926829268</v>
+        <v>1185.6190476190477</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45216.268292682929</v>
+        <v>45204.619047619046</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>653.49997881438469</v>
+        <v>641.6422311561962</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44672.499978814383</v>
+        <v>44660.642231156198</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3433,19 +3446,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1785.7560975609756</v>
+        <v>1768.3809523809523</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45804.756097560974</v>
+        <v>45787.380952380954</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>787.69377762317083</v>
+        <v>773.40108542763858</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44806.693777623172</v>
+        <v>44792.401085427642</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3495,19 +3508,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2688.7804878048782</v>
+        <v>2662.6190476190477</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46707.780487804877</v>
+        <v>46681.619047619046</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1040.2004523047922</v>
+        <v>1021.326030151418</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45059.200452304794</v>
+        <v>45040.326030151416</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3557,19 +3570,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2983.0243902439024</v>
+        <v>2954</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47002.024390243903</v>
+        <v>46973</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1081.4908519382648</v>
+        <v>1061.8672160810925</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45100.490851938266</v>
+        <v>45080.867216081089</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3619,19 +3632,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2983.0243902439024</v>
+        <v>2954</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47002.024390243903</v>
+        <v>46973</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1081.4908519382648</v>
+        <v>1061.8672160810925</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45100.490851938266</v>
+        <v>45080.867216081089</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3704,7 +3717,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.146341463414634</v>
+        <v>10.047619047619047</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3744,7 +3757,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.79404614679755126</v>
+        <v>0.77963819095528086</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -4771,8 +4784,37 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43">
+        <v>503</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="2"/>
+        <v>卷42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44425</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44430</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ref="E43" si="35">D43-C43+1</f>
+        <v>6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2">
+        <v>35</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43" si="36">IF(F43*G43&lt;0,ABS(F43)+ABS(G43),G43-F43+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <f>E43/H43</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4788,7 +4830,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6075,24 +6117,30 @@
       <c r="A43">
         <v>503</v>
       </c>
-      <c r="B43" t="e">
+      <c r="B43" t="str">
         <f>VLOOKUP($A43,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷42</v>
       </c>
       <c r="C43" t="s">
         <v>71</v>
       </c>
-      <c r="D43" t="e">
+      <c r="D43">
         <f>VLOOKUP($A43,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E43" t="e">
+        <v>30</v>
+      </c>
+      <c r="E43">
         <f>VLOOKUP($A43,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I43" t="e">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>440</v>
+      </c>
+      <c r="H43" t="s">
+        <v>441</v>
+      </c>
+      <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷42](筆記/资治通鉴42.html)|漢紀三十四|30|35|陰氏世系||漢光武帝6年至11年</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="444">
   <si>
     <t>卷目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1474,6 +1474,14 @@
   </si>
   <si>
     <t>漢光武帝6年至11年</t>
+  </si>
+  <si>
+    <t>漢光武帝12年至22年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羌人諸种、光武子嗣表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1702,7 +1710,7 @@
             <c:strRef>
               <c:f>統計!$B$2:$B$115</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>卷1</c:v>
                 </c:pt>
@@ -1828,6 +1836,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>卷42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>卷43</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1964,6 +1975,9 @@
                 <c:pt idx="41">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1977,11 +1991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189114088"/>
-        <c:axId val="189059512"/>
+        <c:axId val="193642088"/>
+        <c:axId val="194755264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189114088"/>
+        <c:axId val="193642088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,12 +2107,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189059512"/>
+        <c:crossAx val="194755264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189059512"/>
+        <c:axId val="194755264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,7 +2225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189114088"/>
+        <c:crossAx val="193642088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3138,11 +3152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3176,7 +3190,7 @@
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>366</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -3260,19 +3274,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="1">L2*$L$10</f>
-        <v>683.23809523809518</v>
+        <v>680</v>
       </c>
       <c r="P2" s="1">
         <f>$C$2+O2</f>
-        <v>44702.238095238092</v>
+        <v>44699</v>
       </c>
       <c r="Q2">
         <f>(M2-$F$2)*$L$11</f>
-        <v>485.71459296513996</v>
+        <v>478.8664769959716</v>
       </c>
       <c r="R2" s="1">
         <f>$C$2+Q2</f>
-        <v>44504.714592965138</v>
+        <v>44497.866476995972</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3280,7 +3294,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B43" si="2">"卷"&amp;ROW(B2)</f>
+        <f t="shared" ref="B3:B44" si="2">"卷"&amp;ROW(B2)</f>
         <v>卷2</v>
       </c>
       <c r="C3" s="1">
@@ -3294,6 +3308,7 @@
         <v>30</v>
       </c>
       <c r="F3">
+        <f>G2+1</f>
         <v>-368</v>
       </c>
       <c r="G3">
@@ -3322,19 +3337,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>783.71428571428567</v>
+        <v>780</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:R8" si="6">$C$2+O3</f>
-        <v>44802.714285714283</v>
+        <v>44799</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q8" si="7">(M3-$F$2)*$L$11</f>
-        <v>532.49288442245688</v>
+        <v>524.98523882543918</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>44551.492884422456</v>
+        <v>44543.985238825437</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -3356,6 +3371,7 @@
         <v>28</v>
       </c>
       <c r="F4">
+        <f t="shared" ref="F4:F44" si="8">G3+1</f>
         <v>-320</v>
       </c>
       <c r="G4">
@@ -3384,19 +3400,19 @@
       </c>
       <c r="O4">
         <f>L4*$L$10</f>
-        <v>1185.6190476190477</v>
+        <v>1180</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45204.619047619046</v>
+        <v>45199</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>641.6422311561962</v>
+        <v>632.59568309419683</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>44660.642231156198</v>
+        <v>44651.595683094194</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -3418,6 +3434,7 @@
         <v>23</v>
       </c>
       <c r="F5">
+        <f t="shared" si="8"/>
         <v>-297</v>
       </c>
       <c r="G5">
@@ -3446,19 +3463,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1768.3809523809523</v>
+        <v>1760</v>
       </c>
       <c r="P5" s="1">
         <f>$C$2+O5</f>
-        <v>45787.380952380954</v>
+        <v>45779</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>773.40108542763858</v>
+        <v>762.4968622471971</v>
       </c>
       <c r="R5" s="1">
         <f>$C$2+Q5</f>
-        <v>44792.401085427642</v>
+        <v>44781.496862247201</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -3480,6 +3497,7 @@
         <v>24</v>
       </c>
       <c r="F6">
+        <f t="shared" si="8"/>
         <v>-272</v>
       </c>
       <c r="G6">
@@ -3508,19 +3526,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2662.6190476190477</v>
+        <v>2650</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46681.619047619046</v>
+        <v>46669</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1021.326030151418</v>
+        <v>1006.9262999433752</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>45040.326030151416</v>
+        <v>45025.926299943378</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -3542,6 +3560,7 @@
         <v>26</v>
       </c>
       <c r="F7">
+        <f t="shared" si="8"/>
         <v>-255</v>
       </c>
       <c r="G7">
@@ -3570,19 +3589,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2954</v>
+        <v>2940</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>46973</v>
+        <v>46959</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>1061.8672160810925</v>
+        <v>1046.8958935289138</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>45080.867216081089</v>
+        <v>45065.895893528912</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -3604,6 +3623,7 @@
         <v>16</v>
       </c>
       <c r="F8">
+        <f t="shared" si="8"/>
         <v>-227</v>
       </c>
       <c r="G8">
@@ -3632,19 +3652,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2954</v>
+        <v>2940</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>46973</v>
+        <v>46959</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1061.8672160810925</v>
+        <v>1046.8958935289138</v>
       </c>
       <c r="R8" s="1">
         <f>$C$2+Q8</f>
-        <v>45080.867216081089</v>
+        <v>45065.895893528912</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -3666,6 +3686,7 @@
         <v>15</v>
       </c>
       <c r="F9">
+        <f t="shared" si="8"/>
         <v>-208</v>
       </c>
       <c r="G9">
@@ -3699,6 +3720,7 @@
         <v>5</v>
       </c>
       <c r="F10">
+        <f t="shared" si="8"/>
         <v>-206</v>
       </c>
       <c r="G10">
@@ -3717,7 +3739,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.047619047619047</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -3735,10 +3757,11 @@
         <v>44212</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E28" si="8">D11-C11+1</f>
+        <f t="shared" ref="E11:E28" si="9">D11-C11+1</f>
         <v>6</v>
       </c>
       <c r="F11">
+        <f t="shared" si="8"/>
         <v>-204</v>
       </c>
       <c r="G11">
@@ -3757,7 +3780,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>0.77963819095528086</v>
+        <v>0.76864603049112612</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -3775,10 +3798,11 @@
         <v>44220</v>
       </c>
       <c r="E12" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="F12">
         <v>-202</v>
       </c>
       <c r="G12">
@@ -3808,10 +3832,11 @@
         <v>44229</v>
       </c>
       <c r="E13" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="F13">
         <v>-199</v>
       </c>
       <c r="G13">
@@ -3841,10 +3866,11 @@
         <v>44238</v>
       </c>
       <c r="E14" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F14">
         <v>-187</v>
       </c>
       <c r="G14">
@@ -3874,10 +3900,11 @@
         <v>44247</v>
       </c>
       <c r="E15" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="F15">
         <v>-177</v>
       </c>
       <c r="G15">
@@ -3907,10 +3934,11 @@
         <v>44255</v>
       </c>
       <c r="E16" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="F16">
         <v>-169</v>
       </c>
       <c r="G16">
@@ -3940,10 +3968,11 @@
         <v>44264</v>
       </c>
       <c r="E17" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="F17">
         <v>-154</v>
       </c>
       <c r="G17">
@@ -3973,10 +4002,11 @@
         <v>44271</v>
       </c>
       <c r="E18" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="F18">
         <v>-140</v>
       </c>
       <c r="G18">
@@ -4006,10 +4036,11 @@
         <v>44278</v>
       </c>
       <c r="E19" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="F19">
         <v>-133</v>
       </c>
       <c r="G19" s="2">
@@ -4039,10 +4070,11 @@
         <v>44287</v>
       </c>
       <c r="E20" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="F20">
         <v>-124</v>
       </c>
       <c r="G20" s="2">
@@ -4053,7 +4085,7 @@
         <v>6</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="9">E20/H20</f>
+        <f t="shared" ref="I20" si="10">E20/H20</f>
         <v>1.5</v>
       </c>
     </row>
@@ -4072,10 +4104,11 @@
         <v>44293</v>
       </c>
       <c r="E21" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="F21">
         <v>-118</v>
       </c>
       <c r="G21" s="2">
@@ -4086,7 +4119,7 @@
         <v>9</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="10">E21/H21</f>
+        <f t="shared" ref="I21" si="11">E21/H21</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -4105,10 +4138,11 @@
         <v>44300</v>
       </c>
       <c r="E22" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="F22">
         <v>-109</v>
       </c>
       <c r="G22">
@@ -4119,7 +4153,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="11">E22/H22</f>
+        <f t="shared" ref="I22:I23" si="12">E22/H22</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
@@ -4138,10 +4172,11 @@
         <v>44307</v>
       </c>
       <c r="E23" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="F23" s="2">
         <v>-98</v>
       </c>
       <c r="G23" s="2">
@@ -4152,7 +4187,7 @@
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4171,10 +4206,11 @@
         <v>44316</v>
       </c>
       <c r="E24" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F24">
         <v>-86</v>
       </c>
       <c r="G24">
@@ -4185,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="12">E24/H24</f>
+        <f t="shared" ref="I24" si="13">E24/H24</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -4204,10 +4240,11 @@
         <v>44325</v>
       </c>
       <c r="E25" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="F25">
         <v>-74</v>
       </c>
       <c r="G25">
@@ -4218,7 +4255,7 @@
         <v>7</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I27" si="13">E25/H25</f>
+        <f t="shared" ref="I25:I27" si="14">E25/H25</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -4237,10 +4274,11 @@
         <v>44330</v>
       </c>
       <c r="E26" s="2">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="F26">
         <v>-67</v>
       </c>
       <c r="G26">
@@ -4251,7 +4289,7 @@
         <v>6</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="14">E26/H26</f>
+        <f t="shared" ref="I26" si="15">E26/H26</f>
         <v>1</v>
       </c>
     </row>
@@ -4270,10 +4308,11 @@
         <v>44333</v>
       </c>
       <c r="E27" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="F27">
         <v>-61</v>
       </c>
       <c r="G27">
@@ -4284,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -4303,10 +4342,11 @@
         <v>44340</v>
       </c>
       <c r="E28" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="F28" s="2">
         <v>-58</v>
       </c>
       <c r="G28" s="2">
@@ -4317,7 +4357,7 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="15">E28/H28</f>
+        <f t="shared" ref="I28" si="16">E28/H28</f>
         <v>0.7</v>
       </c>
     </row>
@@ -4336,10 +4376,11 @@
         <v>44345</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ref="E29:E34" si="16">D29-C29+1</f>
+        <f t="shared" ref="E29:E34" si="17">D29-C29+1</f>
         <v>5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
+        <f t="shared" si="8"/>
         <v>-48</v>
       </c>
       <c r="G29" s="2">
@@ -4350,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I34" si="17">E29/H29</f>
+        <f t="shared" ref="I29:I34" si="18">E29/H29</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -4369,10 +4410,11 @@
         <v>44352</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
+        <f t="shared" si="8"/>
         <v>-41</v>
       </c>
       <c r="G30" s="2">
@@ -4383,7 +4425,7 @@
         <v>9</v>
       </c>
       <c r="I30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -4402,10 +4444,11 @@
         <v>44361</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
+        <f t="shared" si="8"/>
         <v>-32</v>
       </c>
       <c r="G31" s="2">
@@ -4416,7 +4459,7 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.9</v>
       </c>
     </row>
@@ -4435,21 +4478,22 @@
         <v>44368</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
+        <f t="shared" si="8"/>
         <v>-22</v>
       </c>
       <c r="G32" s="2">
         <v>-14</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:H35" si="18">IF(F32*G32&lt;0,ABS(F32)+ABS(G32),G32-F32+1)</f>
+        <f t="shared" ref="H32:H35" si="19">IF(F32*G32&lt;0,ABS(F32)+ABS(G32),G32-F32+1)</f>
         <v>9</v>
       </c>
       <c r="I32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
@@ -4468,21 +4512,22 @@
         <v>44373</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="G33" s="2">
         <v>-8</v>
       </c>
       <c r="H33">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -4501,21 +4546,22 @@
         <v>44377</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
       <c r="G34" s="2">
         <v>-6</v>
       </c>
       <c r="H34">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
     </row>
@@ -4534,21 +4580,22 @@
         <v>44380</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ref="E35" si="19">D35-C35+1</f>
+        <f t="shared" ref="E35" si="20">D35-C35+1</f>
         <v>3</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
+        <f t="shared" si="8"/>
         <v>-5</v>
       </c>
       <c r="G35" s="2">
         <v>-3</v>
       </c>
       <c r="H35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35" si="20">E35/H35</f>
+        <f t="shared" ref="I35" si="21">E35/H35</f>
         <v>1</v>
       </c>
     </row>
@@ -4567,21 +4614,22 @@
         <v>44385</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" ref="E36" si="21">D36-C36+1</f>
+        <f t="shared" ref="E36" si="22">D36-C36+1</f>
         <v>5</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H41" si="22">IF(F36*G36&lt;0,ABS(F36)+ABS(G36),G36-F36+1)</f>
+        <f t="shared" ref="H36:H41" si="23">IF(F36*G36&lt;0,ABS(F36)+ABS(G36),G36-F36+1)</f>
         <v>4</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36" si="23">E36/H36</f>
+        <f t="shared" ref="I36" si="24">E36/H36</f>
         <v>1.25</v>
       </c>
     </row>
@@ -4600,21 +4648,22 @@
         <v>44390</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37" si="24">D37-C37+1</f>
+        <f t="shared" ref="E37" si="25">D37-C37+1</f>
         <v>5</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G37" s="2">
         <v>8</v>
       </c>
       <c r="H37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37" si="25">E37/H37</f>
+        <f t="shared" ref="I37" si="26">E37/H37</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -4633,21 +4682,22 @@
         <v>44396</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" ref="E38" si="26">D38-C38+1</f>
+        <f t="shared" ref="E38" si="27">D38-C38+1</f>
         <v>6</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G38" s="2">
         <v>14</v>
       </c>
       <c r="H38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38" si="27">E38/H38</f>
+        <f t="shared" ref="I38" si="28">E38/H38</f>
         <v>1</v>
       </c>
     </row>
@@ -4666,21 +4716,22 @@
         <v>44403</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="28">D39-C39+1</f>
+        <f t="shared" ref="E39" si="29">D39-C39+1</f>
         <v>7</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G39" s="2">
         <v>22</v>
       </c>
       <c r="H39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39" si="29">E39/H39</f>
+        <f t="shared" ref="I39" si="30">E39/H39</f>
         <v>0.875</v>
       </c>
     </row>
@@ -4699,21 +4750,22 @@
         <v>44409</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ref="E40" si="30">D40-C40+1</f>
+        <f t="shared" ref="E40" si="31">D40-C40+1</f>
         <v>6</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="G40" s="2">
         <v>24</v>
       </c>
       <c r="H40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40" si="31">E40/H40</f>
+        <f t="shared" ref="I40" si="32">E40/H40</f>
         <v>3</v>
       </c>
     </row>
@@ -4732,17 +4784,18 @@
         <v>44416</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41" si="32">D41-C41+1</f>
+        <f t="shared" ref="E41" si="33">D41-C41+1</f>
         <v>7</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G41" s="2">
         <v>26</v>
       </c>
       <c r="H41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="I41">
@@ -4765,17 +4818,18 @@
         <v>44424</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42" si="33">D42-C42+1</f>
+        <f t="shared" ref="E42" si="34">D42-C42+1</f>
         <v>8</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="G42" s="2">
         <v>29</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42" si="34">IF(F42*G42&lt;0,ABS(F42)+ABS(G42),G42-F42+1)</f>
+        <f t="shared" ref="H42" si="35">IF(F42*G42&lt;0,ABS(F42)+ABS(G42),G42-F42+1)</f>
         <v>3</v>
       </c>
       <c r="I42">
@@ -4798,22 +4852,57 @@
         <v>44430</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" ref="E43" si="35">D43-C43+1</f>
+        <f t="shared" ref="E43" si="36">D43-C43+1</f>
         <v>6</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G43" s="2">
         <v>35</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43" si="36">IF(F43*G43&lt;0,ABS(F43)+ABS(G43),G43-F43+1)</f>
+        <f t="shared" ref="H43" si="37">IF(F43*G43&lt;0,ABS(F43)+ABS(G43),G43-F43+1)</f>
         <v>6</v>
       </c>
       <c r="I43">
         <f>E43/H43</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>504</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="2"/>
+        <v>卷43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44431</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44438</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" ref="E44" si="38">D44-C44+1</f>
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="G44" s="2">
+        <v>46</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="39">IF(F44*G44&lt;0,ABS(F44)+ABS(G44),G44-F44+1)</f>
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <f>E44/H44</f>
+        <v>0.72727272727272729</v>
       </c>
     </row>
   </sheetData>
@@ -4829,8 +4918,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6147,24 +6236,30 @@
       <c r="A44">
         <v>504</v>
       </c>
-      <c r="B44" t="e">
+      <c r="B44" t="str">
         <f>VLOOKUP($A44,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷43</v>
       </c>
       <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="D44" t="e">
+      <c r="D44">
         <f>VLOOKUP($A44,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" t="e">
+        <v>36</v>
+      </c>
+      <c r="E44">
         <f>VLOOKUP($A44,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I44" t="e">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s">
+        <v>443</v>
+      </c>
+      <c r="H44" t="s">
+        <v>442</v>
+      </c>
+      <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>[卷43](筆記/资治通鉴43.html)|漢紀三十五|36|46||羌人諸种、光武子嗣表|漢光武帝12年至22年</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">

--- a/筆記/閱讀數據.xlsx
+++ b/筆記/閱讀數據.xlsx
@@ -1357,10 +1357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西漢時期匈奴官制、汉武帝子嗣、人臣功五品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>匈奴五单于争立背景、假設蓋主嫁王充、上官皇后世系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1481,6 +1477,10 @@
   </si>
   <si>
     <t>羌人諸种、光武子嗣表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢朝匈奴官制、汉武帝子嗣、人臣功五品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1632,7 +1632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1991,11 +1990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193642088"/>
-        <c:axId val="194755264"/>
+        <c:axId val="188436032"/>
+        <c:axId val="188257272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193642088"/>
+        <c:axId val="188436032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2040,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2107,12 +2105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194755264"/>
+        <c:crossAx val="188257272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194755264"/>
+        <c:axId val="188257272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2225,7 +2222,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193642088"/>
+        <c:crossAx val="188436032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4918,8 +4915,8 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5616,14 +5613,14 @@
         <v>-87</v>
       </c>
       <c r="G23" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="H23" t="s">
         <v>372</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>[卷22](筆記/资治通鉴22.html)|漢紀十四|-98|-87||西漢時期匈奴官制、汉武帝子嗣、人臣功五品|漢武帝43年至54年</v>
+        <v>[卷22](筆記/资治通鉴22.html)|漢紀十四|-98|-87||漢朝匈奴官制、汉武帝子嗣、人臣功五品|漢武帝43年至54年</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -5646,7 +5643,7 @@
         <v>-75</v>
       </c>
       <c r="F24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H24" t="s">
         <v>373</v>
@@ -5676,10 +5673,10 @@
         <v>-68</v>
       </c>
       <c r="F25" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" t="s">
         <v>414</v>
-      </c>
-      <c r="G25" t="s">
-        <v>415</v>
       </c>
       <c r="H25" t="s">
         <v>374</v>
@@ -5709,7 +5706,7 @@
         <v>-62</v>
       </c>
       <c r="G26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H26" t="s">
         <v>375</v>
@@ -5766,10 +5763,10 @@
         <v>-49</v>
       </c>
       <c r="F28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H28" t="s">
         <v>377</v>
@@ -5799,7 +5796,7 @@
         <v>-42</v>
       </c>
       <c r="G29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H29" t="s">
         <v>378</v>
@@ -5829,7 +5826,7 @@
         <v>-33</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>379</v>
@@ -5859,7 +5856,7 @@
         <v>-23</v>
       </c>
       <c r="F31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>380</v>
@@ -5889,10 +5886,10 @@
         <v>-14</v>
       </c>
       <c r="F32" t="s">
+        <v>421</v>
+      </c>
+      <c r="G32" t="s">
         <v>422</v>
-      </c>
-      <c r="G32" t="s">
-        <v>423</v>
       </c>
       <c r="H32" t="s">
         <v>381</v>
@@ -5922,7 +5919,7 @@
         <v>-8</v>
       </c>
       <c r="F33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H33" t="s">
         <v>382</v>
@@ -5952,7 +5949,7 @@
         <v>-6</v>
       </c>
       <c r="F34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H34" t="s">
         <v>383</v>
@@ -5982,7 +5979,7 @@
         <v>-3</v>
       </c>
       <c r="G35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H35" t="s">
         <v>384</v>
@@ -6012,10 +6009,10 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H36" t="s">
         <v>385</v>
@@ -6045,10 +6042,10 @@
         <v>8</v>
       </c>
       <c r="G37" t="s">
+        <v>428</v>
+      </c>
+      <c r="H37" t="s">
         <v>429</v>
-      </c>
-      <c r="H37" t="s">
-        <v>430</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
@@ -6075,10 +6072,10 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
@@ -6105,10 +6102,10 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -6135,10 +6132,10 @@
         <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -6165,7 +6162,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -6192,10 +6189,10 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -6222,10 +6219,10 @@
         <v>35</v>
       </c>
       <c r="F43" t="s">
+        <v>439</v>
+      </c>
+      <c r="H43" t="s">
         <v>440</v>
-      </c>
-      <c r="H43" t="s">
-        <v>441</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -6252,10 +6249,10 @@
         <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
